--- a/data/SG.MI.xlsx
+++ b/data/SG.MI.xlsx
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16496706008911</t>
+    <t xml:space="preserve">7.16496610641479</t>
   </si>
   <si>
     <t xml:space="preserve">SG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58355665206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61073732376099</t>
+    <t xml:space="preserve">7.58355712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61073780059814</t>
   </si>
   <si>
     <t xml:space="preserve">7.32805347442627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98013496398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92577171325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01275110244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15409278869629</t>
+    <t xml:space="preserve">6.9801344871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92577123641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01275157928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15409326553345</t>
   </si>
   <si>
     <t xml:space="preserve">6.87684488296509</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38214635848999</t>
+    <t xml:space="preserve">6.38214778900146</t>
   </si>
   <si>
     <t xml:space="preserve">5.95812034606934</t>
@@ -77,19 +77,19 @@
     <t xml:space="preserve">6.53436231613159</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32234811782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74093914031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91489934921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99100637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85510015487671</t>
+    <t xml:space="preserve">6.32234907150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74093961715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91489887237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99100685119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85510063171387</t>
   </si>
   <si>
     <t xml:space="preserve">6.64852285385132</t>
@@ -98,22 +98,22 @@
     <t xml:space="preserve">6.7083215713501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89858961105347</t>
+    <t xml:space="preserve">6.89859056472778</t>
   </si>
   <si>
     <t xml:space="preserve">6.75724792480469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52348947525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25167798995972</t>
+    <t xml:space="preserve">6.52348899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2516770362854</t>
   </si>
   <si>
     <t xml:space="preserve">6.10489892959595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15355730056763</t>
+    <t xml:space="preserve">5.15355634689331</t>
   </si>
   <si>
     <t xml:space="preserve">5.19432878494263</t>
@@ -122,88 +122,88 @@
     <t xml:space="preserve">5.27315425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9252347946167</t>
+    <t xml:space="preserve">4.92523527145386</t>
   </si>
   <si>
     <t xml:space="preserve">5.02580499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13724756240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04483127593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01221513748169</t>
+    <t xml:space="preserve">5.13724803924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04483222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01221466064453</t>
   </si>
   <si>
     <t xml:space="preserve">4.88446235656738</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64825439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47429513931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52322101593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45798635482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56671142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83308696746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19731426239014</t>
+    <t xml:space="preserve">5.64825487136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47429370880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322053909302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45798587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56671047210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8330864906311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19731473922729</t>
   </si>
   <si>
     <t xml:space="preserve">5.99617385864258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87114143371582</t>
+    <t xml:space="preserve">5.8711404800415</t>
   </si>
   <si>
     <t xml:space="preserve">5.84395933151245</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94724750518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8167781829834</t>
+    <t xml:space="preserve">5.94724702835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81677770614624</t>
   </si>
   <si>
     <t xml:space="preserve">5.57214736938477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63194608688354</t>
+    <t xml:space="preserve">5.63194561004639</t>
   </si>
   <si>
     <t xml:space="preserve">5.80590581893921</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42020130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41476440429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46369075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3114767074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11577177047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36040258407593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38758277893066</t>
+    <t xml:space="preserve">6.42020082473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41476535797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46369171142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31147575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11577129364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36040210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38758373260498</t>
   </si>
   <si>
     <t xml:space="preserve">6.45281839370728</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">6.34409332275391</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30060386657715</t>
+    <t xml:space="preserve">6.30060338973999</t>
   </si>
   <si>
     <t xml:space="preserve">6.13207960128784</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">5.68087196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07771778106689</t>
+    <t xml:space="preserve">6.07771825790405</t>
   </si>
   <si>
     <t xml:space="preserve">6.01791906356812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83852291107178</t>
+    <t xml:space="preserve">5.83852386474609</t>
   </si>
   <si>
     <t xml:space="preserve">6.00161027908325</t>
@@ -239,28 +239,28 @@
     <t xml:space="preserve">5.99073791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71892595291138</t>
+    <t xml:space="preserve">5.71892547607422</t>
   </si>
   <si>
     <t xml:space="preserve">5.68630886077881</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57758378982544</t>
+    <t xml:space="preserve">5.5775842666626</t>
   </si>
   <si>
     <t xml:space="preserve">5.82765054702759</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77872467041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82221460342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91239356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70949029922485</t>
+    <t xml:space="preserve">5.778724193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82221364974976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91239404678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7094898223877</t>
   </si>
   <si>
     <t xml:space="preserve">5.72076225280762</t>
@@ -269,10 +269,10 @@
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76021671295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81657838821411</t>
+    <t xml:space="preserve">5.7602162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81657743453979</t>
   </si>
   <si>
     <t xml:space="preserve">6.00820970535278</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">6.07584381103516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97439336776733</t>
+    <t xml:space="preserve">5.97439241409302</t>
   </si>
   <si>
     <t xml:space="preserve">5.94621133804321</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77712440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69258069992065</t>
+    <t xml:space="preserve">5.77712392807007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69258117675781</t>
   </si>
   <si>
     <t xml:space="preserve">5.83348703384399</t>
@@ -305,58 +305,58 @@
     <t xml:space="preserve">6.1152982711792</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12657022476196</t>
+    <t xml:space="preserve">6.1265697479248</t>
   </si>
   <si>
     <t xml:space="preserve">6.22802257537842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6112847328186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71837329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60001230239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59437656402588</t>
+    <t xml:space="preserve">6.61128520965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71837377548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.600013256073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59437704086304</t>
   </si>
   <si>
     <t xml:space="preserve">6.42528963088989</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43656206130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52110576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56619548797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62255716323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4534707069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620365142822</t>
+    <t xml:space="preserve">6.43656253814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52110528945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56619501113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62255811691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45347118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620317459106</t>
   </si>
   <si>
     <t xml:space="preserve">6.19984102249146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27311134338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50419616699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.577467918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55492353439331</t>
+    <t xml:space="preserve">6.27311182022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50419664382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57746839523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55492305755615</t>
   </si>
   <si>
     <t xml:space="preserve">6.63946628570557</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">6.17165994644165</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33510971069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31256532669067</t>
+    <t xml:space="preserve">6.33511018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31256580352783</t>
   </si>
   <si>
     <t xml:space="preserve">6.35765504837036</t>
@@ -377,37 +377,37 @@
     <t xml:space="preserve">6.45910739898682</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48728847503662</t>
+    <t xml:space="preserve">6.48728895187378</t>
   </si>
   <si>
     <t xml:space="preserve">6.67892026901245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69019317626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75219011306763</t>
+    <t xml:space="preserve">6.69019222259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75219058990479</t>
   </si>
   <si>
     <t xml:space="preserve">7.12981700897217</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98327589035034</t>
+    <t xml:space="preserve">6.98327541351318</t>
   </si>
   <si>
     <t xml:space="preserve">6.93254947662354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07345581054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27635860443115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21436023712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11854553222656</t>
+    <t xml:space="preserve">7.07345485687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27635908126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21436071395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11854457855225</t>
   </si>
   <si>
     <t xml:space="preserve">7.0678186416626</t>
@@ -419,40 +419,40 @@
     <t xml:space="preserve">7.14108991622925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01145601272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71273756027222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76346302032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72964477539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87055063247681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92691421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10163640975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05654668807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15799856185913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04527425765991</t>
+    <t xml:space="preserve">7.01145648956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71273708343506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76346349716187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7296462059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87055110931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92691326141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10163593292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05654716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15799903869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04527473449707</t>
   </si>
   <si>
     <t xml:space="preserve">7.01709270477295</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94945859909058</t>
+    <t xml:space="preserve">6.94945812225342</t>
   </si>
   <si>
     <t xml:space="preserve">6.9663667678833</t>
@@ -467,142 +467,142 @@
     <t xml:space="preserve">7.20308828353882</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23126840591431</t>
+    <t xml:space="preserve">7.23126983642578</t>
   </si>
   <si>
     <t xml:space="preserve">7.343994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51308107376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4961724281311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41162776947021</t>
+    <t xml:space="preserve">7.51308012008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49617195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41162872314453</t>
   </si>
   <si>
     <t xml:space="preserve">7.42853689193726</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48489809036255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40599203109741</t>
+    <t xml:space="preserve">7.48489904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40599250793457</t>
   </si>
   <si>
     <t xml:space="preserve">7.32708549499512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45108222961426</t>
+    <t xml:space="preserve">7.45108270645142</t>
   </si>
   <si>
     <t xml:space="preserve">7.28763198852539</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30454063415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47362756729126</t>
+    <t xml:space="preserve">7.30453968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47362613677979</t>
   </si>
   <si>
     <t xml:space="preserve">7.37781095504761</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23690557479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28199577331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12418031692505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2256326675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19181632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21999788284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25945138931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.298903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18617868423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0903639793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09600019454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08472681045532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03963708877563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14347839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5831036567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63383102416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38583660125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08711719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92366695404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10966205596924</t>
+    <t xml:space="preserve">7.2369065284729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28199529647827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12418174743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22563362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19181537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21999740600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25944995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18617916107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09036350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0959997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08472728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03963804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14347887039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44783449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58310461044312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63383054733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38583612442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08711671829224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92366600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10966157913208</t>
   </si>
   <si>
     <t xml:space="preserve">5.92930269241333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02511739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05329895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90112209320068</t>
+    <t xml:space="preserve">6.02511835098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05329942703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90112113952637</t>
   </si>
   <si>
     <t xml:space="preserve">5.7320351600647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80530691146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91803026199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21674919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3294734954834</t>
+    <t xml:space="preserve">5.80530548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91802978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21674966812134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32947397232056</t>
   </si>
   <si>
     <t xml:space="preserve">6.26747512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30129337310791</t>
+    <t xml:space="preserve">6.30129289627075</t>
   </si>
   <si>
     <t xml:space="preserve">6.41401720046997</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">6.87618732452393</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77473640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6281943321228</t>
+    <t xml:space="preserve">6.77473592758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62819480895996</t>
   </si>
   <si>
     <t xml:space="preserve">6.81982564926147</t>
@@ -626,49 +626,49 @@
     <t xml:space="preserve">6.78037166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72400951385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84800672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84237051010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91000509262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70146512985229</t>
+    <t xml:space="preserve">6.7240104675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84800577163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84237003326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91000461578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70146465301514</t>
   </si>
   <si>
     <t xml:space="preserve">6.6845555305481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65073871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60564947128296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50983333587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51546907424927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57183170318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3971095085144</t>
+    <t xml:space="preserve">6.65073919296265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6056489944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50983285903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51546955108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57183122634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710855484009</t>
   </si>
   <si>
     <t xml:space="preserve">6.36892795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44219827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47037982940674</t>
+    <t xml:space="preserve">6.44219923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47037935256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.52674150466919</t>
@@ -683,91 +683,91 @@
     <t xml:space="preserve">6.66201066970825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80291700363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83673334121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26508712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2425422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4792628288269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62580394744873</t>
+    <t xml:space="preserve">6.80291652679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8367338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26508617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24254179000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47926235198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62580442428589</t>
   </si>
   <si>
     <t xml:space="preserve">7.66525793075562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17251873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26833343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00343036651611</t>
+    <t xml:space="preserve">8.17251777648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26833248138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00343132019043</t>
   </si>
   <si>
     <t xml:space="preserve">7.93016004562378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98652362823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03161334991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08797359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4543285369873</t>
+    <t xml:space="preserve">7.98652124404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03161239624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08797454833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45432949066162</t>
   </si>
   <si>
     <t xml:space="preserve">8.67977714538574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7023229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9052267074585</t>
+    <t xml:space="preserve">8.70232200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90522575378418</t>
   </si>
   <si>
     <t xml:space="preserve">9.06303977966309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37866878509521</t>
+    <t xml:space="preserve">9.3786678314209</t>
   </si>
   <si>
     <t xml:space="preserve">9.50266551971436</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68866157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61538887023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92538452148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91974544525146</t>
+    <t xml:space="preserve">9.68866062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61538982391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92538166046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91974639892578</t>
   </si>
   <si>
     <t xml:space="preserve">9.75065898895264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63793468475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40121459960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29976177215576</t>
+    <t xml:space="preserve">9.63793563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40121364593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29976081848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.35048770904541</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">9.41812229156494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2941255569458</t>
+    <t xml:space="preserve">9.29412460327148</t>
   </si>
   <si>
     <t xml:space="preserve">9.38430500030518</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">9.27158069610596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10249328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13067626953125</t>
+    <t xml:space="preserve">9.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13067531585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.51393699645996</t>
@@ -803,25 +803,25 @@
     <t xml:space="preserve">9.31667041778564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73375225067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93665504455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1170129776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4368028640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.785665512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6519355773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5647192001343</t>
+    <t xml:space="preserve">9.73375129699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93665313720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1170148849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4368057250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7856664657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6519365310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5647201538086</t>
   </si>
   <si>
     <t xml:space="preserve">10.4658765792847</t>
@@ -833,34 +833,34 @@
     <t xml:space="preserve">10.7275238037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8147392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0763845443726</t>
+    <t xml:space="preserve">10.8147382736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0763854980469</t>
   </si>
   <si>
     <t xml:space="preserve">10.8554391860962</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6054201126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6228637695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8321809768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9891710281372</t>
+    <t xml:space="preserve">10.6054220199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6228656768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.832181930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9891700744629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1926736831665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2508163452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636009216309</t>
+    <t xml:space="preserve">11.2508172988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636028289795</t>
   </si>
   <si>
     <t xml:space="preserve">11.0473136901855</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">11.0240564346313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0066118240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5589780807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3031454086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1287136077881</t>
+    <t xml:space="preserve">11.0066137313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5589790344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3031463623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1287145614624</t>
   </si>
   <si>
     <t xml:space="preserve">10.8728828430176</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1403427124023</t>
+    <t xml:space="preserve">11.1403436660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.6751947402954</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">10.9484691619873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9077682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4484310150146</t>
+    <t xml:space="preserve">10.9077701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4484329223633</t>
   </si>
   <si>
     <t xml:space="preserve">10.4891338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5705347061157</t>
+    <t xml:space="preserve">10.57053565979</t>
   </si>
   <si>
     <t xml:space="preserve">10.5589065551758</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">10.9310255050659</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4775037765503</t>
+    <t xml:space="preserve">10.4775056838989</t>
   </si>
   <si>
     <t xml:space="preserve">10.58216381073</t>
@@ -920,46 +920,46 @@
     <t xml:space="preserve">10.4077320098877</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2623729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1693439483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0007257461548</t>
+    <t xml:space="preserve">10.2623720169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1693429946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0007266998291</t>
   </si>
   <si>
     <t xml:space="preserve">10.3263320922852</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98909759521484</t>
+    <t xml:space="preserve">9.98909854888916</t>
   </si>
   <si>
     <t xml:space="preserve">9.88443851470947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0297975540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94839763641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1170139312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0123538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3495864868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4542465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3902893066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1751565933228</t>
+    <t xml:space="preserve">10.0297985076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94839668273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1170120239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.012354850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.349588394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4542474746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3902902603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1751575469971</t>
   </si>
   <si>
     <t xml:space="preserve">10.2274856567383</t>
@@ -968,43 +968,43 @@
     <t xml:space="preserve">10.2333011627197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1925992965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3554019927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1809711456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3030729293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1460857391357</t>
+    <t xml:space="preserve">10.1926021575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3554010391235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1809720993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3030738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1460866928101</t>
   </si>
   <si>
     <t xml:space="preserve">10.3088874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344566345215</t>
+    <t xml:space="preserve">10.1344575881958</t>
   </si>
   <si>
     <t xml:space="preserve">10.0995712280273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99491214752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5472784042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2042303085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2391176223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1111993789673</t>
+    <t xml:space="preserve">9.99491119384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5472774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2042284011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2391138076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.111198425293</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251756668091</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">10.5065774917603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5240201950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.553092956543</t>
+    <t xml:space="preserve">10.524019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55309009552</t>
   </si>
   <si>
     <t xml:space="preserve">10.611234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6810092926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1345281600952</t>
+    <t xml:space="preserve">10.6810083389282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1345300674438</t>
   </si>
   <si>
     <t xml:space="preserve">11.5996789932251</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">11.582236289978</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6868963241577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3555488586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4253215789795</t>
+    <t xml:space="preserve">11.6868934631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3555469512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4253206253052</t>
   </si>
   <si>
     <t xml:space="preserve">12.4485778808594</t>
@@ -1049,37 +1049,37 @@
     <t xml:space="preserve">12.902099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8090696334839</t>
+    <t xml:space="preserve">12.8090686798096</t>
   </si>
   <si>
     <t xml:space="preserve">13.1230449676514</t>
   </si>
   <si>
-    <t xml:space="preserve">13.163745880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2858486175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4544649124146</t>
+    <t xml:space="preserve">13.1637449264526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2858467102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4544639587402</t>
   </si>
   <si>
     <t xml:space="preserve">13.8789138793945</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3905792236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4022073745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5359392166138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.030161857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534534454346</t>
+    <t xml:space="preserve">14.3905801773071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4022083282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5359401702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0301628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534543991089</t>
   </si>
   <si>
     <t xml:space="preserve">15.4080953598022</t>
@@ -1091,55 +1091,55 @@
     <t xml:space="preserve">16.1058197021484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6988134384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023189544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6755571365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2918062210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5825262069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5592699050903</t>
+    <t xml:space="preserve">15.6988143920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6755561828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2918081283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5592679977417</t>
   </si>
   <si>
     <t xml:space="preserve">15.7395143508911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6290407180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6813678741455</t>
+    <t xml:space="preserve">15.6290416717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6813716888428</t>
   </si>
   <si>
     <t xml:space="preserve">15.309250831604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2045927047729</t>
+    <t xml:space="preserve">15.2045907974243</t>
   </si>
   <si>
     <t xml:space="preserve">15.1638917922974</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3150634765625</t>
+    <t xml:space="preserve">15.3150653839111</t>
   </si>
   <si>
     <t xml:space="preserve">15.1522636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4778690338135</t>
+    <t xml:space="preserve">15.4778680801392</t>
   </si>
   <si>
     <t xml:space="preserve">15.3673944473267</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4139108657837</t>
+    <t xml:space="preserve">15.4139089584351</t>
   </si>
   <si>
     <t xml:space="preserve">15.4720544815063</t>
@@ -1148,19 +1148,19 @@
     <t xml:space="preserve">15.3906507492065</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1755208969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1580047607422</t>
+    <t xml:space="preserve">15.1755218505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1580028533936</t>
   </si>
   <si>
     <t xml:space="preserve">14.4661655426025</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0126447677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2742910385132</t>
+    <t xml:space="preserve">14.0126457214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2742900848389</t>
   </si>
   <si>
     <t xml:space="preserve">14.0591592788696</t>
@@ -1175,16 +1175,16 @@
     <t xml:space="preserve">15.117377281189</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0941181182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9720153808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5068693161011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4080228805542</t>
+    <t xml:space="preserve">15.0941190719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720182418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5068674087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4080219268799</t>
   </si>
   <si>
     <t xml:space="preserve">14.4603519439697</t>
@@ -1193,40 +1193,40 @@
     <t xml:space="preserve">14.3033628463745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1870765686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2394065856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5243091583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4836101531982</t>
+    <t xml:space="preserve">14.1870756149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.239405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5243110656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4836091995239</t>
   </si>
   <si>
     <t xml:space="preserve">14.4429092407227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.617338180542</t>
+    <t xml:space="preserve">14.6173391342163</t>
   </si>
   <si>
     <t xml:space="preserve">14.4138383865356</t>
   </si>
   <si>
-    <t xml:space="preserve">14.309178352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3382511138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4312801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2684774398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.97194480896</t>
+    <t xml:space="preserve">14.3091793060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.338249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4312791824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2684783935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9719438552856</t>
   </si>
   <si>
     <t xml:space="preserve">13.8905420303345</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">13.8091421127319</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0242748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8672876358032</t>
+    <t xml:space="preserve">14.0242738723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8672847747803</t>
   </si>
   <si>
     <t xml:space="preserve">14.3731355667114</t>
@@ -1247,25 +1247,25 @@
     <t xml:space="preserve">14.3615074157715</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6697416305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7860279083252</t>
+    <t xml:space="preserve">14.5940828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6697425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7860288619995</t>
   </si>
   <si>
     <t xml:space="preserve">15.8151006698608</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7569580078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6115970611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4371671676636</t>
+    <t xml:space="preserve">15.7569589614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6116008758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4371652603149</t>
   </si>
   <si>
     <t xml:space="preserve">15.3790245056152</t>
@@ -1274,34 +1274,34 @@
     <t xml:space="preserve">15.1464471817017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0592317581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2627363204956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8847999572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0883045196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.942946434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.681300163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6637811660767</t>
+    <t xml:space="preserve">15.059232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2627372741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8848028182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0883054733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9429454803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6812982559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6637840270996</t>
   </si>
   <si>
     <t xml:space="preserve">13.5765657424927</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9545011520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6928548812866</t>
+    <t xml:space="preserve">13.9545030593872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.692852973938</t>
   </si>
   <si>
     <t xml:space="preserve">13.1986331939697</t>
@@ -1310,22 +1310,22 @@
     <t xml:space="preserve">13.5184230804443</t>
   </si>
   <si>
-    <t xml:space="preserve">13.634711265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2277030944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1404895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2567758560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9369850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1114168167114</t>
+    <t xml:space="preserve">13.6347103118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2277050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1404886245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2567749023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9369859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1114158630371</t>
   </si>
   <si>
     <t xml:space="preserve">12.5881223678589</t>
@@ -1334,64 +1334,64 @@
     <t xml:space="preserve">12.2101888656616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5590524673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7916259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242004394531</t>
+    <t xml:space="preserve">12.5590505599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7916269302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242013931274</t>
   </si>
   <si>
     <t xml:space="preserve">13.4021339416504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6056385040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.54749584198</t>
+    <t xml:space="preserve">13.6056394577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5474939346313</t>
   </si>
   <si>
     <t xml:space="preserve">12.7334823608398</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9660577774048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0532741546631</t>
+    <t xml:space="preserve">12.9660568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0532732009888</t>
   </si>
   <si>
     <t xml:space="preserve">12.9079141616821</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8788423538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206977844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8497705459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1695594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0823450088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7625551223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4312076568604</t>
+    <t xml:space="preserve">12.8788414001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206968307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8497695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1695604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0823459625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625541687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.431206703186</t>
   </si>
   <si>
     <t xml:space="preserve">13.4358015060425</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3458299636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2558584213257</t>
+    <t xml:space="preserve">13.3458280563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2558574676514</t>
   </si>
   <si>
     <t xml:space="preserve">13.1658868789673</t>
@@ -1403,7 +1403,7 @@
     <t xml:space="preserve">13.1358947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9859418869019</t>
+    <t xml:space="preserve">12.9859409332275</t>
   </si>
   <si>
     <t xml:space="preserve">13.0459232330322</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">12.8359880447388</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3561401367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.176194190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9482660293579</t>
+    <t xml:space="preserve">12.3561391830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1761932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9482669830322</t>
   </si>
   <si>
     <t xml:space="preserve">12.5060911178589</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">12.4161205291748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7443294525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5164022445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7323341369629</t>
+    <t xml:space="preserve">11.7443313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5164012908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7323350906372</t>
   </si>
   <si>
     <t xml:space="preserve">11.6483602523804</t>
@@ -1448,10 +1448,10 @@
     <t xml:space="preserve">12.266167640686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9962530136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9362697601318</t>
+    <t xml:space="preserve">11.9962511062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9362707138062</t>
   </si>
   <si>
     <t xml:space="preserve">12.5960636138916</t>
@@ -1460,19 +1460,19 @@
     <t xml:space="preserve">14.3655099868774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0656051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6757259368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7656993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9756326675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6157464981079</t>
+    <t xml:space="preserve">14.0656042098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6757249832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7656984329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9756317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6157455444336</t>
   </si>
   <si>
     <t xml:space="preserve">13.705717086792</t>
@@ -1490,19 +1490,19 @@
     <t xml:space="preserve">12.9259595870972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.68603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7460174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4761009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5660743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360813140869</t>
+    <t xml:space="preserve">12.6860342025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7460165023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4760999679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360822677612</t>
   </si>
   <si>
     <t xml:space="preserve">12.8959693908691</t>
@@ -1511,7 +1511,7 @@
     <t xml:space="preserve">12.7760076522827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.656044960022</t>
+    <t xml:space="preserve">12.6560459136963</t>
   </si>
   <si>
     <t xml:space="preserve">12.6260538101196</t>
@@ -1520,82 +1520,82 @@
     <t xml:space="preserve">12.3261480331421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2961578369141</t>
+    <t xml:space="preserve">12.2961568832397</t>
   </si>
   <si>
     <t xml:space="preserve">12.8059988021851</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9559516906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4461116790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3861293792725</t>
+    <t xml:space="preserve">12.9559507369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4461097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3861284255981</t>
   </si>
   <si>
     <t xml:space="preserve">12.8659791946411</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1162137985229</t>
+    <t xml:space="preserve">12.1162118911743</t>
   </si>
   <si>
     <t xml:space="preserve">11.9842548370361</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9722576141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1085300445557</t>
+    <t xml:space="preserve">11.9722595214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.10853099823</t>
   </si>
   <si>
     <t xml:space="preserve">11.3724460601807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7966270446777</t>
+    <t xml:space="preserve">10.7966260910034</t>
   </si>
   <si>
     <t xml:space="preserve">10.6166830062866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6046857833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5926885604858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5327091217041</t>
+    <t xml:space="preserve">10.6046867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5926895141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.724648475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5327081680298</t>
   </si>
   <si>
     <t xml:space="preserve">10.4847230911255</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4127445220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.244797706604</t>
+    <t xml:space="preserve">10.412745475769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2447996139526</t>
   </si>
   <si>
     <t xml:space="preserve">10.3767566680908</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3647613525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7366437911987</t>
+    <t xml:space="preserve">10.3647623062134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736644744873</t>
   </si>
   <si>
     <t xml:space="preserve">10.892596244812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9285850524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0845346450806</t>
+    <t xml:space="preserve">10.9285860061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0845365524292</t>
   </si>
   <si>
     <t xml:space="preserve">11.3244609832764</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">11.2524833679199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2884731292725</t>
+    <t xml:space="preserve">11.2884721755981</t>
   </si>
   <si>
     <t xml:space="preserve">11.4684181213379</t>
@@ -1613,73 +1613,73 @@
     <t xml:space="preserve">11.6243667602539</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4084348678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603555679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5403928756714</t>
+    <t xml:space="preserve">11.4084358215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603565216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5403938293457</t>
   </si>
   <si>
     <t xml:space="preserve">11.4204320907593</t>
   </si>
   <si>
-    <t xml:space="preserve">11.15651512146</t>
+    <t xml:space="preserve">11.1565141677856</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766624450684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.844612121582</t>
+    <t xml:space="preserve">10.8446111679077</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604497909546</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3484535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2044982910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3964376449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3844413757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3124656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764759063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3364591598511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1325197219849</t>
+    <t xml:space="preserve">11.3484544754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1685104370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2044992446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3964385986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3844423294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3124647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3364572525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1325206756592</t>
   </si>
   <si>
     <t xml:space="preserve">10.9645738601685</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6526727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607305526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9045915603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8686037063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0725383758545</t>
+    <t xml:space="preserve">10.6526718139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9045934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8686046600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0725393295288</t>
   </si>
   <si>
     <t xml:space="preserve">11.3004684448242</t>
@@ -1688,55 +1688,55 @@
     <t xml:space="preserve">11.264479637146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.480411529541</t>
+    <t xml:space="preserve">11.4804124832153</t>
   </si>
   <si>
     <t xml:space="preserve">11.6843490600586</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7203378677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7683229446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9242734909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0562334060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8762874603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2061862945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.146203994751</t>
+    <t xml:space="preserve">11.7203388214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7683248519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9242744445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0562324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8762884140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2061853408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1462030410767</t>
   </si>
   <si>
     <t xml:space="preserve">13.4657926559448</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4957828521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2258653640747</t>
+    <t xml:space="preserve">13.4957838058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.225866317749</t>
   </si>
   <si>
     <t xml:space="preserve">13.3148632049561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3767938613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4077587127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1910057067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1290769577026</t>
+    <t xml:space="preserve">13.3767929077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4077577590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1910047531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1290760040283</t>
   </si>
   <si>
     <t xml:space="preserve">13.2219705581665</t>
@@ -1745,16 +1745,16 @@
     <t xml:space="preserve">13.4696884155273</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7174062728882</t>
+    <t xml:space="preserve">13.7174053192139</t>
   </si>
   <si>
     <t xml:space="preserve">13.6245126724243</t>
   </si>
   <si>
-    <t xml:space="preserve">13.779335975647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864423751831</t>
+    <t xml:space="preserve">13.7793350219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6864414215088</t>
   </si>
   <si>
     <t xml:space="preserve">12.9123210906982</t>
@@ -1763,25 +1763,25 @@
     <t xml:space="preserve">12.447850227356</t>
   </si>
   <si>
-    <t xml:space="preserve">12.633638381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4168844223022</t>
+    <t xml:space="preserve">12.6336374282837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4168853759766</t>
   </si>
   <si>
     <t xml:space="preserve">12.3735342025757</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7574996948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5407438278198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5717086791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194284439087</t>
+    <t xml:space="preserve">12.7574977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5407428741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5717067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194274902344</t>
   </si>
   <si>
     <t xml:space="preserve">12.6955680847168</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">12.7265329360962</t>
   </si>
   <si>
-    <t xml:space="preserve">12.788462638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.664605140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8813562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6026744842529</t>
+    <t xml:space="preserve">12.7884616851807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6646041870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8813552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6026735305786</t>
   </si>
   <si>
     <t xml:space="preserve">13.0361804962158</t>
@@ -1808,52 +1808,49 @@
     <t xml:space="preserve">13.2529335021973</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0981101989746</t>
+    <t xml:space="preserve">13.0981092453003</t>
   </si>
   <si>
     <t xml:space="preserve">13.283899307251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1600408554077</t>
+    <t xml:space="preserve">13.1600399017334</t>
   </si>
   <si>
     <t xml:space="preserve">12.9432859420776</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0052165985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458280563354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7483720779419</t>
+    <t xml:space="preserve">13.0052156448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7483711242676</t>
   </si>
   <si>
     <t xml:space="preserve">13.9341611862183</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2128448486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0580205917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.119948387146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2747716903687</t>
+    <t xml:space="preserve">14.2128438949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0580196380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1199474334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.274772644043</t>
   </si>
   <si>
     <t xml:space="preserve">14.3986330032349</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3676671981812</t>
+    <t xml:space="preserve">14.3676681518555</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270538330078</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0889825820923</t>
+    <t xml:space="preserve">14.0889835357666</t>
   </si>
   <si>
     <t xml:space="preserve">14.4915266036987</t>
@@ -1862,7 +1859,7 @@
     <t xml:space="preserve">14.1509141921997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4295969009399</t>
+    <t xml:space="preserve">14.4295959472656</t>
   </si>
   <si>
     <t xml:space="preserve">14.5224914550781</t>
@@ -1871,16 +1868,16 @@
     <t xml:space="preserve">14.8011751174927</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7702112197876</t>
+    <t xml:space="preserve">14.7702102661133</t>
   </si>
   <si>
     <t xml:space="preserve">14.6773166656494</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5133638381958</t>
+    <t xml:space="preserve">15.2037172317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133657455444</t>
   </si>
   <si>
     <t xml:space="preserve">15.637225151062</t>
@@ -1895,7 +1892,7 @@
     <t xml:space="preserve">15.6681890487671</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8230133056641</t>
+    <t xml:space="preserve">15.8230113983154</t>
   </si>
   <si>
     <t xml:space="preserve">16.5352039337158</t>
@@ -1913,7 +1910,7 @@
     <t xml:space="preserve">16.9687099456787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0616035461426</t>
+    <t xml:space="preserve">17.0616054534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.5570411682129</t>
@@ -1925,7 +1922,7 @@
     <t xml:space="preserve">18.9194927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027416229248</t>
+    <t xml:space="preserve">18.7027397155762</t>
   </si>
   <si>
     <t xml:space="preserve">19.0743179321289</t>
@@ -1952,7 +1949,7 @@
     <t xml:space="preserve">19.4458961486816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5078239440918</t>
+    <t xml:space="preserve">19.5078258514404</t>
   </si>
   <si>
     <t xml:space="preserve">19.3839645385742</t>
@@ -1964,7 +1961,7 @@
     <t xml:space="preserve">19.3220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1981773376465</t>
+    <t xml:space="preserve">19.1981754302979</t>
   </si>
   <si>
     <t xml:space="preserve">18.7956352233887</t>
@@ -1979,13 +1976,13 @@
     <t xml:space="preserve">18.8575630187988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.640811920166</t>
+    <t xml:space="preserve">18.6408100128174</t>
   </si>
   <si>
     <t xml:space="preserve">18.764669418335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0433502197266</t>
+    <t xml:space="preserve">19.0433521270752</t>
   </si>
   <si>
     <t xml:space="preserve">19.1362457275391</t>
@@ -2000,7 +1997,7 @@
     <t xml:space="preserve">18.7337055206299</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9504566192627</t>
+    <t xml:space="preserve">18.9504585266113</t>
   </si>
   <si>
     <t xml:space="preserve">18.4240550994873</t>
@@ -2018,7 +2015,7 @@
     <t xml:space="preserve">18.1763381958008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0834426879883</t>
+    <t xml:space="preserve">18.0834407806396</t>
   </si>
   <si>
     <t xml:space="preserve">17.8976554870605</t>
@@ -2030,34 +2027,34 @@
     <t xml:space="preserve">17.8047618865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1544990539551</t>
+    <t xml:space="preserve">17.1545009613037</t>
   </si>
   <si>
     <t xml:space="preserve">17.0925712585449</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4331817626953</t>
+    <t xml:space="preserve">17.4331798553467</t>
   </si>
   <si>
     <t xml:space="preserve">18.0215148925781</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9595851898193</t>
+    <t xml:space="preserve">17.9595832824707</t>
   </si>
   <si>
     <t xml:space="preserve">18.2382678985596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6098461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7209911346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5042381286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.946870803833</t>
+    <t xml:space="preserve">18.6098442077637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7209930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5042400360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9468727111816</t>
   </si>
   <si>
     <t xml:space="preserve">15.5443315505981</t>
@@ -2066,13 +2063,13 @@
     <t xml:space="preserve">14.8321390151978</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0488929748535</t>
+    <t xml:space="preserve">15.0488920211792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5534553527832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5436763763428</t>
+    <t xml:space="preserve">11.5436773300171</t>
   </si>
   <si>
     <t xml:space="preserve">11.6303787231445</t>
@@ -2084,7 +2081,7 @@
     <t xml:space="preserve">10.230770111084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8344202041626</t>
+    <t xml:space="preserve">9.83442115783691</t>
   </si>
   <si>
     <t xml:space="preserve">9.37614154815674</t>
@@ -2099,10 +2096,10 @@
     <t xml:space="preserve">9.87157726287842</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4537162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.72620677948</t>
+    <t xml:space="preserve">10.4537153244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7262058258057</t>
   </si>
   <si>
     <t xml:space="preserve">10.8376798629761</t>
@@ -2117,52 +2114,52 @@
     <t xml:space="preserve">11.2835741043091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5932197570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3331174850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.617992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4817485809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8533248901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0143423080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3239908218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8037805557251</t>
+    <t xml:space="preserve">11.5932207107544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3331165313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6179933547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4817495346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.853325843811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0143432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3239917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8037815093994</t>
   </si>
   <si>
     <t xml:space="preserve">11.6799230575562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.138201713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1258153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2001314163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3859214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5637712478638</t>
+    <t xml:space="preserve">12.1382026672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1258172988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2001323699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3859205245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5637702941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4022006988525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0373764038086</t>
+    <t xml:space="preserve">14.0373754501343</t>
   </si>
   <si>
     <t xml:space="preserve">13.6562700271606</t>
@@ -2171,19 +2168,19 @@
     <t xml:space="preserve">13.3704414367676</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1798906326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9575777053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1481313705444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9893379211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8305425643921</t>
+    <t xml:space="preserve">13.1798887252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.957576751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1481304168701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9893369674683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8305416107178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7670259475708</t>
@@ -2192,22 +2189,22 @@
     <t xml:space="preserve">13.0210952758789</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5292358398438</t>
+    <t xml:space="preserve">13.5292348861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.275164604187</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4974775314331</t>
+    <t xml:space="preserve">13.4974765777588</t>
   </si>
   <si>
     <t xml:space="preserve">14.0056161880493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5772762298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3549642562866</t>
+    <t xml:space="preserve">14.5772752761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3549633026123</t>
   </si>
   <si>
     <t xml:space="preserve">14.8948631286621</t>
@@ -2219,31 +2216,31 @@
     <t xml:space="preserve">15.2124500274658</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4030027389526</t>
+    <t xml:space="preserve">15.403003692627</t>
   </si>
   <si>
     <t xml:space="preserve">15.9429035186768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4982786178589</t>
+    <t xml:space="preserve">15.4982795715332</t>
   </si>
   <si>
     <t xml:space="preserve">15.5300378799438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3077259063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1171731948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6407909393311</t>
+    <t xml:space="preserve">15.3077268600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1171741485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6407918930054</t>
   </si>
   <si>
     <t xml:space="preserve">14.291446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9103412628174</t>
+    <t xml:space="preserve">13.9103403091431</t>
   </si>
   <si>
     <t xml:space="preserve">14.2596883773804</t>
@@ -2252,10 +2249,10 @@
     <t xml:space="preserve">14.9583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7360687255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4819984436035</t>
+    <t xml:space="preserve">14.7360696792603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4819974899292</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279281616211</t>
@@ -2267,19 +2264,19 @@
     <t xml:space="preserve">13.973858833313</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2442092895508</t>
+    <t xml:space="preserve">15.2442083358765</t>
   </si>
   <si>
     <t xml:space="preserve">15.0854158401489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3712453842163</t>
+    <t xml:space="preserve">15.371244430542</t>
   </si>
   <si>
     <t xml:space="preserve">15.0536575317383</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2604885101318</t>
+    <t xml:space="preserve">16.2604904174805</t>
   </si>
   <si>
     <t xml:space="preserve">16.1334552764893</t>
@@ -2291,13 +2288,13 @@
     <t xml:space="preserve">15.7205905914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4665212631226</t>
+    <t xml:space="preserve">15.4665222167969</t>
   </si>
   <si>
     <t xml:space="preserve">15.8793849945068</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3240089416504</t>
+    <t xml:space="preserve">16.3240070343018</t>
   </si>
   <si>
     <t xml:space="preserve">17.0226993560791</t>
@@ -2306,22 +2303,22 @@
     <t xml:space="preserve">16.5145606994629</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9111423492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8158664703369</t>
+    <t xml:space="preserve">15.9111442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8158683776855</t>
   </si>
   <si>
     <t xml:space="preserve">16.6733531951904</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4828014373779</t>
+    <t xml:space="preserve">16.4828033447266</t>
   </si>
   <si>
     <t xml:space="preserve">16.6415958404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8321475982666</t>
+    <t xml:space="preserve">16.8321495056152</t>
   </si>
   <si>
     <t xml:space="preserve">16.8003902435303</t>
@@ -2333,10 +2330,10 @@
     <t xml:space="preserve">16.7051124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0544586181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1497344970703</t>
+    <t xml:space="preserve">17.0544605255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1497364044189</t>
   </si>
   <si>
     <t xml:space="preserve">17.117977142334</t>
@@ -2348,7 +2345,7 @@
     <t xml:space="preserve">16.8639068603516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7686290740967</t>
+    <t xml:space="preserve">16.7686309814453</t>
   </si>
   <si>
     <t xml:space="preserve">16.7368717193604</t>
@@ -2366,22 +2363,22 @@
     <t xml:space="preserve">15.5617971420288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2759675979614</t>
+    <t xml:space="preserve">15.2759666442871</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806917190552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4347620010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1489343643188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7995862960815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.609034538269</t>
+    <t xml:space="preserve">15.4347610473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1489334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7995853424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6090335845947</t>
   </si>
   <si>
     <t xml:space="preserve">14.1644105911255</t>
@@ -2390,22 +2387,22 @@
     <t xml:space="preserve">13.7833061218262</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7352657318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0683317184448</t>
+    <t xml:space="preserve">12.7352666854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0683326721191</t>
   </si>
   <si>
     <t xml:space="preserve">12.3732166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4494371414185</t>
+    <t xml:space="preserve">12.4494380950928</t>
   </si>
   <si>
     <t xml:space="preserve">12.6018800735474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0846147537231</t>
+    <t xml:space="preserve">13.0846128463745</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528535842896</t>
@@ -2414,37 +2411,37 @@
     <t xml:space="preserve">13.2434062957764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326522827148</t>
+    <t xml:space="preserve">14.1326513290405</t>
   </si>
   <si>
     <t xml:space="preserve">13.8468227386475</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6888313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8313446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5455150604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7043104171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4184818267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4502382278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901399612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232049942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8785829544067</t>
+    <t xml:space="preserve">15.6888332366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8313455581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5455160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.704309463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4184808731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4502391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901390075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8785820007324</t>
   </si>
   <si>
     <t xml:space="preserve">14.5137577056885</t>
@@ -2456,13 +2453,13 @@
     <t xml:space="preserve">14.3867216110229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1008939743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7197885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657192230225</t>
+    <t xml:space="preserve">14.1008930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7197875976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657182693481</t>
   </si>
   <si>
     <t xml:space="preserve">13.62451171875</t>
@@ -2471,88 +2468,91 @@
     <t xml:space="preserve">13.8150644302368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0691347122192</t>
+    <t xml:space="preserve">14.0691337585449</t>
   </si>
   <si>
     <t xml:space="preserve">13.6880283355713</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4339590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3386831283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3069248199463</t>
+    <t xml:space="preserve">13.4339580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3386821746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.306923866272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7515459060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7839031219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5897636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6221199035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4926948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3309106826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3632669448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4279804229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5574073791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8162603378296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.525050163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2985544204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1691284179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0720586776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0073461532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9038057327271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2661981582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0427570343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1398258209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0751132965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9456853866577</t>
   </si>
   <si>
     <t xml:space="preserve">13.7515468597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7839031219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5897636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6221199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4926948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3309106826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3632669448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4279804229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5574073791504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8162603378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.525050163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2985544204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1691284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0720586776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0073461532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9038057327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2661981582642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544771194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0427570343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1398258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0751132965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9456853866577</t>
   </si>
   <si>
     <t xml:space="preserve">14.0103988647461</t>
@@ -28141,7 +28141,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>603</v>
+        <v>458</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28245,7 +28245,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G939" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -28271,7 +28271,7 @@
         <v>22.5</v>
       </c>
       <c r="G940" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -28297,7 +28297,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G941" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -28323,7 +28323,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G942" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -28349,7 +28349,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G943" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -28375,7 +28375,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G944" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -28401,7 +28401,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G945" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -28427,7 +28427,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G946" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -28453,7 +28453,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G947" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28479,7 +28479,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G948" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -28505,7 +28505,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G949" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -28531,7 +28531,7 @@
         <v>23.25</v>
       </c>
       <c r="G950" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28557,7 +28557,7 @@
         <v>23.25</v>
       </c>
       <c r="G951" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28583,7 +28583,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G952" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28609,7 +28609,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G953" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -28635,7 +28635,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G954" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -28661,7 +28661,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G955" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28687,7 +28687,7 @@
         <v>22.75</v>
       </c>
       <c r="G956" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -28713,7 +28713,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G957" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28739,7 +28739,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G958" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -28765,7 +28765,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G959" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -28791,7 +28791,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G960" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28817,7 +28817,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G961" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28843,7 +28843,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G962" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28869,7 +28869,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G963" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -28895,7 +28895,7 @@
         <v>23.25</v>
       </c>
       <c r="G964" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -28921,7 +28921,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G965" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28947,7 +28947,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G966" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28973,7 +28973,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G967" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -28999,7 +28999,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G968" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -29025,7 +29025,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G969" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -29051,7 +29051,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G970" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -29077,7 +29077,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G971" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -29103,7 +29103,7 @@
         <v>25.25</v>
       </c>
       <c r="G972" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -29129,7 +29129,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -29155,7 +29155,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G974" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -29181,7 +29181,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G975" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -29207,7 +29207,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G976" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -29233,7 +29233,7 @@
         <v>25.25</v>
       </c>
       <c r="G977" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -29259,7 +29259,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G978" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -29285,7 +29285,7 @@
         <v>26.7000007629395</v>
       </c>
       <c r="G979" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -29311,7 +29311,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G980" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -29337,7 +29337,7 @@
         <v>27.2999992370605</v>
       </c>
       <c r="G981" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -29363,7 +29363,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G982" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -29389,7 +29389,7 @@
         <v>27.5</v>
       </c>
       <c r="G983" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -29415,7 +29415,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="G984" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -29441,7 +29441,7 @@
         <v>27.5499992370605</v>
       </c>
       <c r="G985" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -29467,7 +29467,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G986" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29493,7 +29493,7 @@
         <v>29.5</v>
       </c>
       <c r="G987" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -29519,7 +29519,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G988" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -29545,7 +29545,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G989" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -29571,7 +29571,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G990" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -29597,7 +29597,7 @@
         <v>30.5499992370605</v>
       </c>
       <c r="G991" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -29623,7 +29623,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G992" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -29649,7 +29649,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -29675,7 +29675,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G994" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -29701,7 +29701,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G995" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -29727,7 +29727,7 @@
         <v>32</v>
       </c>
       <c r="G996" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -29753,7 +29753,7 @@
         <v>32</v>
       </c>
       <c r="G997" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -29779,7 +29779,7 @@
         <v>32.0499992370605</v>
       </c>
       <c r="G998" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -29805,7 +29805,7 @@
         <v>31.0499992370605</v>
       </c>
       <c r="G999" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -29831,7 +29831,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1000" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -29857,7 +29857,7 @@
         <v>31.5</v>
       </c>
       <c r="G1001" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -29883,7 +29883,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1002" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -29909,7 +29909,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G1003" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -29935,7 +29935,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1004" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -29961,7 +29961,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1005" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -29987,7 +29987,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1006" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -30013,7 +30013,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1007" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -30039,7 +30039,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1008" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -30065,7 +30065,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G1009" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -30091,7 +30091,7 @@
         <v>31.0499992370605</v>
       </c>
       <c r="G1010" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -30117,7 +30117,7 @@
         <v>31.0499992370605</v>
       </c>
       <c r="G1011" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -30143,7 +30143,7 @@
         <v>31.0499992370605</v>
       </c>
       <c r="G1012" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -30169,7 +30169,7 @@
         <v>31</v>
       </c>
       <c r="G1013" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -30195,7 +30195,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G1014" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -30221,7 +30221,7 @@
         <v>30.3500003814697</v>
       </c>
       <c r="G1015" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -30247,7 +30247,7 @@
         <v>30</v>
       </c>
       <c r="G1016" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -30273,7 +30273,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1017" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -30299,7 +30299,7 @@
         <v>30.4500007629395</v>
       </c>
       <c r="G1018" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -30325,7 +30325,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -30351,7 +30351,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1020" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -30377,7 +30377,7 @@
         <v>30.75</v>
       </c>
       <c r="G1021" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -30403,7 +30403,7 @@
         <v>30.8999996185303</v>
       </c>
       <c r="G1022" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -30429,7 +30429,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G1023" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -30455,7 +30455,7 @@
         <v>30.6499996185303</v>
       </c>
       <c r="G1024" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -30481,7 +30481,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G1025" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -30507,7 +30507,7 @@
         <v>30.25</v>
       </c>
       <c r="G1026" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -30533,7 +30533,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1027" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -30559,7 +30559,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G1028" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -30585,7 +30585,7 @@
         <v>29.75</v>
       </c>
       <c r="G1029" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -30611,7 +30611,7 @@
         <v>29.8500003814697</v>
       </c>
       <c r="G1030" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -30637,7 +30637,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G1031" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -30663,7 +30663,7 @@
         <v>30</v>
       </c>
       <c r="G1032" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -30689,7 +30689,7 @@
         <v>29.5499992370605</v>
       </c>
       <c r="G1033" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -30715,7 +30715,7 @@
         <v>29.5499992370605</v>
       </c>
       <c r="G1034" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -30741,7 +30741,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G1035" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -30767,7 +30767,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1036" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -30793,7 +30793,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1037" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -30819,7 +30819,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1038" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -30845,7 +30845,7 @@
         <v>28.75</v>
       </c>
       <c r="G1039" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -30871,7 +30871,7 @@
         <v>28.75</v>
       </c>
       <c r="G1040" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -30897,7 +30897,7 @@
         <v>28.3500003814697</v>
       </c>
       <c r="G1041" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -30923,7 +30923,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G1042" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -30949,7 +30949,7 @@
         <v>27.6000003814697</v>
       </c>
       <c r="G1043" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -30975,7 +30975,7 @@
         <v>28.1499996185303</v>
       </c>
       <c r="G1044" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -31001,7 +31001,7 @@
         <v>29.1000003814697</v>
       </c>
       <c r="G1045" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -31027,7 +31027,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1046" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -31053,7 +31053,7 @@
         <v>29</v>
       </c>
       <c r="G1047" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -31079,7 +31079,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G1048" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -31105,7 +31105,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1049" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -31131,7 +31131,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G1050" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -31157,7 +31157,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G1051" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -31183,7 +31183,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G1052" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -31209,7 +31209,7 @@
         <v>27</v>
       </c>
       <c r="G1053" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -31235,7 +31235,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1054" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -31261,7 +31261,7 @@
         <v>26.6499996185303</v>
       </c>
       <c r="G1055" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -31287,7 +31287,7 @@
         <v>25.75</v>
       </c>
       <c r="G1056" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -31313,7 +31313,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1057" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -31339,7 +31339,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1058" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -31365,7 +31365,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1059" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -31391,7 +31391,7 @@
         <v>23.5</v>
       </c>
       <c r="G1060" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -31495,7 +31495,7 @@
         <v>18.6399993896484</v>
       </c>
       <c r="G1064" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -31521,7 +31521,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G1065" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31547,7 +31547,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1066" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -31573,7 +31573,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1067" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -31599,7 +31599,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G1068" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -31625,7 +31625,7 @@
         <v>15.1400003433228</v>
       </c>
       <c r="G1069" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -31651,7 +31651,7 @@
         <v>15</v>
       </c>
       <c r="G1070" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -31677,7 +31677,7 @@
         <v>15</v>
       </c>
       <c r="G1071" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -31703,7 +31703,7 @@
         <v>16.0200004577637</v>
       </c>
       <c r="G1072" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -31729,7 +31729,7 @@
         <v>15.9399995803833</v>
       </c>
       <c r="G1073" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -31755,7 +31755,7 @@
         <v>16.5200004577637</v>
       </c>
       <c r="G1074" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -31781,7 +31781,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="G1075" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31807,7 +31807,7 @@
         <v>17.3199996948242</v>
       </c>
       <c r="G1076" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31833,7 +31833,7 @@
         <v>17.5</v>
       </c>
       <c r="G1077" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31859,7 +31859,7 @@
         <v>18.3999996185303</v>
       </c>
       <c r="G1078" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31885,7 +31885,7 @@
         <v>18.5799999237061</v>
       </c>
       <c r="G1079" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -31911,7 +31911,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G1080" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -31937,7 +31937,7 @@
         <v>18.7199993133545</v>
       </c>
       <c r="G1081" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -31963,7 +31963,7 @@
         <v>18.2999992370605</v>
       </c>
       <c r="G1082" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -31989,7 +31989,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G1083" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -32015,7 +32015,7 @@
         <v>18.5400009155273</v>
       </c>
       <c r="G1084" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -32041,7 +32041,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G1085" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32067,7 +32067,7 @@
         <v>19.3999996185303</v>
       </c>
       <c r="G1086" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -32093,7 +32093,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G1087" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -32119,7 +32119,7 @@
         <v>19.0599994659424</v>
       </c>
       <c r="G1088" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -32145,7 +32145,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G1089" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -32171,7 +32171,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1090" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -32197,7 +32197,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G1091" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -32223,7 +32223,7 @@
         <v>19.7000007629395</v>
       </c>
       <c r="G1092" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -32301,7 +32301,7 @@
         <v>20</v>
       </c>
       <c r="G1095" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -32327,7 +32327,7 @@
         <v>19.7800006866455</v>
       </c>
       <c r="G1096" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -32353,7 +32353,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1097" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -32379,7 +32379,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1098" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -32405,7 +32405,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1099" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -32431,7 +32431,7 @@
         <v>21.5</v>
       </c>
       <c r="G1100" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -32457,7 +32457,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1101" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -32483,7 +32483,7 @@
         <v>20.75</v>
       </c>
       <c r="G1102" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -32509,7 +32509,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1103" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32535,7 +32535,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1104" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32561,7 +32561,7 @@
         <v>20.75</v>
       </c>
       <c r="G1105" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -32587,7 +32587,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G1106" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -32613,7 +32613,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1107" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32639,7 +32639,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1108" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32665,7 +32665,7 @@
         <v>20.5</v>
       </c>
       <c r="G1109" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32691,7 +32691,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1110" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32717,7 +32717,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1111" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -32743,7 +32743,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1112" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -32769,7 +32769,7 @@
         <v>21.25</v>
       </c>
       <c r="G1113" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -32795,7 +32795,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1114" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -32821,7 +32821,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1115" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -32847,7 +32847,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1116" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -32873,7 +32873,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1117" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -32899,7 +32899,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1118" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -32925,7 +32925,7 @@
         <v>23.5</v>
       </c>
       <c r="G1119" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -32951,7 +32951,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1120" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32977,7 +32977,7 @@
         <v>24.25</v>
       </c>
       <c r="G1121" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -33003,7 +33003,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1122" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -33029,7 +33029,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1123" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -33055,7 +33055,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1124" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -33081,7 +33081,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1125" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -33107,7 +33107,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1126" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -33133,7 +33133,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1127" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -33159,7 +33159,7 @@
         <v>22.5</v>
       </c>
       <c r="G1128" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -33185,7 +33185,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1129" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -33211,7 +33211,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1130" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -33237,7 +33237,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1131" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -33263,7 +33263,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1132" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -33289,7 +33289,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1133" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -33315,7 +33315,7 @@
         <v>23.5</v>
       </c>
       <c r="G1134" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -33341,7 +33341,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1135" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -33367,7 +33367,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1136" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -33393,7 +33393,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1137" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -33419,7 +33419,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1138" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -33445,7 +33445,7 @@
         <v>22</v>
       </c>
       <c r="G1139" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -33471,7 +33471,7 @@
         <v>23.5</v>
       </c>
       <c r="G1140" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -33497,7 +33497,7 @@
         <v>24</v>
       </c>
       <c r="G1141" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -33523,7 +33523,7 @@
         <v>23.75</v>
       </c>
       <c r="G1142" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -33549,7 +33549,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1143" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -33575,7 +33575,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1144" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -33601,7 +33601,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1145" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -33627,7 +33627,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1146" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -33653,7 +33653,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1147" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -33679,7 +33679,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1148" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -33705,7 +33705,7 @@
         <v>24.75</v>
       </c>
       <c r="G1149" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -33731,7 +33731,7 @@
         <v>24.75</v>
       </c>
       <c r="G1150" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -33757,7 +33757,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1151" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -33783,7 +33783,7 @@
         <v>24.75</v>
       </c>
       <c r="G1152" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -33809,7 +33809,7 @@
         <v>24.75</v>
       </c>
       <c r="G1153" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -33835,7 +33835,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1154" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -33861,7 +33861,7 @@
         <v>25</v>
       </c>
       <c r="G1155" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -33887,7 +33887,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1156" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -33913,7 +33913,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1157" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -33939,7 +33939,7 @@
         <v>26</v>
       </c>
       <c r="G1158" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -33965,7 +33965,7 @@
         <v>25.0499992370605</v>
       </c>
       <c r="G1159" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -33991,7 +33991,7 @@
         <v>25</v>
       </c>
       <c r="G1160" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -34017,7 +34017,7 @@
         <v>25</v>
       </c>
       <c r="G1161" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -34043,7 +34043,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1162" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -34069,7 +34069,7 @@
         <v>24.75</v>
       </c>
       <c r="G1163" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -34095,7 +34095,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1164" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -34121,7 +34121,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1165" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -34147,7 +34147,7 @@
         <v>26.25</v>
       </c>
       <c r="G1166" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -34173,7 +34173,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G1167" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -34199,7 +34199,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1168" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -34225,7 +34225,7 @@
         <v>26.5</v>
       </c>
       <c r="G1169" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -34251,7 +34251,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G1170" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -34277,7 +34277,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1171" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -34303,7 +34303,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1172" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -34329,7 +34329,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1173" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -34355,7 +34355,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1174" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -34381,7 +34381,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1175" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -34407,7 +34407,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1176" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -34433,7 +34433,7 @@
         <v>27</v>
       </c>
       <c r="G1177" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -34459,7 +34459,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1178" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -34485,7 +34485,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1179" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -34511,7 +34511,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G1180" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -34537,7 +34537,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G1181" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -34563,7 +34563,7 @@
         <v>27</v>
       </c>
       <c r="G1182" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -34589,7 +34589,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1183" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -34615,7 +34615,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G1184" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -34641,7 +34641,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1185" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -34667,7 +34667,7 @@
         <v>26.25</v>
       </c>
       <c r="G1186" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -34693,7 +34693,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G1187" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -34719,7 +34719,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G1188" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -34745,7 +34745,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1189" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -34771,7 +34771,7 @@
         <v>26.3500003814697</v>
       </c>
       <c r="G1190" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -34797,7 +34797,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1191" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -34823,7 +34823,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G1192" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -34849,7 +34849,7 @@
         <v>26.3999996185303</v>
       </c>
       <c r="G1193" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -34875,7 +34875,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1194" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -34901,7 +34901,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1195" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -34927,7 +34927,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1196" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -34953,7 +34953,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1197" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -34979,7 +34979,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G1198" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -35005,7 +35005,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1199" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -35031,7 +35031,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1200" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -35057,7 +35057,7 @@
         <v>24.5</v>
       </c>
       <c r="G1201" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -35083,7 +35083,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1202" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -35109,7 +35109,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1203" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -35135,7 +35135,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1204" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -35161,7 +35161,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1205" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -35187,7 +35187,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1206" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -35213,7 +35213,7 @@
         <v>24</v>
       </c>
       <c r="G1207" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -35239,7 +35239,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1208" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -35265,7 +35265,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1209" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -35291,7 +35291,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1210" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -35317,7 +35317,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1211" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -35343,7 +35343,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1212" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -35369,7 +35369,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1213" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -35395,7 +35395,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1214" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -35421,7 +35421,7 @@
         <v>23.5</v>
       </c>
       <c r="G1215" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -35447,7 +35447,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1216" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -35473,7 +35473,7 @@
         <v>23</v>
       </c>
       <c r="G1217" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -35499,7 +35499,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1218" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -35525,7 +35525,7 @@
         <v>22.5</v>
       </c>
       <c r="G1219" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -35551,7 +35551,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1220" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -35577,7 +35577,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1221" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -35603,7 +35603,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1222" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -35629,7 +35629,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1223" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -35655,7 +35655,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1224" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -35681,7 +35681,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1225" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -35707,7 +35707,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1226" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -35733,7 +35733,7 @@
         <v>19</v>
       </c>
       <c r="G1227" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -35759,7 +35759,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G1228" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -35785,7 +35785,7 @@
         <v>19.6000003814697</v>
       </c>
       <c r="G1229" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -35811,7 +35811,7 @@
         <v>19.8400001525879</v>
       </c>
       <c r="G1230" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -35837,7 +35837,7 @@
         <v>20.5</v>
       </c>
       <c r="G1231" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -35863,7 +35863,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1232" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -35889,7 +35889,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1233" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -35915,7 +35915,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1234" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -35941,7 +35941,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1235" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -35967,7 +35967,7 @@
         <v>22.25</v>
       </c>
       <c r="G1236" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -35993,7 +35993,7 @@
         <v>22</v>
       </c>
       <c r="G1237" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -36019,7 +36019,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1238" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -36045,7 +36045,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1239" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -36071,7 +36071,7 @@
         <v>22</v>
       </c>
       <c r="G1240" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -36097,7 +36097,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1241" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -36123,7 +36123,7 @@
         <v>22.25</v>
       </c>
       <c r="G1242" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -36149,7 +36149,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1243" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -36175,7 +36175,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1244" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -36201,7 +36201,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1245" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -36227,7 +36227,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1246" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -36253,7 +36253,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1247" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -36279,7 +36279,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1248" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -36305,7 +36305,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1249" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -36331,7 +36331,7 @@
         <v>23</v>
       </c>
       <c r="G1250" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -36357,7 +36357,7 @@
         <v>23</v>
       </c>
       <c r="G1251" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -36383,7 +36383,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1252" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -36409,7 +36409,7 @@
         <v>23</v>
       </c>
       <c r="G1253" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -36435,7 +36435,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1254" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -36461,7 +36461,7 @@
         <v>23</v>
       </c>
       <c r="G1255" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -36487,7 +36487,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1256" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -36513,7 +36513,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1257" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -36539,7 +36539,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1258" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -36565,7 +36565,7 @@
         <v>22.75</v>
       </c>
       <c r="G1259" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -36591,7 +36591,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1260" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -36617,7 +36617,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1261" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -36643,7 +36643,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1262" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -36669,7 +36669,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1263" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -36695,7 +36695,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1264" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -36721,7 +36721,7 @@
         <v>23</v>
       </c>
       <c r="G1265" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -36747,7 +36747,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1266" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -36773,7 +36773,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1267" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -36799,7 +36799,7 @@
         <v>23.5</v>
       </c>
       <c r="G1268" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -36825,7 +36825,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1269" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -36851,7 +36851,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1270" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -36877,7 +36877,7 @@
         <v>23.5</v>
       </c>
       <c r="G1271" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -36903,7 +36903,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1272" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -36929,7 +36929,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1273" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -36955,7 +36955,7 @@
         <v>23.75</v>
       </c>
       <c r="G1274" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -36981,7 +36981,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1275" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -37007,7 +37007,7 @@
         <v>24</v>
       </c>
       <c r="G1276" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -37033,7 +37033,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1277" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -37059,7 +37059,7 @@
         <v>23.5</v>
       </c>
       <c r="G1278" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -37085,7 +37085,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1279" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -37111,7 +37111,7 @@
         <v>23.5</v>
       </c>
       <c r="G1280" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -37137,7 +37137,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1281" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -37163,7 +37163,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1282" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -37189,7 +37189,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1283" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -37215,7 +37215,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1284" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -37241,7 +37241,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1285" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -37267,7 +37267,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1286" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -37293,7 +37293,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1287" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -37319,7 +37319,7 @@
         <v>22</v>
       </c>
       <c r="G1288" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -37345,7 +37345,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1289" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -37371,7 +37371,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1290" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -37397,7 +37397,7 @@
         <v>22.25</v>
       </c>
       <c r="G1291" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -37423,7 +37423,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1292" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -37449,7 +37449,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1293" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -37475,7 +37475,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1294" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -37501,7 +37501,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1295" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -37527,7 +37527,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1296" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -37553,7 +37553,7 @@
         <v>23.5</v>
       </c>
       <c r="G1297" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -37579,7 +37579,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1298" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -37605,7 +37605,7 @@
         <v>24</v>
       </c>
       <c r="G1299" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -37631,7 +37631,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1300" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -37657,7 +37657,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1301" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -37683,7 +37683,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1302" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -37709,7 +37709,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1303" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -37735,7 +37735,7 @@
         <v>22</v>
       </c>
       <c r="G1304" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -37761,7 +37761,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1305" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -37787,7 +37787,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1306" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -37813,7 +37813,7 @@
         <v>21.5</v>
       </c>
       <c r="G1307" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -37839,7 +37839,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1308" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -37865,7 +37865,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1309" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -37891,7 +37891,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1310" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -37917,7 +37917,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1311" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -37943,7 +37943,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1312" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -37969,7 +37969,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1313" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -37995,7 +37995,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1314" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -38021,7 +38021,7 @@
         <v>21.75</v>
       </c>
       <c r="G1315" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38047,7 +38047,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38073,7 +38073,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1317" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -38099,7 +38099,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1318" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -38125,7 +38125,7 @@
         <v>22</v>
       </c>
       <c r="G1319" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -38151,7 +38151,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1320" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38177,7 +38177,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1321" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -38203,7 +38203,7 @@
         <v>21.25</v>
       </c>
       <c r="G1322" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -38229,7 +38229,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1323" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -38255,7 +38255,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38281,7 +38281,7 @@
         <v>21</v>
       </c>
       <c r="G1325" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38307,7 +38307,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1326" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -38333,7 +38333,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1327" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -38359,7 +38359,7 @@
         <v>21</v>
       </c>
       <c r="G1328" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38385,7 +38385,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1329" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -38411,7 +38411,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1330" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -38437,7 +38437,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1331" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -38463,7 +38463,7 @@
         <v>21</v>
       </c>
       <c r="G1332" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38489,7 +38489,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38515,7 +38515,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1334" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38541,7 +38541,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1335" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -38567,7 +38567,7 @@
         <v>21.5</v>
       </c>
       <c r="G1336" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -38593,7 +38593,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1337" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -38619,7 +38619,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1338" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -38645,7 +38645,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38671,7 +38671,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1340" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -38697,7 +38697,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1341" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -38723,7 +38723,7 @@
         <v>21.5</v>
       </c>
       <c r="G1342" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -38749,7 +38749,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1343" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -38775,7 +38775,7 @@
         <v>21.5</v>
       </c>
       <c r="G1344" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -38801,7 +38801,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1345" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -38827,7 +38827,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1346" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -38853,7 +38853,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1347" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -38879,7 +38879,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1348" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38905,7 +38905,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1349" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38931,7 +38931,7 @@
         <v>21</v>
       </c>
       <c r="G1350" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38957,7 +38957,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38983,7 +38983,7 @@
         <v>21</v>
       </c>
       <c r="G1352" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39009,7 +39009,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1353" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39035,7 +39035,7 @@
         <v>21</v>
       </c>
       <c r="G1354" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39061,7 +39061,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1355" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39087,7 +39087,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1356" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39113,7 +39113,7 @@
         <v>20.75</v>
       </c>
       <c r="G1357" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39139,7 +39139,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1358" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39165,7 +39165,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1359" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39191,7 +39191,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1360" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39217,7 +39217,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1361" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -39243,7 +39243,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -39269,7 +39269,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1363" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -39295,7 +39295,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1364" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -39321,7 +39321,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1365" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -39347,7 +39347,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1366" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -39373,7 +39373,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1367" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -39399,7 +39399,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1368" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -39425,7 +39425,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1369" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -39451,7 +39451,7 @@
         <v>20.5</v>
       </c>
       <c r="G1370" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -39477,7 +39477,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1371" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39503,7 +39503,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39529,7 +39529,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1373" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39555,7 +39555,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39581,7 +39581,7 @@
         <v>21.75</v>
       </c>
       <c r="G1375" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39607,7 +39607,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1376" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39633,7 +39633,7 @@
         <v>21.25</v>
       </c>
       <c r="G1377" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39685,7 +39685,7 @@
         <v>21.75</v>
       </c>
       <c r="G1379" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -40179,7 +40179,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1398" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40283,7 +40283,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40309,7 +40309,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1403" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -40335,7 +40335,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1404" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -40361,7 +40361,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1405" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -40465,7 +40465,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1409" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40491,7 +40491,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1410" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40621,7 +40621,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1415" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40647,7 +40647,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40673,7 +40673,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1417" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40699,7 +40699,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40751,7 +40751,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1420" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40777,7 +40777,7 @@
         <v>21.25</v>
       </c>
       <c r="G1421" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40803,7 +40803,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1422" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40829,7 +40829,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40855,7 +40855,7 @@
         <v>20.75</v>
       </c>
       <c r="G1424" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -44521,7 +44521,7 @@
         <v>21.75</v>
       </c>
       <c r="G1565" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44599,7 +44599,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1568" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44625,7 +44625,7 @@
         <v>21.75</v>
       </c>
       <c r="G1569" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44651,7 +44651,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1570" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44677,7 +44677,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1571" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44729,7 +44729,7 @@
         <v>21.25</v>
       </c>
       <c r="G1573" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -45327,7 +45327,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1596" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -45379,7 +45379,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1598" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -45431,7 +45431,7 @@
         <v>21.75</v>
       </c>
       <c r="G1600" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -59531,7 +59531,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6493402778</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>132316</v>
@@ -59552,6 +59552,32 @@
         <v>1161</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6516898148</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>212943</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>27.1499996185303</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>26.8999996185303</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>26.8999996185303</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>27.1000003814697</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SG.MI.xlsx
+++ b/data/SG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1164">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16496515274048</t>
+    <t xml:space="preserve">7.16496658325195</t>
   </si>
   <si>
     <t xml:space="preserve">SG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58355617523193</t>
+    <t xml:space="preserve">7.58355522155762</t>
   </si>
   <si>
     <t xml:space="preserve">7.61073780059814</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32805299758911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98013401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92577123641968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01275062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15409374237061</t>
+    <t xml:space="preserve">7.32805347442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98013496398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92577219009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01275110244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15409326553345</t>
   </si>
   <si>
     <t xml:space="preserve">6.87684535980225</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38214731216431</t>
+    <t xml:space="preserve">6.38214683532715</t>
   </si>
   <si>
     <t xml:space="preserve">5.95812034606934</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53436183929443</t>
+    <t xml:space="preserve">6.53436231613159</t>
   </si>
   <si>
     <t xml:space="preserve">6.32234907150269</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74093914031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9148998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99100685119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85510015487671</t>
+    <t xml:space="preserve">6.74093961715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91489934921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99100589752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85509920120239</t>
   </si>
   <si>
     <t xml:space="preserve">6.64852285385132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70832204818726</t>
+    <t xml:space="preserve">6.70832252502441</t>
   </si>
   <si>
     <t xml:space="preserve">6.89859056472778</t>
@@ -104,13 +104,13 @@
     <t xml:space="preserve">6.75724792480469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52348899841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25167798995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10489892959595</t>
+    <t xml:space="preserve">6.52348947525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25167751312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10489845275879</t>
   </si>
   <si>
     <t xml:space="preserve">5.15355682373047</t>
@@ -119,31 +119,31 @@
     <t xml:space="preserve">5.19432878494263</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27315378189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9252347946167</t>
+    <t xml:space="preserve">5.27315330505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92523431777954</t>
   </si>
   <si>
     <t xml:space="preserve">5.02580499649048</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13724851608276</t>
+    <t xml:space="preserve">5.13724803924561</t>
   </si>
   <si>
     <t xml:space="preserve">5.0448317527771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01221418380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88446283340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64825439453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47429466247559</t>
+    <t xml:space="preserve">5.01221466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88446235656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64825487136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4742956161499</t>
   </si>
   <si>
     <t xml:space="preserve">5.52322149276733</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">5.99617385864258</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8711404800415</t>
+    <t xml:space="preserve">5.87114143371582</t>
   </si>
   <si>
     <t xml:space="preserve">5.84395885467529</t>
@@ -179,7 +179,7 @@
     <t xml:space="preserve">5.57214736938477</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63194561004639</t>
+    <t xml:space="preserve">5.63194608688354</t>
   </si>
   <si>
     <t xml:space="preserve">5.80590629577637</t>
@@ -191,34 +191,34 @@
     <t xml:space="preserve">6.41476488113403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46369123458862</t>
+    <t xml:space="preserve">6.46369075775146</t>
   </si>
   <si>
     <t xml:space="preserve">6.31147623062134</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11577129364014</t>
+    <t xml:space="preserve">6.11577081680298</t>
   </si>
   <si>
     <t xml:space="preserve">6.36040210723877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38758277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45281887054443</t>
+    <t xml:space="preserve">6.38758325576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45281839370728</t>
   </si>
   <si>
     <t xml:space="preserve">6.34409379959106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30060338973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13208055496216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01248264312744</t>
+    <t xml:space="preserve">6.30060386657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.132080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0124831199646</t>
   </si>
   <si>
     <t xml:space="preserve">5.68087196350098</t>
@@ -227,13 +227,13 @@
     <t xml:space="preserve">6.07771778106689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01791858673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83852243423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00160980224609</t>
+    <t xml:space="preserve">6.01791906356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83852291107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00161075592041</t>
   </si>
   <si>
     <t xml:space="preserve">5.99073791503906</t>
@@ -242,67 +242,67 @@
     <t xml:space="preserve">5.71892642974854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68630886077881</t>
+    <t xml:space="preserve">5.68630838394165</t>
   </si>
   <si>
     <t xml:space="preserve">5.57758378982544</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82765102386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.778724193573</t>
+    <t xml:space="preserve">5.82765054702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77872467041016</t>
   </si>
   <si>
     <t xml:space="preserve">5.82221460342407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91239356994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70949077606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72076225280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6305832862854</t>
+    <t xml:space="preserve">5.91239404678345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70949029922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72076177597046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63058280944824</t>
   </si>
   <si>
     <t xml:space="preserve">5.7602162361145</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81657838821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00820922851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96312046051025</t>
+    <t xml:space="preserve">5.81657743453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00820970535278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9631199836731</t>
   </si>
   <si>
     <t xml:space="preserve">6.13220643997192</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07584381103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97439193725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94621133804321</t>
+    <t xml:space="preserve">6.07584476470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97439241409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94621086120605</t>
   </si>
   <si>
     <t xml:space="preserve">5.77712488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69258165359497</t>
+    <t xml:space="preserve">5.69258069992065</t>
   </si>
   <si>
     <t xml:space="preserve">5.83348703384399</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11529779434204</t>
+    <t xml:space="preserve">6.1152982711792</t>
   </si>
   <si>
     <t xml:space="preserve">6.12657070159912</t>
@@ -311,16 +311,16 @@
     <t xml:space="preserve">6.22802209854126</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6112847328186</t>
+    <t xml:space="preserve">6.61128425598145</t>
   </si>
   <si>
     <t xml:space="preserve">6.71837329864502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60001277923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59437656402588</t>
+    <t xml:space="preserve">6.600013256073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59437704086304</t>
   </si>
   <si>
     <t xml:space="preserve">6.42528963088989</t>
@@ -329,70 +329,70 @@
     <t xml:space="preserve">6.43656253814697</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52110576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56619548797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62255764007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45347023010254</t>
+    <t xml:space="preserve">6.52110528945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56619453430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62255811691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45347166061401</t>
   </si>
   <si>
     <t xml:space="preserve">6.25620365142822</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19984149932861</t>
+    <t xml:space="preserve">6.19984102249146</t>
   </si>
   <si>
     <t xml:space="preserve">6.27311182022095</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50419759750366</t>
+    <t xml:space="preserve">6.50419664382935</t>
   </si>
   <si>
     <t xml:space="preserve">6.577467918396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55492305755615</t>
+    <t xml:space="preserve">6.55492353439331</t>
   </si>
   <si>
     <t xml:space="preserve">6.63946533203125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17165994644165</t>
+    <t xml:space="preserve">6.17165946960449</t>
   </si>
   <si>
     <t xml:space="preserve">6.33511018753052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31256580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35765504837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4591064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48728895187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67892026901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69019269943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75219058990479</t>
+    <t xml:space="preserve">6.31256532669067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3576545715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45910692214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48728847503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67891979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69019174575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75219011306763</t>
   </si>
   <si>
     <t xml:space="preserve">7.12981748580933</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98327589035034</t>
+    <t xml:space="preserve">6.98327541351318</t>
   </si>
   <si>
     <t xml:space="preserve">6.93254995346069</t>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">7.07345533370972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27635908126831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2143611907959</t>
+    <t xml:space="preserve">7.27635860443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21436071395874</t>
   </si>
   <si>
     <t xml:space="preserve">7.11854553222656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0678186416626</t>
+    <t xml:space="preserve">7.06781911849976</t>
   </si>
   <si>
     <t xml:space="preserve">7.06218290328979</t>
@@ -419,16 +419,16 @@
     <t xml:space="preserve">7.14109039306641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01145601272583</t>
+    <t xml:space="preserve">7.01145648956299</t>
   </si>
   <si>
     <t xml:space="preserve">6.71273708343506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76346206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7296462059021</t>
+    <t xml:space="preserve">6.76346254348755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72964525222778</t>
   </si>
   <si>
     <t xml:space="preserve">6.87055206298828</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">6.92691373825073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10163736343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05654621124268</t>
+    <t xml:space="preserve">7.10163688659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05654573440552</t>
   </si>
   <si>
     <t xml:space="preserve">7.15799856185913</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0452733039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01709270477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94945812225342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9663667678833</t>
+    <t xml:space="preserve">7.04527378082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01709222793579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94945764541626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96636724472046</t>
   </si>
   <si>
     <t xml:space="preserve">6.85364246368408</t>
@@ -464,52 +464,52 @@
     <t xml:space="preserve">7.14672613143921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20308780670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23126888275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34399271011353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51307916641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49617195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41162872314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42853593826294</t>
+    <t xml:space="preserve">7.20308828353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23126935958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34399318695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51308059692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4961724281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41162824630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4285364151001</t>
   </si>
   <si>
     <t xml:space="preserve">7.48489856719971</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40599203109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32708406448364</t>
+    <t xml:space="preserve">7.40599250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32708549499512</t>
   </si>
   <si>
     <t xml:space="preserve">7.45108222961426</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28763198852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3045392036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4736270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37781143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23690605163574</t>
+    <t xml:space="preserve">7.28763246536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30453968048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47362756729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37781047821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23690509796143</t>
   </si>
   <si>
     <t xml:space="preserve">7.28199529647827</t>
@@ -518,46 +518,46 @@
     <t xml:space="preserve">7.12418127059937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22563314437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19181632995605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21999645233154</t>
+    <t xml:space="preserve">7.22563362121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19181537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21999740600586</t>
   </si>
   <si>
     <t xml:space="preserve">7.25945091247559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29890394210815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18617916107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09036445617676</t>
+    <t xml:space="preserve">7.298903465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18617963790894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09036302566528</t>
   </si>
   <si>
     <t xml:space="preserve">7.09600067138672</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08472728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03963756561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14347887039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44783401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5831036567688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63382959365845</t>
+    <t xml:space="preserve">7.08472776412964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03963804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.143479347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44783449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58310413360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63383007049561</t>
   </si>
   <si>
     <t xml:space="preserve">6.38583612442017</t>
@@ -566,25 +566,25 @@
     <t xml:space="preserve">6.08711671829224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92366647720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10966205596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92930316925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02511835098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05329895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90112209320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7320351600647</t>
+    <t xml:space="preserve">5.92366695404053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10966157913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92930364608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05329942703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90112161636353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73203420639038</t>
   </si>
   <si>
     <t xml:space="preserve">5.80530643463135</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">5.91802978515625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21674919128418</t>
+    <t xml:space="preserve">6.2167501449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.32947444915771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26747560501099</t>
+    <t xml:space="preserve">6.26747608184814</t>
   </si>
   <si>
     <t xml:space="preserve">6.30129337310791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41401720046997</t>
+    <t xml:space="preserve">6.41401767730713</t>
   </si>
   <si>
     <t xml:space="preserve">6.7071008682251</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87618780136108</t>
+    <t xml:space="preserve">6.87618732452393</t>
   </si>
   <si>
     <t xml:space="preserve">6.77473545074463</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">6.62819385528564</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81982564926147</t>
+    <t xml:space="preserve">6.81982612609863</t>
   </si>
   <si>
     <t xml:space="preserve">6.78037166595459</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">6.84800672531128</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84237003326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91000556945801</t>
+    <t xml:space="preserve">6.84237051010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91000509262085</t>
   </si>
   <si>
     <t xml:space="preserve">6.70146512985229</t>
@@ -644,40 +644,40 @@
     <t xml:space="preserve">6.68455600738525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65073871612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60564851760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50983381271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51547002792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57183170318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39710903167725</t>
+    <t xml:space="preserve">6.65073823928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6056489944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50983285903931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51546955108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57183074951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710855484009</t>
   </si>
   <si>
     <t xml:space="preserve">6.36892795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44219923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47037935256958</t>
+    <t xml:space="preserve">6.44219875335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47037982940674</t>
   </si>
   <si>
     <t xml:space="preserve">6.52674150466919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53237819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58873987197876</t>
+    <t xml:space="preserve">6.53237867355347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58874034881592</t>
   </si>
   <si>
     <t xml:space="preserve">6.66201114654541</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">7.26508665084839</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24254083633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47926378250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62580490112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66525840759277</t>
+    <t xml:space="preserve">7.24254179000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4792628288269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62580394744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66525888442993</t>
   </si>
   <si>
     <t xml:space="preserve">8.17251777648926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26833343505859</t>
+    <t xml:space="preserve">8.26833534240723</t>
   </si>
   <si>
     <t xml:space="preserve">8.00343132019043</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">8.03161239624023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08797454833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4543285369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67977619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7023229598999</t>
+    <t xml:space="preserve">8.08797359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45432949066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67977714538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70232200622559</t>
   </si>
   <si>
     <t xml:space="preserve">8.9052267074585</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">9.68866157531738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61538887023926</t>
+    <t xml:space="preserve">9.61538791656494</t>
   </si>
   <si>
     <t xml:space="preserve">9.92538166046143</t>
@@ -758,31 +758,31 @@
     <t xml:space="preserve">9.91974639892578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75065803527832</t>
+    <t xml:space="preserve">9.75065898895264</t>
   </si>
   <si>
     <t xml:space="preserve">9.63793468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40121364593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29976081848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35048866271973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51957416534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46884822845459</t>
+    <t xml:space="preserve">9.40121459960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29976177215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35048675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51957511901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46884727478027</t>
   </si>
   <si>
     <t xml:space="preserve">9.41812229156494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29412651062012</t>
+    <t xml:space="preserve">9.2941255569458</t>
   </si>
   <si>
     <t xml:space="preserve">9.38430500030518</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">9.27158069610596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10249328613281</t>
+    <t xml:space="preserve">9.10249423980713</t>
   </si>
   <si>
     <t xml:space="preserve">9.13067531585693</t>
@@ -803,25 +803,25 @@
     <t xml:space="preserve">9.31667041778564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73375129699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93665313720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1170148849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4368047714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.785665512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6519365310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5647201538086</t>
+    <t xml:space="preserve">9.73375034332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93665409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.117015838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.436806678772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7856664657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6519355773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5647211074829</t>
   </si>
   <si>
     <t xml:space="preserve">10.4658756256104</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">10.7275238037109</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8147382736206</t>
+    <t xml:space="preserve">10.8147392272949</t>
   </si>
   <si>
     <t xml:space="preserve">11.0763854980469</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">10.6054210662842</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6228647232056</t>
+    <t xml:space="preserve">10.6228637695312</t>
   </si>
   <si>
     <t xml:space="preserve">10.8321809768677</t>
@@ -854,46 +854,46 @@
     <t xml:space="preserve">10.9891700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1926727294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508153915405</t>
+    <t xml:space="preserve">11.1926736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508163452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.1636009216309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0473127365112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0240545272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0066137313843</t>
+    <t xml:space="preserve">11.0473146438599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.024055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.00661277771</t>
   </si>
   <si>
     <t xml:space="preserve">11.5589780807495</t>
   </si>
   <si>
-    <t xml:space="preserve">11.303147315979</t>
+    <t xml:space="preserve">11.3031463623047</t>
   </si>
   <si>
     <t xml:space="preserve">11.1287145614624</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8728818893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1403427124023</t>
+    <t xml:space="preserve">10.8728828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1403436660767</t>
   </si>
   <si>
     <t xml:space="preserve">10.6751947402954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.948468208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9077682495117</t>
+    <t xml:space="preserve">10.9484691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9077672958374</t>
   </si>
   <si>
     <t xml:space="preserve">10.448431968689</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">10.5705337524414</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5589065551758</t>
+    <t xml:space="preserve">10.5589056015015</t>
   </si>
   <si>
     <t xml:space="preserve">10.9310255050659</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">10.2623720169067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1693439483643</t>
+    <t xml:space="preserve">10.1693429946899</t>
   </si>
   <si>
     <t xml:space="preserve">10.0007266998291</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">10.0297975540161</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94839668273926</t>
+    <t xml:space="preserve">9.94839572906494</t>
   </si>
   <si>
     <t xml:space="preserve">10.1170139312744</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">10.0123538970947</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3495874404907</t>
+    <t xml:space="preserve">10.349588394165</t>
   </si>
   <si>
     <t xml:space="preserve">10.4542474746704</t>
@@ -959,43 +959,43 @@
     <t xml:space="preserve">10.3902902603149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1751565933228</t>
+    <t xml:space="preserve">10.1751575469971</t>
   </si>
   <si>
     <t xml:space="preserve">10.2274866104126</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2333002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1926002502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3554029464722</t>
+    <t xml:space="preserve">10.2333011627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1925992965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3554019927979</t>
   </si>
   <si>
     <t xml:space="preserve">10.1809720993042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3030729293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1460866928101</t>
+    <t xml:space="preserve">10.303071975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1460876464844</t>
   </si>
   <si>
     <t xml:space="preserve">10.3088874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344556808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0995712280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99491214752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5472774505615</t>
+    <t xml:space="preserve">10.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0995721817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99491119384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5472755432129</t>
   </si>
   <si>
     <t xml:space="preserve">10.2042284011841</t>
@@ -1004,25 +1004,25 @@
     <t xml:space="preserve">10.2391157150269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1111974716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4251756668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5065774917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5240201950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.553092956543</t>
+    <t xml:space="preserve">10.111198425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4251747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5065765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.524019241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5530920028687</t>
   </si>
   <si>
     <t xml:space="preserve">10.611234664917</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6810092926025</t>
+    <t xml:space="preserve">10.6810083389282</t>
   </si>
   <si>
     <t xml:space="preserve">11.1345300674438</t>
@@ -1031,28 +1031,28 @@
     <t xml:space="preserve">11.5996789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5822372436523</t>
+    <t xml:space="preserve">11.5822353363037</t>
   </si>
   <si>
     <t xml:space="preserve">11.6868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3555469512939</t>
+    <t xml:space="preserve">12.3555479049683</t>
   </si>
   <si>
     <t xml:space="preserve">12.4253206253052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4485778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.902099609375</t>
+    <t xml:space="preserve">12.4485769271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9020986557007</t>
   </si>
   <si>
     <t xml:space="preserve">12.8090696334839</t>
   </si>
   <si>
-    <t xml:space="preserve">13.123046875</t>
+    <t xml:space="preserve">13.1230449676514</t>
   </si>
   <si>
     <t xml:space="preserve">13.1637449264526</t>
@@ -1073,43 +1073,43 @@
     <t xml:space="preserve">14.4022073745728</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5359373092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0301580429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534524917603</t>
+    <t xml:space="preserve">14.5359392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0301599502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534534454346</t>
   </si>
   <si>
     <t xml:space="preserve">15.4080934524536</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4487962722778</t>
+    <t xml:space="preserve">15.4487972259521</t>
   </si>
   <si>
     <t xml:space="preserve">16.1058216094971</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6988134384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023160934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6755561828613</t>
+    <t xml:space="preserve">15.6988153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023180007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6755571365356</t>
   </si>
   <si>
     <t xml:space="preserve">15.2918071746826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5825262069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.559268951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7395143508911</t>
+    <t xml:space="preserve">15.5825271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5592699050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7395162582397</t>
   </si>
   <si>
     <t xml:space="preserve">15.6290416717529</t>
@@ -1118,100 +1118,100 @@
     <t xml:space="preserve">15.6813688278198</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3092517852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.20458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1638898849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3150653839111</t>
+    <t xml:space="preserve">15.309250831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2045927047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1638927459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3150663375854</t>
   </si>
   <si>
     <t xml:space="preserve">15.1522617340088</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4778680801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.367392539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4139080047607</t>
+    <t xml:space="preserve">15.4778671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3673934936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4139099121094</t>
   </si>
   <si>
     <t xml:space="preserve">15.4720525741577</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3906517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1755208969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1580057144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4661655426025</t>
+    <t xml:space="preserve">15.3906488418579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.175518989563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1580038070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4661664962769</t>
   </si>
   <si>
     <t xml:space="preserve">14.0126466751099</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2742900848389</t>
+    <t xml:space="preserve">14.2742919921875</t>
   </si>
   <si>
     <t xml:space="preserve">14.0591602325439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7685146331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9836463928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1173753738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0941209793091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.972017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5068683624268</t>
+    <t xml:space="preserve">14.7685127258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9836454391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.117377281189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0941181182861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720182418823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5068674087524</t>
   </si>
   <si>
     <t xml:space="preserve">14.4080228805542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4603538513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3033657073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1870746612549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2394065856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5243091583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4836101531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4429082870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6173410415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4138383865356</t>
+    <t xml:space="preserve">14.4603519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3033647537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1870756149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2394046783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5243101119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4836091995239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.442907333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6173400878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.41383934021</t>
   </si>
   <si>
     <t xml:space="preserve">14.309178352356</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">14.2684783935547</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9719438552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8905429840088</t>
+    <t xml:space="preserve">13.97194480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8905420303345</t>
   </si>
   <si>
     <t xml:space="preserve">13.8091430664062</t>
@@ -1244,31 +1244,31 @@
     <t xml:space="preserve">14.3731374740601</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3615064620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940837860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6697425842285</t>
+    <t xml:space="preserve">14.3615083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940828323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6697435379028</t>
   </si>
   <si>
     <t xml:space="preserve">15.7860298156738</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8151016235352</t>
+    <t xml:space="preserve">15.8151035308838</t>
   </si>
   <si>
     <t xml:space="preserve">15.7569589614868</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6115980148315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4371671676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3790254592896</t>
+    <t xml:space="preserve">15.6115989685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4371652603149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3790264129639</t>
   </si>
   <si>
     <t xml:space="preserve">15.1464471817017</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">15.0592308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2627353668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.884801864624</t>
+    <t xml:space="preserve">15.2627372741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8848009109497</t>
   </si>
   <si>
     <t xml:space="preserve">15.0883073806763</t>
@@ -1295,22 +1295,22 @@
     <t xml:space="preserve">13.6637830734253</t>
   </si>
   <si>
-    <t xml:space="preserve">13.576566696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9545011520386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.692852973938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1986331939697</t>
+    <t xml:space="preserve">13.5765676498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9545021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6928548812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986322402954</t>
   </si>
   <si>
     <t xml:space="preserve">13.51842212677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6347122192383</t>
+    <t xml:space="preserve">13.634711265564</t>
   </si>
   <si>
     <t xml:space="preserve">13.2277040481567</t>
@@ -1319,10 +1319,10 @@
     <t xml:space="preserve">13.1404886245728</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2567758560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9369850158691</t>
+    <t xml:space="preserve">13.2567768096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9369859695435</t>
   </si>
   <si>
     <t xml:space="preserve">13.1114168167114</t>
@@ -1331,28 +1331,28 @@
     <t xml:space="preserve">12.5881223678589</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2101888656616</t>
+    <t xml:space="preserve">12.2101879119873</t>
   </si>
   <si>
     <t xml:space="preserve">12.5590515136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7916259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242004394531</t>
+    <t xml:space="preserve">12.7916250228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242013931274</t>
   </si>
   <si>
     <t xml:space="preserve">13.4021348953247</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6056385040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5474948883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7334814071655</t>
+    <t xml:space="preserve">13.6056394577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5474939346313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7334823608398</t>
   </si>
   <si>
     <t xml:space="preserve">12.9660577774048</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">13.0532741546631</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9079151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8788404464722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206987380981</t>
+    <t xml:space="preserve">12.9079141616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8788414001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206977844238</t>
   </si>
   <si>
     <t xml:space="preserve">12.8497705459595</t>
@@ -1376,459 +1376,459 @@
     <t xml:space="preserve">13.1695604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0823440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7625541687012</t>
+    <t xml:space="preserve">13.0823450088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625551223755</t>
   </si>
   <si>
     <t xml:space="preserve">13.4312076568604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4358005523682</t>
+    <t xml:space="preserve">13.4358015060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458299636841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2558584213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.165885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2858476638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0759134292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1358938217163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9859409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0459232330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.195876121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4058113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8359889984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3561391830444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1761932373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9482660293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060930252075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4161205291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7443313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5164012908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7323341369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6483592987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2661666870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9962520599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9362697601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5960626602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3655099868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0656051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6757259368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7656984329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9756317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6157455444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7057180404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3158388137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3758201599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7160263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9259605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.68603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7460165023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4761018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5660743713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360813140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8959684371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7760076522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6560459136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6260547637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3261480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2961587905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8059978485107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9559516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4461097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3861284255981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8659801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1162147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9842538833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9722576141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1085290908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3724460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7966251373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6166849136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6046867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5926895141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.724648475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5327081680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4847230911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4127464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2447986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3767576217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3647613525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736644744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.892596244812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9285840988159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0845355987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3244609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2524833679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2884721755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4684171676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6243658065796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4084348678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603565216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5403938293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.420431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1565141677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6766624450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8446102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3604497909546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3484535217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.168511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2044982910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3964385986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3844413757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3124647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3364582061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1325216293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6526708602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607305526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9045925140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8686037063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0725393295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3004693984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2644805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6843481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7203388214111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7683219909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9242725372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0562324523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8762874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2061862945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1462049484253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657926559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4957828521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.225866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3148641586304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3767957687378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4077577590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1910047531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1290760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2219705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.469687461853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7174062728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.62451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7793350219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6864423751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9123220443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4478492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.633638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4168844223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3735342025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7574977874756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5407447814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5717077255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6955690383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7265329360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.788462638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6646041870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8813571929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6026725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0361804962158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2529335021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0981101989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.283899307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1600408554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.943286895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0052165985107</t>
   </si>
   <si>
     <t xml:space="preserve">13.3458290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.165885925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2858476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0759134292603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1358947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9859409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0459241867065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.195876121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4058113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8359889984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3561391830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1761932373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9482669830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060930252075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4161205291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7443313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5164012908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7323341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6483592987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2661666870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9962511062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9362697601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5960626602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3655109405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0656051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.675726890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7656984329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9756317138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6157455444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7057180404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3158407211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3758201599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7160263061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9259595870972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6860361099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7460165023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4761009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5660734176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360813140869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8959703445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7760076522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6560459136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6260557174683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3261480331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2961587905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8059978485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9559516906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4461107254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3861284255981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8659801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1162147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9842538833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9722585678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1085290908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3724451065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7966251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6166849136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6046867370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5926895141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5327072143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4847230911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4127464294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.244797706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3767566680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3647613525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.736644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8925971984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9285840988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0845355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3244600296021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2524833679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2884721755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4684171676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6243667602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4084348678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603565216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5403928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4204320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1565132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6766624450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8446102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3604488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3484535217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1685104370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2044982910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3964385986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3844423294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3124656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764759063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3364572525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1325216293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9645748138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6526708602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607315063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9045925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8686037063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0725393295288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3004693984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2644805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.480411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6843481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7203378677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7683229446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9242725372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0562314987183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8762884140015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2061862945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1462049484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4957818984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.225866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3148641586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3767948150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4077577590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1910047531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1290760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2219705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4696884155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7174053192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.62451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7793350219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864423751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9123220443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4478492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6336374282837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4168844223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3735342025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7574977874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5407447814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5717077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6955690383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7265329360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.788462638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6646032333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8813571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6026735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0361804962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2529344558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0981111526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2839002609253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1600399017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9432859420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0052165985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458280563354</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.7483720779419</t>
   </si>
   <si>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">14.2128438949585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0580205917358</t>
+    <t xml:space="preserve">14.0580196380615</t>
   </si>
   <si>
     <t xml:space="preserve">14.119948387146</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">14.3986320495605</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3676681518555</t>
+    <t xml:space="preserve">14.3676691055298</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270547866821</t>
@@ -1865,10 +1865,10 @@
     <t xml:space="preserve">14.1509141921997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4295969009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5224924087524</t>
+    <t xml:space="preserve">14.4295959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5224933624268</t>
   </si>
   <si>
     <t xml:space="preserve">14.8011751174927</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">15.2037153244019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5133647918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6372261047363</t>
+    <t xml:space="preserve">15.5133638381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6372241973877</t>
   </si>
   <si>
     <t xml:space="preserve">15.5752944946289</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">15.6991539001465</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6681890487671</t>
+    <t xml:space="preserve">15.6681900024414</t>
   </si>
   <si>
     <t xml:space="preserve">15.8230123519897</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">16.5352039337158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.782922744751</t>
+    <t xml:space="preserve">16.7829246520996</t>
   </si>
   <si>
     <t xml:space="preserve">16.9067802429199</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">16.9687099456787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0616035461426</t>
+    <t xml:space="preserve">17.0616054534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.5570411682129</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">18.2692337036133</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9194927215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027397155762</t>
+    <t xml:space="preserve">18.9194946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027416229248</t>
   </si>
   <si>
     <t xml:space="preserve">19.0743160247803</t>
@@ -1943,25 +1943,25 @@
     <t xml:space="preserve">20.0651912689209</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8174724578857</t>
+    <t xml:space="preserve">19.8174705505371</t>
   </si>
   <si>
     <t xml:space="preserve">19.8484363555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2291393280029</t>
+    <t xml:space="preserve">19.2291412353516</t>
   </si>
   <si>
     <t xml:space="preserve">19.4458961486816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5078239440918</t>
+    <t xml:space="preserve">19.5078220367432</t>
   </si>
   <si>
     <t xml:space="preserve">19.3839645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316871643066</t>
+    <t xml:space="preserve">19.631685256958</t>
   </si>
   <si>
     <t xml:space="preserve">19.3220386505127</t>
@@ -1982,25 +1982,25 @@
     <t xml:space="preserve">18.8575630187988</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6408100128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7646675109863</t>
+    <t xml:space="preserve">18.6408081054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.764669418335</t>
   </si>
   <si>
     <t xml:space="preserve">19.0433521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1362457275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.291072845459</t>
+    <t xml:space="preserve">19.1362476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2910709381104</t>
   </si>
   <si>
     <t xml:space="preserve">18.9814205169678</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7337055206299</t>
+    <t xml:space="preserve">18.7337036132812</t>
   </si>
   <si>
     <t xml:space="preserve">18.9504566192627</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">18.4240550994873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4859867095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3621273040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3001976013184</t>
+    <t xml:space="preserve">18.4859886169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3621253967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3001956939697</t>
   </si>
   <si>
     <t xml:space="preserve">18.1763401031494</t>
@@ -2024,16 +2024,16 @@
     <t xml:space="preserve">18.0834426879883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8976554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7118663787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.804759979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1544990539551</t>
+    <t xml:space="preserve">17.8976535797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7118682861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8047580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1544971466064</t>
   </si>
   <si>
     <t xml:space="preserve">17.0925712585449</t>
@@ -2048,22 +2048,22 @@
     <t xml:space="preserve">17.9595851898193</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2382678985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6098442077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7209949493408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5042400360107</t>
+    <t xml:space="preserve">18.2382698059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6098461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7209930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5042381286621</t>
   </si>
   <si>
     <t xml:space="preserve">15.9468727111816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5443325042725</t>
+    <t xml:space="preserve">15.5443305969238</t>
   </si>
   <si>
     <t xml:space="preserve">14.8321399688721</t>
@@ -2072,22 +2072,22 @@
     <t xml:space="preserve">15.0488929748535</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5534553527832</t>
+    <t xml:space="preserve">14.5534563064575</t>
   </si>
   <si>
     <t xml:space="preserve">11.5436763763428</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6303806304932</t>
+    <t xml:space="preserve">11.6303796768188</t>
   </si>
   <si>
     <t xml:space="preserve">9.97066593170166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.230770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8344202041626</t>
+    <t xml:space="preserve">10.2307691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83442115783691</t>
   </si>
   <si>
     <t xml:space="preserve">9.37614154815674</t>
@@ -2102,28 +2102,28 @@
     <t xml:space="preserve">9.87157821655273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4537162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7262077331543</t>
+    <t xml:space="preserve">10.4537153244019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.72620677948</t>
   </si>
   <si>
     <t xml:space="preserve">10.8376798629761</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3950471878052</t>
+    <t xml:space="preserve">11.3950462341309</t>
   </si>
   <si>
     <t xml:space="preserve">11.5065202713013</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2835721969604</t>
+    <t xml:space="preserve">11.2835731506348</t>
   </si>
   <si>
     <t xml:space="preserve">11.5932207107544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3331174850464</t>
+    <t xml:space="preserve">11.3331165313721</t>
   </si>
   <si>
     <t xml:space="preserve">11.6179943084717</t>
@@ -2138,10 +2138,10 @@
     <t xml:space="preserve">12.0143423080444</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3239908218384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8037824630737</t>
+    <t xml:space="preserve">12.3239898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8037815093994</t>
   </si>
   <si>
     <t xml:space="preserve">11.6799230575562</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">12.1258153915405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001314163208</t>
+    <t xml:space="preserve">12.2001323699951</t>
   </si>
   <si>
     <t xml:space="preserve">12.3859205245972</t>
@@ -2168,16 +2168,16 @@
     <t xml:space="preserve">14.0373764038086</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6562700271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3704414367676</t>
+    <t xml:space="preserve">13.656270980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3704404830933</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798887252808</t>
   </si>
   <si>
-    <t xml:space="preserve">12.957576751709</t>
+    <t xml:space="preserve">12.9575777053833</t>
   </si>
   <si>
     <t xml:space="preserve">13.1481304168701</t>
@@ -2192,16 +2192,16 @@
     <t xml:space="preserve">12.7670249938965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0210962295532</t>
+    <t xml:space="preserve">13.0210952758789</t>
   </si>
   <si>
     <t xml:space="preserve">13.5292358398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.275164604187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4974765777588</t>
+    <t xml:space="preserve">13.2751655578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4974775314331</t>
   </si>
   <si>
     <t xml:space="preserve">14.0056171417236</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">14.3549633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8948640823364</t>
+    <t xml:space="preserve">14.8948631286621</t>
   </si>
   <si>
     <t xml:space="preserve">14.9266214370728</t>
@@ -2222,19 +2222,19 @@
     <t xml:space="preserve">15.2124509811401</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4030027389526</t>
+    <t xml:space="preserve">15.4030046463013</t>
   </si>
   <si>
     <t xml:space="preserve">15.9429025650024</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4982786178589</t>
+    <t xml:space="preserve">15.4982776641846</t>
   </si>
   <si>
     <t xml:space="preserve">15.5300378799438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3077278137207</t>
+    <t xml:space="preserve">15.3077268600464</t>
   </si>
   <si>
     <t xml:space="preserve">15.1171741485596</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">14.2279291152954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1961708068848</t>
+    <t xml:space="preserve">14.1961698532104</t>
   </si>
   <si>
     <t xml:space="preserve">13.9738578796387</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">15.3712453842163</t>
   </si>
   <si>
-    <t xml:space="preserve">15.053656578064</t>
+    <t xml:space="preserve">15.0536575317383</t>
   </si>
   <si>
     <t xml:space="preserve">16.2604904174805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1334552764893</t>
+    <t xml:space="preserve">16.1334533691406</t>
   </si>
   <si>
     <t xml:space="preserve">15.7523498535156</t>
@@ -2294,10 +2294,10 @@
     <t xml:space="preserve">15.7205905914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4665203094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8793830871582</t>
+    <t xml:space="preserve">15.4665193557739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8793849945068</t>
   </si>
   <si>
     <t xml:space="preserve">16.3240089416504</t>
@@ -2306,7 +2306,7 @@
     <t xml:space="preserve">17.0226993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5145568847656</t>
+    <t xml:space="preserve">16.5145587921143</t>
   </si>
   <si>
     <t xml:space="preserve">15.9111423492432</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">16.4828033447266</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6415939331055</t>
+    <t xml:space="preserve">16.6415958404541</t>
   </si>
   <si>
     <t xml:space="preserve">16.8321475982666</t>
@@ -2333,13 +2333,13 @@
     <t xml:space="preserve">16.8956661224365</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7051105499268</t>
+    <t xml:space="preserve">16.7051124572754</t>
   </si>
   <si>
     <t xml:space="preserve">17.0544586181641</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1497364044189</t>
+    <t xml:space="preserve">17.1497344970703</t>
   </si>
   <si>
     <t xml:space="preserve">17.117977142334</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">16.8639068603516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7686309814453</t>
+    <t xml:space="preserve">16.7686290740967</t>
   </si>
   <si>
     <t xml:space="preserve">16.7368717193604</t>
   </si>
   <si>
-    <t xml:space="preserve">16.419282913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1652145385742</t>
+    <t xml:space="preserve">16.4192848205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1652126312256</t>
   </si>
   <si>
     <t xml:space="preserve">16.0699367523193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5617971420288</t>
+    <t xml:space="preserve">15.5617961883545</t>
   </si>
   <si>
     <t xml:space="preserve">15.2759666442871</t>
@@ -2375,13 +2375,13 @@
     <t xml:space="preserve">15.1806917190552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4347620010376</t>
+    <t xml:space="preserve">15.4347629547119</t>
   </si>
   <si>
     <t xml:space="preserve">15.1489334106445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7995862960815</t>
+    <t xml:space="preserve">14.7995853424072</t>
   </si>
   <si>
     <t xml:space="preserve">14.6090335845947</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">13.2434072494507</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1326522827148</t>
+    <t xml:space="preserve">14.1326513290405</t>
   </si>
   <si>
     <t xml:space="preserve">13.8468227386475</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">14.5455160140991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7043104171753</t>
+    <t xml:space="preserve">14.704309463501</t>
   </si>
   <si>
     <t xml:space="preserve">14.4184818267822</t>
@@ -2447,16 +2447,16 @@
     <t xml:space="preserve">14.3232040405273</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8785820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5137586593628</t>
+    <t xml:space="preserve">13.8785829544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5137577056885</t>
   </si>
   <si>
     <t xml:space="preserve">14.8631038665771</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3867216110229</t>
+    <t xml:space="preserve">14.3867225646973</t>
   </si>
   <si>
     <t xml:space="preserve">14.1008949279785</t>
@@ -2468,25 +2468,25 @@
     <t xml:space="preserve">13.4657182693481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8150653839111</t>
+    <t xml:space="preserve">13.8150644302368</t>
   </si>
   <si>
     <t xml:space="preserve">14.0691337585449</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6880283355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4339590072632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3386831283569</t>
+    <t xml:space="preserve">13.6880292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4339580535889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3386840820312</t>
   </si>
   <si>
     <t xml:space="preserve">13.3069248199463</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7515468597412</t>
+    <t xml:space="preserve">13.7515459060669</t>
   </si>
   <si>
     <t xml:space="preserve">13.7839031219482</t>
@@ -3501,6 +3501,9 @@
   </si>
   <si>
     <t xml:space="preserve">27.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2999992370605</t>
   </si>
 </sst>
 </file>
@@ -59586,7 +59589,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6514467593</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>106046</v>
@@ -59607,6 +59610,32 @@
         <v>1162</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6496064815</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>324835</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>27.3500003814697</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>27.0499992370605</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>27.1000003814697</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>27.2999992370605</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SG.MI.xlsx
+++ b/data/SG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1168">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,25 +44,25 @@
     <t xml:space="preserve">SG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58355665206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6107382774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32805252075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9801344871521</t>
+    <t xml:space="preserve">7.58355569839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61073875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32805204391479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98013353347778</t>
   </si>
   <si>
     <t xml:space="preserve">6.92577123641968</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01275110244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15409278869629</t>
+    <t xml:space="preserve">7.01275253295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15409374237061</t>
   </si>
   <si>
     <t xml:space="preserve">6.87684535980225</t>
@@ -71,19 +71,19 @@
     <t xml:space="preserve">6.38214731216431</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95812129974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53436231613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32234859466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74093866348267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91489934921265</t>
+    <t xml:space="preserve">5.95812034606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53436136245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32234907150269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74093961715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91489887237549</t>
   </si>
   <si>
     <t xml:space="preserve">6.99100589752197</t>
@@ -92,49 +92,49 @@
     <t xml:space="preserve">6.85510015487671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64852285385132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70832252502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89859008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75724792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5234899520874</t>
+    <t xml:space="preserve">6.648521900177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70832204818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89859056472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75724840164185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52349042892456</t>
   </si>
   <si>
     <t xml:space="preserve">6.25167751312256</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10489892959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15355539321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19432830810547</t>
+    <t xml:space="preserve">6.10489940643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15355682373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19432878494263</t>
   </si>
   <si>
     <t xml:space="preserve">5.27315425872803</t>
   </si>
   <si>
-    <t xml:space="preserve">4.92523431777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02580547332764</t>
+    <t xml:space="preserve">4.92523527145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02580451965332</t>
   </si>
   <si>
     <t xml:space="preserve">5.13724851608276</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0448317527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01221561431885</t>
+    <t xml:space="preserve">5.04483222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01221418380737</t>
   </si>
   <si>
     <t xml:space="preserve">4.88446235656738</t>
@@ -149,28 +149,28 @@
     <t xml:space="preserve">5.52322101593018</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45798635482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56671142578125</t>
+    <t xml:space="preserve">5.45798587799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56671094894409</t>
   </si>
   <si>
     <t xml:space="preserve">5.8330864906311</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19731521606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99617433547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8711404800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84395885467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94724798202515</t>
+    <t xml:space="preserve">6.19731378555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99617338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87114095687866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84395933151245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94724750518799</t>
   </si>
   <si>
     <t xml:space="preserve">5.8167781829834</t>
@@ -194,22 +194,22 @@
     <t xml:space="preserve">6.46369075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31147623062134</t>
+    <t xml:space="preserve">6.31147575378418</t>
   </si>
   <si>
     <t xml:space="preserve">6.11577129364014</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36040306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38758420944214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45281839370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34409332275391</t>
+    <t xml:space="preserve">6.36040210723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38758325576782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45281744003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34409379959106</t>
   </si>
   <si>
     <t xml:space="preserve">6.30060386657715</t>
@@ -218,25 +218,25 @@
     <t xml:space="preserve">6.13207960128784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01248216629028</t>
+    <t xml:space="preserve">6.0124831199646</t>
   </si>
   <si>
     <t xml:space="preserve">5.68087196350098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07771778106689</t>
+    <t xml:space="preserve">6.07771825790405</t>
   </si>
   <si>
     <t xml:space="preserve">6.01791906356812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83852338790894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00161075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99073886871338</t>
+    <t xml:space="preserve">5.83852386474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00161027908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99073839187622</t>
   </si>
   <si>
     <t xml:space="preserve">5.71892642974854</t>
@@ -245,46 +245,46 @@
     <t xml:space="preserve">5.68630838394165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57758378982544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82765054702759</t>
+    <t xml:space="preserve">5.5775842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8276515007019</t>
   </si>
   <si>
     <t xml:space="preserve">5.778724193573</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82221460342407</t>
+    <t xml:space="preserve">5.82221508026123</t>
   </si>
   <si>
     <t xml:space="preserve">5.91239356994629</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70949029922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72076177597046</t>
+    <t xml:space="preserve">5.7094898223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72076225280762</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058280944824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76021575927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81657791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00821018218994</t>
+    <t xml:space="preserve">5.7602162361145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81657934188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00820970535278</t>
   </si>
   <si>
     <t xml:space="preserve">5.96311950683594</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13220596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07584428787231</t>
+    <t xml:space="preserve">6.13220643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07584381103516</t>
   </si>
   <si>
     <t xml:space="preserve">5.97439289093018</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">5.94621133804321</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77712440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69258117675781</t>
+    <t xml:space="preserve">5.77712488174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69258213043213</t>
   </si>
   <si>
     <t xml:space="preserve">5.83348751068115</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1152982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12657022476196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22802209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61128425598145</t>
+    <t xml:space="preserve">6.11529779434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12657070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22802305221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6112847328186</t>
   </si>
   <si>
     <t xml:space="preserve">6.71837377548218</t>
@@ -320,52 +320,52 @@
     <t xml:space="preserve">6.60001230239868</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59437656402588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42528963088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43656253814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52110576629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56619501113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62255811691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4534707069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620365142822</t>
+    <t xml:space="preserve">6.59437608718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42528867721558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43656301498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52110624313354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56619548797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62255716323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45347023010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620317459106</t>
   </si>
   <si>
     <t xml:space="preserve">6.1998405456543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27311182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50419664382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57746744155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55492258071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63946580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17166090011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33510971069336</t>
+    <t xml:space="preserve">6.27311229705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5041971206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.577467918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55492353439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63946676254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17165994644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33511018753052</t>
   </si>
   <si>
     <t xml:space="preserve">6.31256580352783</t>
@@ -377,16 +377,16 @@
     <t xml:space="preserve">6.45910692214966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48728895187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67892026901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69019269943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75219011306763</t>
+    <t xml:space="preserve">6.48728847503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67891979217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6901912689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75219058990479</t>
   </si>
   <si>
     <t xml:space="preserve">7.12981748580933</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">6.98327589035034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93254947662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07345533370972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27635955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21436071395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1185450553894</t>
+    <t xml:space="preserve">6.93254995346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07345581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27635908126831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21436023712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11854410171509</t>
   </si>
   <si>
     <t xml:space="preserve">7.0678186416626</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">7.01145601272583</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7127366065979</t>
+    <t xml:space="preserve">6.71273708343506</t>
   </si>
   <si>
     <t xml:space="preserve">6.76346397399902</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72964525222778</t>
+    <t xml:space="preserve">6.72964572906494</t>
   </si>
   <si>
     <t xml:space="preserve">6.87055110931396</t>
@@ -437,13 +437,13 @@
     <t xml:space="preserve">6.92691373825073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10163688659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05654668807983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15799856185913</t>
+    <t xml:space="preserve">7.10163640975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05654716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15799808502197</t>
   </si>
   <si>
     <t xml:space="preserve">7.04527425765991</t>
@@ -452,34 +452,34 @@
     <t xml:space="preserve">7.01709318161011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9494571685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96636772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85364294052124</t>
+    <t xml:space="preserve">6.94945859909058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9663667678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85364198684692</t>
   </si>
   <si>
     <t xml:space="preserve">7.14672613143921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20308876037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23126888275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.343994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51308012008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49617099761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41162776947021</t>
+    <t xml:space="preserve">7.20308780670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23126983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34399318695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51307964324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49617147445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41162824630737</t>
   </si>
   <si>
     <t xml:space="preserve">7.42853736877441</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">7.48489904403687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40599250793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32708501815796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45108127593994</t>
+    <t xml:space="preserve">7.40599203109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3270845413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45108222961426</t>
   </si>
   <si>
     <t xml:space="preserve">7.28763151168823</t>
@@ -503,22 +503,22 @@
     <t xml:space="preserve">7.30453968048096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47362756729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37781143188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23690557479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28199577331543</t>
+    <t xml:space="preserve">7.4736270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37781095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23690509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28199529647827</t>
   </si>
   <si>
     <t xml:space="preserve">7.12418174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22563314437866</t>
+    <t xml:space="preserve">7.2256326675415</t>
   </si>
   <si>
     <t xml:space="preserve">7.19181632995605</t>
@@ -527,61 +527,61 @@
     <t xml:space="preserve">7.2199969291687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25944995880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.298903465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18617963790894</t>
+    <t xml:space="preserve">7.25945043563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29890394210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18617916107178</t>
   </si>
   <si>
     <t xml:space="preserve">7.09036350250244</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09600019454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08472728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03963804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14347839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44783496856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58310461044312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63383054733276</t>
+    <t xml:space="preserve">7.0959997177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08472681045532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03963756561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14347791671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44783544540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58310413360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63383007049561</t>
   </si>
   <si>
     <t xml:space="preserve">6.38583612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08711624145508</t>
+    <t xml:space="preserve">6.08711719512939</t>
   </si>
   <si>
     <t xml:space="preserve">5.92366647720337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1096625328064</t>
+    <t xml:space="preserve">6.10966157913208</t>
   </si>
   <si>
     <t xml:space="preserve">5.92930316925049</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02511835098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05329895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90112161636353</t>
+    <t xml:space="preserve">6.02511787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05329990386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90112113952637</t>
   </si>
   <si>
     <t xml:space="preserve">5.7320351600647</t>
@@ -590,37 +590,37 @@
     <t xml:space="preserve">5.80530595779419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91803026199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21674966812134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32947397232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2674765586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30129289627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41401720046997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70710039138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87618732452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77473640441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62819480895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81982660293579</t>
+    <t xml:space="preserve">5.91802978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21674919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32947444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26747608184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30129337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41401767730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7071008682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87618780136108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77473497390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62819385528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81982564926147</t>
   </si>
   <si>
     <t xml:space="preserve">6.78037214279175</t>
@@ -635,43 +635,43 @@
     <t xml:space="preserve">6.84237003326416</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91000461578369</t>
+    <t xml:space="preserve">6.91000413894653</t>
   </si>
   <si>
     <t xml:space="preserve">6.70146465301514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68455696105957</t>
+    <t xml:space="preserve">6.6845555305481</t>
   </si>
   <si>
     <t xml:space="preserve">6.65073823928833</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60564851760864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50983238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51547002792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57183122634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39710903167725</t>
+    <t xml:space="preserve">6.6056489944458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50983333587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51546955108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57183170318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710855484009</t>
   </si>
   <si>
     <t xml:space="preserve">6.36892795562744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44219827651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47037935256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52674198150635</t>
+    <t xml:space="preserve">6.44219923019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47037982940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52674245834351</t>
   </si>
   <si>
     <t xml:space="preserve">6.53237819671631</t>
@@ -686,37 +686,37 @@
     <t xml:space="preserve">6.80291652679443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83673334121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26508665084839</t>
+    <t xml:space="preserve">6.8367338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26508712768555</t>
   </si>
   <si>
     <t xml:space="preserve">7.2425422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47926330566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62580394744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66525793075562</t>
+    <t xml:space="preserve">7.47926378250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62580537796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66525840759277</t>
   </si>
   <si>
     <t xml:space="preserve">8.17251682281494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26833343505859</t>
+    <t xml:space="preserve">8.26833438873291</t>
   </si>
   <si>
     <t xml:space="preserve">8.00343036651611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9301609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98652267456055</t>
+    <t xml:space="preserve">7.93016004562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98652219772339</t>
   </si>
   <si>
     <t xml:space="preserve">8.03161239624023</t>
@@ -725,10 +725,10 @@
     <t xml:space="preserve">8.08797454833984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45432758331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67977714538574</t>
+    <t xml:space="preserve">8.4543285369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67977809906006</t>
   </si>
   <si>
     <t xml:space="preserve">8.70232200622559</t>
@@ -740,28 +740,28 @@
     <t xml:space="preserve">9.06303977966309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37866973876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50266551971436</t>
+    <t xml:space="preserve">9.3786678314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50266647338867</t>
   </si>
   <si>
     <t xml:space="preserve">9.68866157531738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61538982391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92538261413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91974639892578</t>
+    <t xml:space="preserve">9.61538887023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92538166046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91974449157715</t>
   </si>
   <si>
     <t xml:space="preserve">9.75065803527832</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63793468475342</t>
+    <t xml:space="preserve">9.63793563842773</t>
   </si>
   <si>
     <t xml:space="preserve">9.40121364593506</t>
@@ -773,55 +773,55 @@
     <t xml:space="preserve">9.35048770904541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51957511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46884632110596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41812229156494</t>
+    <t xml:space="preserve">9.51957416534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46884727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41812324523926</t>
   </si>
   <si>
     <t xml:space="preserve">9.29412460327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38430595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27158069610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10249328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13067531585693</t>
+    <t xml:space="preserve">9.38430404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27158164978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10249423980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13067436218262</t>
   </si>
   <si>
     <t xml:space="preserve">9.51393795013428</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31667041778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73375034332275</t>
+    <t xml:space="preserve">9.31667137145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.93665409088135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1170148849487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4368047714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7856664657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6519355773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5647211074829</t>
+    <t xml:space="preserve">10.1170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.436803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7856674194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6519346237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5647192001343</t>
   </si>
   <si>
     <t xml:space="preserve">10.4658756256104</t>
@@ -830,22 +830,22 @@
     <t xml:space="preserve">10.6344938278198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7275238037109</t>
+    <t xml:space="preserve">10.7275218963623</t>
   </si>
   <si>
     <t xml:space="preserve">10.8147382736206</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0763835906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8554401397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6054201126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6228637695312</t>
+    <t xml:space="preserve">11.0763845443726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8554382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6054210662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6228656768799</t>
   </si>
   <si>
     <t xml:space="preserve">10.8321809768677</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">10.9891700744629</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1926727294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508172988892</t>
+    <t xml:space="preserve">11.1926746368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508163452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.1636018753052</t>
@@ -866,64 +866,64 @@
     <t xml:space="preserve">11.0473136901855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0240535736084</t>
+    <t xml:space="preserve">11.0240564346313</t>
   </si>
   <si>
     <t xml:space="preserve">11.00661277771</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5589790344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.303147315979</t>
+    <t xml:space="preserve">11.5589780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3031463623047</t>
   </si>
   <si>
     <t xml:space="preserve">11.1287136077881</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8728828430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.140344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751937866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9484701156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9077682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4484329223633</t>
+    <t xml:space="preserve">10.8728837966919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1403427124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6751928329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9484691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.907769203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.448431968689</t>
   </si>
   <si>
     <t xml:space="preserve">10.4891338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5705347061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5589065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9310255050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4775047302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5821628570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4077320098877</t>
+    <t xml:space="preserve">10.57053565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5589056015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9310245513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4775037765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.58216381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4077310562134</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623720169067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1693429946899</t>
+    <t xml:space="preserve">10.1693420410156</t>
   </si>
   <si>
     <t xml:space="preserve">10.0007266998291</t>
@@ -941,46 +941,46 @@
     <t xml:space="preserve">10.0297975540161</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94839572906494</t>
+    <t xml:space="preserve">9.94839763641357</t>
   </si>
   <si>
     <t xml:space="preserve">10.1170139312744</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0123538970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.349588394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4542465209961</t>
+    <t xml:space="preserve">10.012354850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3495874404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4542484283447</t>
   </si>
   <si>
     <t xml:space="preserve">10.3902902603149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1751565933228</t>
+    <t xml:space="preserve">10.1751575469971</t>
   </si>
   <si>
     <t xml:space="preserve">10.2274875640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.233302116394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1926002502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3554039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1809711456299</t>
+    <t xml:space="preserve">10.2332992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1926021575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3554029464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1809730529785</t>
   </si>
   <si>
     <t xml:space="preserve">10.3030738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1460866928101</t>
+    <t xml:space="preserve">10.1460857391357</t>
   </si>
   <si>
     <t xml:space="preserve">10.3088884353638</t>
@@ -989,31 +989,31 @@
     <t xml:space="preserve">10.1344566345215</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0995712280273</t>
+    <t xml:space="preserve">10.099570274353</t>
   </si>
   <si>
     <t xml:space="preserve">9.99491214752197</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5472764968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2042274475098</t>
+    <t xml:space="preserve">10.5472774505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2042293548584</t>
   </si>
   <si>
     <t xml:space="preserve">10.2391157150269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.111198425293</t>
+    <t xml:space="preserve">10.1111993789673</t>
   </si>
   <si>
     <t xml:space="preserve">10.4251756668091</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5065774917603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5240201950073</t>
+    <t xml:space="preserve">10.5065765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.524019241333</t>
   </si>
   <si>
     <t xml:space="preserve">10.5530910491943</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">10.6810073852539</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1345300674438</t>
+    <t xml:space="preserve">11.1345281600952</t>
   </si>
   <si>
     <t xml:space="preserve">11.5996799468994</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5822372436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6868963241577</t>
+    <t xml:space="preserve">11.582236289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.686897277832</t>
   </si>
   <si>
     <t xml:space="preserve">12.3555479049683</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">12.4253206253052</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4485778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9020986557007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8090705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1230459213257</t>
+    <t xml:space="preserve">12.4485769271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.902099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8090686798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1230449676514</t>
   </si>
   <si>
     <t xml:space="preserve">13.163745880127</t>
@@ -1064,76 +1064,76 @@
     <t xml:space="preserve">13.4544649124146</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8789157867432</t>
+    <t xml:space="preserve">13.8789138793945</t>
   </si>
   <si>
     <t xml:space="preserve">14.3905801773071</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4022083282471</t>
+    <t xml:space="preserve">14.4022073745728</t>
   </si>
   <si>
     <t xml:space="preserve">14.5359392166138</t>
   </si>
   <si>
-    <t xml:space="preserve">15.030161857605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5534553527832</t>
+    <t xml:space="preserve">15.030158996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5534543991089</t>
   </si>
   <si>
     <t xml:space="preserve">15.4080944061279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4487943649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1058235168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6988134384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023189544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.675555229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2918062210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5825262069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5592679977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7395143508911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6290426254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6813697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3092498779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2045907974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1638898849487</t>
+    <t xml:space="preserve">15.4487953186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1058216094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6988143920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023170471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6755542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2918071746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5825252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.559268951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7395124435425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6290397644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6813716888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.309250831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2045927047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1638917922974</t>
   </si>
   <si>
     <t xml:space="preserve">15.3150653839111</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1522636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4778690338135</t>
+    <t xml:space="preserve">15.1522617340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4778671264648</t>
   </si>
   <si>
     <t xml:space="preserve">15.367395401001</t>
@@ -1142,34 +1142,34 @@
     <t xml:space="preserve">15.4139089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4720544815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3906517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.175518989563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1580038070679</t>
+    <t xml:space="preserve">15.4720525741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3906526565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1755199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1580047607422</t>
   </si>
   <si>
     <t xml:space="preserve">14.4661655426025</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0126447677612</t>
+    <t xml:space="preserve">14.0126466751099</t>
   </si>
   <si>
     <t xml:space="preserve">14.2742919921875</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0591592788696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7685146331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9836473464966</t>
+    <t xml:space="preserve">14.0591602325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7685127258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9836454391479</t>
   </si>
   <si>
     <t xml:space="preserve">15.1173763275146</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">15.0941171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9720163345337</t>
+    <t xml:space="preserve">14.972017288208</t>
   </si>
   <si>
     <t xml:space="preserve">14.5068683624268</t>
@@ -1187,19 +1187,19 @@
     <t xml:space="preserve">14.4080228805542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4603509902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3033628463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1870765686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2394065856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5243110656738</t>
+    <t xml:space="preserve">14.4603519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1870775222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.239405632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5243091583252</t>
   </si>
   <si>
     <t xml:space="preserve">14.4836091995239</t>
@@ -1208,58 +1208,58 @@
     <t xml:space="preserve">14.4429082870483</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6173391342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4138383865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3091793060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3382482528687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4312801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2684774398804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.97194480896</t>
+    <t xml:space="preserve">14.617338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4138374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3091773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3382501602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4312791824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2684783935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9719438552856</t>
   </si>
   <si>
     <t xml:space="preserve">13.8905420303345</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8091411590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0242738723755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8672866821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3731374740601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3615083694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940828323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6697416305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7860298156738</t>
+    <t xml:space="preserve">13.8091430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0242748260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8672857284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3731355667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3615074157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6697444915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7860307693481</t>
   </si>
   <si>
     <t xml:space="preserve">15.8151006698608</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7569580078125</t>
+    <t xml:space="preserve">15.7569551467896</t>
   </si>
   <si>
     <t xml:space="preserve">15.6115970611572</t>
@@ -1274,28 +1274,28 @@
     <t xml:space="preserve">15.1464471817017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0592317581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2627372741699</t>
+    <t xml:space="preserve">15.059232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2627353668213</t>
   </si>
   <si>
     <t xml:space="preserve">14.8848009109497</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0883054733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.942946434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6812973022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6637830734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5765676498413</t>
+    <t xml:space="preserve">15.088303565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9429454803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6812992095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.663782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5765657424927</t>
   </si>
   <si>
     <t xml:space="preserve">13.9545030593872</t>
@@ -1307,25 +1307,25 @@
     <t xml:space="preserve">13.1986322402954</t>
   </si>
   <si>
-    <t xml:space="preserve">13.51842212677</t>
+    <t xml:space="preserve">13.5184230804443</t>
   </si>
   <si>
     <t xml:space="preserve">13.634711265564</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2277050018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1404895782471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2567758560181</t>
+    <t xml:space="preserve">13.2277040481567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1404886245728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2567729949951</t>
   </si>
   <si>
     <t xml:space="preserve">12.9369850158691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1114149093628</t>
+    <t xml:space="preserve">13.1114158630371</t>
   </si>
   <si>
     <t xml:space="preserve">12.5881223678589</t>
@@ -1334,16 +1334,16 @@
     <t xml:space="preserve">12.2101888656616</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5590505599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7916250228882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0242013931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4021348953247</t>
+    <t xml:space="preserve">12.5590515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7916259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0242004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4021339416504</t>
   </si>
   <si>
     <t xml:space="preserve">13.6056385040283</t>
@@ -1352,28 +1352,28 @@
     <t xml:space="preserve">13.5474948883057</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7334842681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9660577774048</t>
+    <t xml:space="preserve">12.7334823608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9660558700562</t>
   </si>
   <si>
     <t xml:space="preserve">13.0532741546631</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9079141616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8788423538208</t>
+    <t xml:space="preserve">12.9079132080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8788404464722</t>
   </si>
   <si>
     <t xml:space="preserve">12.8206977844238</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8497695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1695613861084</t>
+    <t xml:space="preserve">12.8497705459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1695594787598</t>
   </si>
   <si>
     <t xml:space="preserve">13.0823440551758</t>
@@ -1382,13 +1382,13 @@
     <t xml:space="preserve">12.7625551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4312057495117</t>
+    <t xml:space="preserve">13.4312086105347</t>
   </si>
   <si>
     <t xml:space="preserve">13.4358015060425</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3458299636841</t>
+    <t xml:space="preserve">13.3458280563354</t>
   </si>
   <si>
     <t xml:space="preserve">13.2558584213257</t>
@@ -1397,10 +1397,10 @@
     <t xml:space="preserve">13.165885925293</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0759124755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1358947753906</t>
+    <t xml:space="preserve">13.0759134292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1358957290649</t>
   </si>
   <si>
     <t xml:space="preserve">12.9859409332275</t>
@@ -1433,13 +1433,13 @@
     <t xml:space="preserve">12.4161205291748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.744330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5164022445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7323331832886</t>
+    <t xml:space="preserve">11.7443294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5164012908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7323341369629</t>
   </si>
   <si>
     <t xml:space="preserve">11.6483592987061</t>
@@ -1448,28 +1448,28 @@
     <t xml:space="preserve">12.2661666870117</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9962511062622</t>
+    <t xml:space="preserve">11.9962520599365</t>
   </si>
   <si>
     <t xml:space="preserve">11.9362697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5960626602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3655118942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0656051635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6757249832153</t>
+    <t xml:space="preserve">12.5960645675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3655109405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0656042098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6757259368896</t>
   </si>
   <si>
     <t xml:space="preserve">13.7656984329224</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9756336212158</t>
+    <t xml:space="preserve">13.9756326675415</t>
   </si>
   <si>
     <t xml:space="preserve">13.6157464981079</t>
@@ -1478,37 +1478,37 @@
     <t xml:space="preserve">13.705717086792</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3158397674561</t>
+    <t xml:space="preserve">13.3158388137817</t>
   </si>
   <si>
     <t xml:space="preserve">13.3758201599121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.716025352478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9259614944458</t>
+    <t xml:space="preserve">12.7160263061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9259605407715</t>
   </si>
   <si>
     <t xml:space="preserve">12.6860361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7460174560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4761018753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5660743713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5360822677612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8959703445435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7760057449341</t>
+    <t xml:space="preserve">12.7460165023804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4761009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5360832214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8959693908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7760076522827</t>
   </si>
   <si>
     <t xml:space="preserve">12.656044960022</t>
@@ -1520,82 +1520,82 @@
     <t xml:space="preserve">12.3261470794678</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2961568832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8059978485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9559507369995</t>
+    <t xml:space="preserve">12.2961578369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8059988021851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9559516906738</t>
   </si>
   <si>
     <t xml:space="preserve">12.4461107254028</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3861293792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8659791946411</t>
+    <t xml:space="preserve">12.3861303329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8659801483154</t>
   </si>
   <si>
     <t xml:space="preserve">12.1162137985229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9842538833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9722576141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.108528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.372444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7966260910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6166830062866</t>
+    <t xml:space="preserve">11.9842548370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9722585678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1085290908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3724460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7966270446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6166839599609</t>
   </si>
   <si>
     <t xml:space="preserve">10.6046857833862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5926876068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246465682983</t>
+    <t xml:space="preserve">10.5926895141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.724648475647</t>
   </si>
   <si>
     <t xml:space="preserve">10.5327091217041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4847230911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.412745475769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.244797706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3767566680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3647613525391</t>
+    <t xml:space="preserve">10.4847240447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4127464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2447986602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3767557144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3647623062134</t>
   </si>
   <si>
     <t xml:space="preserve">10.736644744873</t>
   </si>
   <si>
-    <t xml:space="preserve">10.892596244812</t>
+    <t xml:space="preserve">10.8925952911377</t>
   </si>
   <si>
     <t xml:space="preserve">10.9285840988159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0845355987549</t>
+    <t xml:space="preserve">11.0845365524292</t>
   </si>
   <si>
     <t xml:space="preserve">11.3244609832764</t>
@@ -1604,16 +1604,16 @@
     <t xml:space="preserve">11.2524833679199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2884721755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4684152603149</t>
+    <t xml:space="preserve">11.2884731292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4684171676636</t>
   </si>
   <si>
     <t xml:space="preserve">11.6243677139282</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4084358215332</t>
+    <t xml:space="preserve">11.4084348678589</t>
   </si>
   <si>
     <t xml:space="preserve">11.6603555679321</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">11.5403938293457</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4204320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.156512260437</t>
+    <t xml:space="preserve">11.420431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1565132141113</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766624450684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8446111679077</t>
+    <t xml:space="preserve">10.8446102142334</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604507446289</t>
@@ -1646,28 +1646,28 @@
     <t xml:space="preserve">11.2044992446899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3964385986328</t>
+    <t xml:space="preserve">11.3964376449585</t>
   </si>
   <si>
     <t xml:space="preserve">11.3844432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3124656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764768600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3364572525024</t>
+    <t xml:space="preserve">11.3124647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764759063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3364562988281</t>
   </si>
   <si>
     <t xml:space="preserve">11.1325206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9645748138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6526718139648</t>
+    <t xml:space="preserve">10.9645738601685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6526708602905</t>
   </si>
   <si>
     <t xml:space="preserve">10.4607315063477</t>
@@ -1679,16 +1679,16 @@
     <t xml:space="preserve">10.8686046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0725393295288</t>
+    <t xml:space="preserve">11.0725383758545</t>
   </si>
   <si>
     <t xml:space="preserve">11.3004693984985</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2644805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4804105758667</t>
+    <t xml:space="preserve">11.2644815444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.480411529541</t>
   </si>
   <si>
     <t xml:space="preserve">11.6843481063843</t>
@@ -1700,31 +1700,31 @@
     <t xml:space="preserve">11.7683238983154</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9242744445801</t>
+    <t xml:space="preserve">11.9242725372314</t>
   </si>
   <si>
     <t xml:space="preserve">12.0562334060669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8762884140015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2061853408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1462049484253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4657917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4957828521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.225866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3148651123047</t>
+    <t xml:space="preserve">11.8762874603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2061862945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.146203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4657926559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4957838058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2258672714233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3148632049561</t>
   </si>
   <si>
     <t xml:space="preserve">13.3767938613892</t>
@@ -1736,10 +1736,10 @@
     <t xml:space="preserve">13.1910047531128</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1290760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2219696044922</t>
+    <t xml:space="preserve">13.129075050354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2219705581665</t>
   </si>
   <si>
     <t xml:space="preserve">13.4696884155273</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">13.62451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.779335975647</t>
+    <t xml:space="preserve">13.7793350219727</t>
   </si>
   <si>
     <t xml:space="preserve">13.6864423751831</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9123220443726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4478492736816</t>
+    <t xml:space="preserve">12.9123210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4478511810303</t>
   </si>
   <si>
     <t xml:space="preserve">12.633638381958</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">12.7574987411499</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5407447814941</t>
+    <t xml:space="preserve">12.5407438278198</t>
   </si>
   <si>
     <t xml:space="preserve">12.5717077255249</t>
@@ -1787,25 +1787,25 @@
     <t xml:space="preserve">12.6955690383911</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7265329360962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.788462638855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6646041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8813571929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6026735305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0361804962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2529335021973</t>
+    <t xml:space="preserve">12.7265319824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7884635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6646032333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8813562393188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6026744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0361814498901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2529344558716</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981111526489</t>
@@ -1814,61 +1814,61 @@
     <t xml:space="preserve">13.2839002609253</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1600408554077</t>
+    <t xml:space="preserve">13.1600399017334</t>
   </si>
   <si>
     <t xml:space="preserve">12.943286895752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0052156448364</t>
+    <t xml:space="preserve">13.0052165985107</t>
   </si>
   <si>
     <t xml:space="preserve">13.3458290100098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7483720779419</t>
+    <t xml:space="preserve">13.7483711242676</t>
   </si>
   <si>
     <t xml:space="preserve">13.9341611862183</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2128448486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0580196380615</t>
+    <t xml:space="preserve">14.2128438949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0580205917358</t>
   </si>
   <si>
     <t xml:space="preserve">14.119948387146</t>
   </si>
   <si>
-    <t xml:space="preserve">14.274772644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3986330032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3676681518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0270538330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0889844894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4915266036987</t>
+    <t xml:space="preserve">14.2747716903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3986320495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3676671981812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0270528793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0889835357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.491527557373</t>
   </si>
   <si>
     <t xml:space="preserve">14.1509141921997</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4295959472656</t>
+    <t xml:space="preserve">14.4295969009399</t>
   </si>
   <si>
     <t xml:space="preserve">14.5224914550781</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8011751174927</t>
+    <t xml:space="preserve">14.8011741638184</t>
   </si>
   <si>
     <t xml:space="preserve">14.7702102661133</t>
@@ -1877,88 +1877,88 @@
     <t xml:space="preserve">14.6773157119751</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2037162780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5133628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6372232437134</t>
+    <t xml:space="preserve">15.2037181854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133647918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6372241973877</t>
   </si>
   <si>
     <t xml:space="preserve">15.5752935409546</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6991539001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6681890487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8230113983154</t>
+    <t xml:space="preserve">15.6991548538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6681880950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8230123519897</t>
   </si>
   <si>
     <t xml:space="preserve">16.5352039337158</t>
   </si>
   <si>
-    <t xml:space="preserve">16.782922744751</t>
+    <t xml:space="preserve">16.7829208374023</t>
   </si>
   <si>
     <t xml:space="preserve">16.9067802429199</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0306415557861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9687118530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0616035461426</t>
+    <t xml:space="preserve">17.0306396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9687099456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0616054534912</t>
   </si>
   <si>
     <t xml:space="preserve">17.5570411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2692317962646</t>
+    <t xml:space="preserve">18.2692337036133</t>
   </si>
   <si>
     <t xml:space="preserve">18.9194927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7027416229248</t>
+    <t xml:space="preserve">18.7027397155762</t>
   </si>
   <si>
     <t xml:space="preserve">19.0743160247803</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7865085601807</t>
+    <t xml:space="preserve">19.786506652832</t>
   </si>
   <si>
     <t xml:space="preserve">20.4986972808838</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0651912689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8174705505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8484363555908</t>
+    <t xml:space="preserve">20.0651931762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8174724578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8484382629395</t>
   </si>
   <si>
     <t xml:space="preserve">19.2291393280029</t>
   </si>
   <si>
-    <t xml:space="preserve">19.445894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5078239440918</t>
+    <t xml:space="preserve">19.4458961486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5078258514404</t>
   </si>
   <si>
     <t xml:space="preserve">19.3839645385742</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6316833496094</t>
+    <t xml:space="preserve">19.6316814422607</t>
   </si>
   <si>
     <t xml:space="preserve">19.3220367431641</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">19.1981773376465</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7956314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5788803100586</t>
+    <t xml:space="preserve">18.7956352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.57887840271</t>
   </si>
   <si>
     <t xml:space="preserve">19.0123863220215</t>
@@ -1988,37 +1988,37 @@
     <t xml:space="preserve">19.0433521270752</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1362476348877</t>
+    <t xml:space="preserve">19.1362457275391</t>
   </si>
   <si>
     <t xml:space="preserve">19.2910709381104</t>
   </si>
   <si>
-    <t xml:space="preserve">18.981424331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7337055206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9504566192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4240531921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4859867095947</t>
+    <t xml:space="preserve">18.9814205169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7337036132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.95046043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4240550994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4859848022461</t>
   </si>
   <si>
     <t xml:space="preserve">18.3621273040771</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3001976013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1763401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0834445953369</t>
+    <t xml:space="preserve">18.300199508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1763381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0834426879883</t>
   </si>
   <si>
     <t xml:space="preserve">17.8976535797119</t>
@@ -2027,10 +2027,10 @@
     <t xml:space="preserve">17.7118663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8047618865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1544990539551</t>
+    <t xml:space="preserve">17.8047580718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1545009613037</t>
   </si>
   <si>
     <t xml:space="preserve">17.0925712585449</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">17.4331817626953</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0215129852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9595851898193</t>
+    <t xml:space="preserve">18.0215148925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9595832824707</t>
   </si>
   <si>
     <t xml:space="preserve">18.2382678985596</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6098461151123</t>
+    <t xml:space="preserve">18.6098442077637</t>
   </si>
   <si>
     <t xml:space="preserve">16.7209930419922</t>
@@ -2057,31 +2057,31 @@
     <t xml:space="preserve">16.5042381286621</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9468727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5443296432495</t>
+    <t xml:space="preserve">15.946873664856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5443305969238</t>
   </si>
   <si>
     <t xml:space="preserve">14.8321399688721</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0488929748535</t>
+    <t xml:space="preserve">15.0488920211792</t>
   </si>
   <si>
     <t xml:space="preserve">14.5534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5436773300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6303777694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97066593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.230770111084</t>
+    <t xml:space="preserve">11.5436763763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6303806304932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97066688537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2307691574097</t>
   </si>
   <si>
     <t xml:space="preserve">9.83442115783691</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">9.37614154815674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2894401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92112255096436</t>
+    <t xml:space="preserve">9.28943920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92112159729004</t>
   </si>
   <si>
     <t xml:space="preserve">9.87157821655273</t>
@@ -2102,79 +2102,79 @@
     <t xml:space="preserve">10.4537162780762</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7262058258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8376808166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3950452804565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5065202713013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2835731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5932216644287</t>
+    <t xml:space="preserve">10.7262077331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8376798629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3950471878052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.506519317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2835721969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5932207107544</t>
   </si>
   <si>
     <t xml:space="preserve">11.3331165313721</t>
   </si>
   <si>
-    <t xml:space="preserve">11.617992401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4817476272583</t>
+    <t xml:space="preserve">11.6179933547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4817495346069</t>
   </si>
   <si>
     <t xml:space="preserve">11.8533248901367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0143413543701</t>
+    <t xml:space="preserve">12.0143423080444</t>
   </si>
   <si>
     <t xml:space="preserve">12.3239908218384</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8037815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6799230575562</t>
+    <t xml:space="preserve">11.8037805557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6799221038818</t>
   </si>
   <si>
     <t xml:space="preserve">12.1382026672363</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1258163452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2001314163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3859195709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5637693405151</t>
+    <t xml:space="preserve">12.1258153915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2001304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3859214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5637702941895</t>
   </si>
   <si>
     <t xml:space="preserve">13.4022006988525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0373764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6562719345093</t>
+    <t xml:space="preserve">14.0373754501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6562700271606</t>
   </si>
   <si>
     <t xml:space="preserve">13.3704414367676</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1798877716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9575777053833</t>
+    <t xml:space="preserve">13.1798887252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.957576751709</t>
   </si>
   <si>
     <t xml:space="preserve">13.1481304168701</t>
@@ -2183,49 +2183,49 @@
     <t xml:space="preserve">12.9893369674683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8305435180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7670249938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0210962295532</t>
+    <t xml:space="preserve">12.8305416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7670259475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0210952758789</t>
   </si>
   <si>
     <t xml:space="preserve">13.5292348861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2751655578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4974775314331</t>
+    <t xml:space="preserve">13.275164604187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4974765777588</t>
   </si>
   <si>
     <t xml:space="preserve">14.0056161880493</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5772762298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3549642562866</t>
+    <t xml:space="preserve">14.5772752761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3549633026123</t>
   </si>
   <si>
     <t xml:space="preserve">14.8948631286621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9266214370728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2124509811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4030046463013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9429016113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4982776641846</t>
+    <t xml:space="preserve">14.9266204833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2124500274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.403003692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9429035186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4982795715332</t>
   </si>
   <si>
     <t xml:space="preserve">15.5300378799438</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">14.291446685791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9103412628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2596874237061</t>
+    <t xml:space="preserve">13.9103403091431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2596883773804</t>
   </si>
   <si>
     <t xml:space="preserve">14.9583797454834</t>
@@ -2255,28 +2255,28 @@
     <t xml:space="preserve">14.7360696792603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4819984436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2279272079468</t>
+    <t xml:space="preserve">14.4819974899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2279281616211</t>
   </si>
   <si>
     <t xml:space="preserve">14.1961698532104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9738578796387</t>
+    <t xml:space="preserve">13.973858833313</t>
   </si>
   <si>
     <t xml:space="preserve">15.2442083358765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0854139328003</t>
+    <t xml:space="preserve">15.0854158401489</t>
   </si>
   <si>
     <t xml:space="preserve">15.371244430542</t>
   </si>
   <si>
-    <t xml:space="preserve">15.053656578064</t>
+    <t xml:space="preserve">15.0536575317383</t>
   </si>
   <si>
     <t xml:space="preserve">16.2604904174805</t>
@@ -2285,13 +2285,13 @@
     <t xml:space="preserve">16.1334552764893</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7523469924927</t>
+    <t xml:space="preserve">15.7523498535156</t>
   </si>
   <si>
     <t xml:space="preserve">15.7205905914307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4665203094482</t>
+    <t xml:space="preserve">15.4665222167969</t>
   </si>
   <si>
     <t xml:space="preserve">15.8793849945068</t>
@@ -2303,10 +2303,10 @@
     <t xml:space="preserve">17.0226993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5145587921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111413955688</t>
+    <t xml:space="preserve">16.5145606994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111442565918</t>
   </si>
   <si>
     <t xml:space="preserve">15.8158683776855</t>
@@ -2315,25 +2315,25 @@
     <t xml:space="preserve">16.6733531951904</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4828014373779</t>
+    <t xml:space="preserve">16.4828033447266</t>
   </si>
   <si>
     <t xml:space="preserve">16.6415958404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8321475982666</t>
+    <t xml:space="preserve">16.8321495056152</t>
   </si>
   <si>
     <t xml:space="preserve">16.8003902435303</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8956642150879</t>
+    <t xml:space="preserve">16.8956661224365</t>
   </si>
   <si>
     <t xml:space="preserve">16.7051124572754</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0544586181641</t>
+    <t xml:space="preserve">17.0544605255127</t>
   </si>
   <si>
     <t xml:space="preserve">17.1497364044189</t>
@@ -2348,31 +2348,31 @@
     <t xml:space="preserve">16.8639068603516</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7686290740967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7368698120117</t>
+    <t xml:space="preserve">16.7686309814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7368717193604</t>
   </si>
   <si>
     <t xml:space="preserve">16.4192848205566</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1652145385742</t>
+    <t xml:space="preserve">16.1652126312256</t>
   </si>
   <si>
     <t xml:space="preserve">16.0699367523193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5617961883545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2759675979614</t>
+    <t xml:space="preserve">15.5617971420288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2759666442871</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806917190552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4347620010376</t>
+    <t xml:space="preserve">15.4347610473633</t>
   </si>
   <si>
     <t xml:space="preserve">15.1489334106445</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">14.1644105911255</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7833070755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7352657318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0683317184448</t>
+    <t xml:space="preserve">13.7833061218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7352666854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0683326721191</t>
   </si>
   <si>
     <t xml:space="preserve">12.3732166290283</t>
@@ -2405,43 +2405,43 @@
     <t xml:space="preserve">12.6018800735474</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0846138000488</t>
+    <t xml:space="preserve">13.0846128463745</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528535842896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2434072494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1326522827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8468217849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.68883228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8313446044922</t>
+    <t xml:space="preserve">13.2434062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1326513290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8468227386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6888332366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8313455581665</t>
   </si>
   <si>
     <t xml:space="preserve">14.5455160140991</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7043104171753</t>
+    <t xml:space="preserve">14.704309463501</t>
   </si>
   <si>
     <t xml:space="preserve">14.4184808731079</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4502401351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9901399612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3232049942017</t>
+    <t xml:space="preserve">14.4502391815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9901390075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3232040405273</t>
   </si>
   <si>
     <t xml:space="preserve">13.8785820007324</t>
@@ -2456,34 +2456,31 @@
     <t xml:space="preserve">14.3867216110229</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1008939743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7197885513306</t>
+    <t xml:space="preserve">14.1008930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7197875976562</t>
   </si>
   <si>
     <t xml:space="preserve">13.4657182693481</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6245126724243</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.8150644302368</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0691347122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6880292892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4339599609375</t>
+    <t xml:space="preserve">14.0691337585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6880283355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4339580535889</t>
   </si>
   <si>
     <t xml:space="preserve">13.3386821746826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3069248199463</t>
+    <t xml:space="preserve">13.306923866272</t>
   </si>
   <si>
     <t xml:space="preserve">13.7515459060669</t>
@@ -2495,28 +2492,28 @@
     <t xml:space="preserve">13.5897636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6221208572388</t>
+    <t xml:space="preserve">13.6221199035645</t>
   </si>
   <si>
     <t xml:space="preserve">13.4926948547363</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309125900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3632678985596</t>
+    <t xml:space="preserve">13.3309106826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3632669448853</t>
   </si>
   <si>
     <t xml:space="preserve">13.4279804229736</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5574083328247</t>
+    <t xml:space="preserve">13.5574073791504</t>
   </si>
   <si>
     <t xml:space="preserve">13.8162603378296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5250511169434</t>
+    <t xml:space="preserve">13.525050163269</t>
   </si>
   <si>
     <t xml:space="preserve">13.2985544204712</t>
@@ -2525,7 +2522,7 @@
     <t xml:space="preserve">13.1691284179688</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0720596313477</t>
+    <t xml:space="preserve">13.0720586776733</t>
   </si>
   <si>
     <t xml:space="preserve">13.0073461532593</t>
@@ -2534,16 +2531,16 @@
     <t xml:space="preserve">12.9038057327271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2661991119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014856338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6544780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0427579879761</t>
+    <t xml:space="preserve">13.2661981582642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6544771194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0427570343018</t>
   </si>
   <si>
     <t xml:space="preserve">14.1398258209229</t>
@@ -2552,25 +2549,25 @@
     <t xml:space="preserve">14.0751132965088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.945686340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7515478134155</t>
+    <t xml:space="preserve">13.9456853866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7515468597412</t>
   </si>
   <si>
     <t xml:space="preserve">14.0103988647461</t>
   </si>
   <si>
-    <t xml:space="preserve">14.301609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3986787796021</t>
+    <t xml:space="preserve">14.3016090393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3986778259277</t>
   </si>
   <si>
     <t xml:space="preserve">14.4310350418091</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6251754760742</t>
+    <t xml:space="preserve">14.6251745223999</t>
   </si>
   <si>
     <t xml:space="preserve">14.6898880004883</t>
@@ -2585,7 +2582,7 @@
     <t xml:space="preserve">14.4633922576904</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1721830368042</t>
+    <t xml:space="preserve">14.1721820831299</t>
   </si>
   <si>
     <t xml:space="preserve">14.1074686050415</t>
@@ -2597,13 +2594,13 @@
     <t xml:space="preserve">14.2368955612183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9133310317993</t>
+    <t xml:space="preserve">13.9133291244507</t>
   </si>
   <si>
     <t xml:space="preserve">13.7191905975342</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1367712020874</t>
+    <t xml:space="preserve">13.1367702484131</t>
   </si>
   <si>
     <t xml:space="preserve">13.039701461792</t>
@@ -2612,7 +2609,7 @@
     <t xml:space="preserve">13.9780435562134</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8486156463623</t>
+    <t xml:space="preserve">13.8486166000366</t>
   </si>
   <si>
     <t xml:space="preserve">14.366322517395</t>
@@ -2621,7 +2618,7 @@
     <t xml:space="preserve">14.8193140029907</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7546014785767</t>
+    <t xml:space="preserve">14.7546005249023</t>
   </si>
   <si>
     <t xml:space="preserve">14.4957475662231</t>
@@ -2636,49 +2633,49 @@
     <t xml:space="preserve">15.0134544372559</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3370199203491</t>
+    <t xml:space="preserve">15.3370208740234</t>
   </si>
   <si>
     <t xml:space="preserve">15.1428804397583</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2075939178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752376556396</t>
+    <t xml:space="preserve">15.2075929641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752367019653</t>
   </si>
   <si>
     <t xml:space="preserve">15.3046627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2399492263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5311584472656</t>
+    <t xml:space="preserve">15.2399501800537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5311594009399</t>
   </si>
   <si>
     <t xml:space="preserve">15.8547248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0488624572754</t>
+    <t xml:space="preserve">16.048864364624</t>
   </si>
   <si>
     <t xml:space="preserve">16.1135787963867</t>
   </si>
   <si>
-    <t xml:space="preserve">15.692943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0812206268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2753601074219</t>
+    <t xml:space="preserve">15.6929426193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0812225341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2753620147705</t>
   </si>
   <si>
     <t xml:space="preserve">15.6282291412354</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7252988815308</t>
+    <t xml:space="preserve">15.7252979278564</t>
   </si>
   <si>
     <t xml:space="preserve">15.5958728790283</t>
@@ -2687,19 +2684,19 @@
     <t xml:space="preserve">15.4664459228516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.110523223877</t>
+    <t xml:space="preserve">15.1105241775513</t>
   </si>
   <si>
     <t xml:space="preserve">15.4988031387329</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3693752288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2723073959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8870801925659</t>
+    <t xml:space="preserve">15.3693761825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2723064422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8870820999146</t>
   </si>
   <si>
     <t xml:space="preserve">16.8254222869873</t>
@@ -2729,7 +2726,7 @@
     <t xml:space="preserve">17.4725551605225</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0549716949463</t>
+    <t xml:space="preserve">18.0549736022949</t>
   </si>
   <si>
     <t xml:space="preserve">17.9902591705322</t>
@@ -2744,7 +2741,7 @@
     <t xml:space="preserve">17.4078407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5665702819824</t>
+    <t xml:space="preserve">16.5665721893311</t>
   </si>
   <si>
     <t xml:space="preserve">16.2430038452148</t>
@@ -2765,49 +2762,49 @@
     <t xml:space="preserve">16.3077182769775</t>
   </si>
   <si>
-    <t xml:space="preserve">15.98415184021</t>
+    <t xml:space="preserve">15.9841527938843</t>
   </si>
   <si>
     <t xml:space="preserve">15.8223686218262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7900104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9517955780029</t>
+    <t xml:space="preserve">15.7900114059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9517936706543</t>
   </si>
   <si>
     <t xml:space="preserve">15.6605854034424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.563515663147</t>
+    <t xml:space="preserve">15.5635147094727</t>
   </si>
   <si>
     <t xml:space="preserve">15.4340896606445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9810981750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8516721725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7576551437378</t>
+    <t xml:space="preserve">14.9810962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8516712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7576560974121</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6575307846069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.333966255188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5928182601929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7222452163696</t>
+    <t xml:space="preserve">14.6575317382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3339653015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5928173065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7222442626953</t>
   </si>
   <si>
     <t xml:space="preserve">14.5604619979858</t>
@@ -2816,7 +2813,7 @@
     <t xml:space="preserve">14.7869577407837</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2045402526855</t>
+    <t xml:space="preserve">14.2045392990112</t>
   </si>
   <si>
     <t xml:space="preserve">14.8352680206299</t>
@@ -2825,28 +2822,28 @@
     <t xml:space="preserve">14.6370229721069</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5709419250488</t>
+    <t xml:space="preserve">14.5709409713745</t>
   </si>
   <si>
     <t xml:space="preserve">14.3726978302002</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6700649261475</t>
+    <t xml:space="preserve">14.6700639724731</t>
   </si>
   <si>
     <t xml:space="preserve">14.4057378768921</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0753316879272</t>
+    <t xml:space="preserve">14.0753307342529</t>
   </si>
   <si>
     <t xml:space="preserve">14.5379009246826</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0665521621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2978372573853</t>
+    <t xml:space="preserve">15.0665512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2978363037109</t>
   </si>
   <si>
     <t xml:space="preserve">15.5291213989258</t>
@@ -2861,7 +2858,7 @@
     <t xml:space="preserve">15.2317552566528</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0004720687866</t>
+    <t xml:space="preserve">15.0004711151123</t>
   </si>
   <si>
     <t xml:space="preserve">14.9013481140137</t>
@@ -2876,22 +2873,22 @@
     <t xml:space="preserve">14.7691860198975</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2735767364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2405347824097</t>
+    <t xml:space="preserve">14.2735757827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2405338287354</t>
   </si>
   <si>
     <t xml:space="preserve">13.9762086868286</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8770875930786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7779664993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2074947357178</t>
+    <t xml:space="preserve">13.8770866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7779655456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2074937820435</t>
   </si>
   <si>
     <t xml:space="preserve">14.1414127349854</t>
@@ -2900,13 +2897,13 @@
     <t xml:space="preserve">14.042290687561</t>
   </si>
   <si>
-    <t xml:space="preserve">14.339656829834</t>
+    <t xml:space="preserve">14.3396577835083</t>
   </si>
   <si>
     <t xml:space="preserve">14.0092506408691</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9101285934448</t>
+    <t xml:space="preserve">13.9101276397705</t>
   </si>
   <si>
     <t xml:space="preserve">13.8110055923462</t>
@@ -2918,16 +2915,16 @@
     <t xml:space="preserve">14.3066158294678</t>
   </si>
   <si>
-    <t xml:space="preserve">13.943169593811</t>
+    <t xml:space="preserve">13.9431686401367</t>
   </si>
   <si>
     <t xml:space="preserve">14.1083726882935</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4387798309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8022270202637</t>
+    <t xml:space="preserve">14.4387788772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8022260665894</t>
   </si>
   <si>
     <t xml:space="preserve">14.8683080673218</t>
@@ -2936,25 +2933,25 @@
     <t xml:space="preserve">14.9674301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1326341629028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1987142562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7031049728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8440475463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7449245452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6458024978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6127624511719</t>
+    <t xml:space="preserve">15.1326332092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1987152099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.703104019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8440465927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7449235916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6458015441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6127614974976</t>
   </si>
   <si>
     <t xml:space="preserve">13.5466804504395</t>
@@ -2969,13 +2966,13 @@
     <t xml:space="preserve">13.67884349823</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7118844985962</t>
+    <t xml:space="preserve">13.7118835449219</t>
   </si>
   <si>
     <t xml:space="preserve">14.4718189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9343900680542</t>
+    <t xml:space="preserve">14.9343891143799</t>
   </si>
   <si>
     <t xml:space="preserve">15.4630403518677</t>
@@ -2990,7 +2987,7 @@
     <t xml:space="preserve">15.6943254470825</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4960823059082</t>
+    <t xml:space="preserve">15.4960813522339</t>
   </si>
   <si>
     <t xml:space="preserve">15.7604064941406</t>
@@ -3005,7 +3002,7 @@
     <t xml:space="preserve">15.562162399292</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7273664474487</t>
+    <t xml:space="preserve">15.7273654937744</t>
   </si>
   <si>
     <t xml:space="preserve">19.3948822021484</t>
@@ -3020,7 +3017,7 @@
     <t xml:space="preserve">21.0138740539551</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9808330535889</t>
+    <t xml:space="preserve">20.9808349609375</t>
   </si>
   <si>
     <t xml:space="preserve">20.8156318664551</t>
@@ -3038,16 +3035,16 @@
     <t xml:space="preserve">20.6173877716064</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3442802429199</t>
+    <t xml:space="preserve">21.3442821502686</t>
   </si>
   <si>
     <t xml:space="preserve">21.410364151001</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1129970550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9477958679199</t>
+    <t xml:space="preserve">21.1129989624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9477939605713</t>
   </si>
   <si>
     <t xml:space="preserve">21.3773212432861</t>
@@ -3059,7 +3056,7 @@
     <t xml:space="preserve">21.509485244751</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9720554351807</t>
+    <t xml:space="preserve">21.972053527832</t>
   </si>
   <si>
     <t xml:space="preserve">21.6086082458496</t>
@@ -3074,19 +3071,19 @@
     <t xml:space="preserve">22.1372585296631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9059753417969</t>
+    <t xml:space="preserve">21.9059734344482</t>
   </si>
   <si>
     <t xml:space="preserve">21.773811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7077293395996</t>
+    <t xml:space="preserve">21.707727432251</t>
   </si>
   <si>
     <t xml:space="preserve">21.6746883392334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.575569152832</t>
+    <t xml:space="preserve">21.5755672454834</t>
   </si>
   <si>
     <t xml:space="preserve">22.0381355285645</t>
@@ -3098,13 +3095,13 @@
     <t xml:space="preserve">20.9147529602051</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8486728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0799579620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.311243057251</t>
+    <t xml:space="preserve">20.8486709594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0799560546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3112411499023</t>
   </si>
   <si>
     <t xml:space="preserve">21.0469169616699</t>
@@ -3116,7 +3113,7 @@
     <t xml:space="preserve">19.5270442962646</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4940052032471</t>
+    <t xml:space="preserve">19.4940032958984</t>
   </si>
   <si>
     <t xml:space="preserve">19.2957592010498</t>
@@ -3131,13 +3128,13 @@
     <t xml:space="preserve">19.3618412017822</t>
   </si>
   <si>
-    <t xml:space="preserve">19.130558013916</t>
+    <t xml:space="preserve">19.1305561065674</t>
   </si>
   <si>
     <t xml:space="preserve">19.1635971069336</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1966381072998</t>
+    <t xml:space="preserve">19.1966361999512</t>
   </si>
   <si>
     <t xml:space="preserve">19.5931262969971</t>
@@ -3152,27 +3149,30 @@
     <t xml:space="preserve">18.5688648223877</t>
   </si>
   <si>
+    <t xml:space="preserve">18.8662300109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0346794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1694393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4052658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3378868103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2368183135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1357479095459</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.866231918335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0346794128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1694393157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4052658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3378868103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2368183135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1357479095459</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.9336109161377</t>
   </si>
   <si>
@@ -3509,7 +3509,13 @@
     <t xml:space="preserve">27.7000007629395</t>
   </si>
   <si>
+    <t xml:space="preserve">27.5499992370605</t>
+  </si>
+  <si>
     <t xml:space="preserve">27.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6499996185303</t>
   </si>
 </sst>
 </file>
@@ -37955,7 +37961,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1312" t="s">
-        <v>817</v>
+        <v>578</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38033,7 +38039,7 @@
         <v>21.75</v>
       </c>
       <c r="G1315" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -38059,7 +38065,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1316" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -38163,7 +38169,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1320" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -38267,7 +38273,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1324" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -38293,7 +38299,7 @@
         <v>21</v>
       </c>
       <c r="G1325" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -38371,7 +38377,7 @@
         <v>21</v>
       </c>
       <c r="G1328" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -38475,7 +38481,7 @@
         <v>21</v>
       </c>
       <c r="G1332" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -38501,7 +38507,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1333" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -38527,7 +38533,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1334" t="s">
-        <v>817</v>
+        <v>578</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -38657,7 +38663,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1339" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -38891,7 +38897,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1348" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -38917,7 +38923,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1349" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -38943,7 +38949,7 @@
         <v>21</v>
       </c>
       <c r="G1350" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -38969,7 +38975,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -38995,7 +39001,7 @@
         <v>21</v>
       </c>
       <c r="G1352" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -39021,7 +39027,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1353" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -39047,7 +39053,7 @@
         <v>21</v>
       </c>
       <c r="G1354" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -39073,7 +39079,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1355" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -39099,7 +39105,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1356" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -39125,7 +39131,7 @@
         <v>20.75</v>
       </c>
       <c r="G1357" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -39151,7 +39157,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1358" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -39177,7 +39183,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1359" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -39203,7 +39209,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1360" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -39229,7 +39235,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1361" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -39255,7 +39261,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G1362" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -39281,7 +39287,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1363" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -39307,7 +39313,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1364" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -39333,7 +39339,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1365" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -39359,7 +39365,7 @@
         <v>19.9400005340576</v>
       </c>
       <c r="G1366" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -39385,7 +39391,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1367" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -39411,7 +39417,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1368" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -39437,7 +39443,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1369" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -39463,7 +39469,7 @@
         <v>20.5</v>
       </c>
       <c r="G1370" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -39489,7 +39495,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G1371" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -39515,7 +39521,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1372" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -39541,7 +39547,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1373" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -39567,7 +39573,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1374" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -39593,7 +39599,7 @@
         <v>21.75</v>
       </c>
       <c r="G1375" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -39619,7 +39625,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1376" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -39645,7 +39651,7 @@
         <v>21.25</v>
       </c>
       <c r="G1377" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -39671,7 +39677,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1378" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -39697,7 +39703,7 @@
         <v>21.75</v>
       </c>
       <c r="G1379" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -39723,7 +39729,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1380" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -39749,7 +39755,7 @@
         <v>22.25</v>
       </c>
       <c r="G1381" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -39775,7 +39781,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1382" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -39801,7 +39807,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1383" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -39827,7 +39833,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1384" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -39853,7 +39859,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1385" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -39879,7 +39885,7 @@
         <v>23.25</v>
       </c>
       <c r="G1386" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -39905,7 +39911,7 @@
         <v>23</v>
       </c>
       <c r="G1387" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -39931,7 +39937,7 @@
         <v>22.25</v>
       </c>
       <c r="G1388" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -39957,7 +39963,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1389" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -39983,7 +39989,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1390" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -40009,7 +40015,7 @@
         <v>22.25</v>
       </c>
       <c r="G1391" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -40035,7 +40041,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1392" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -40061,7 +40067,7 @@
         <v>22.25</v>
       </c>
       <c r="G1393" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -40087,7 +40093,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1394" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -40113,7 +40119,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1395" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -40139,7 +40145,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1396" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -40165,7 +40171,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1397" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -40191,7 +40197,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1398" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -40217,7 +40223,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1399" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -40243,7 +40249,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1400" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -40269,7 +40275,7 @@
         <v>22</v>
       </c>
       <c r="G1401" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -40295,7 +40301,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1402" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -40321,7 +40327,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1403" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -40347,7 +40353,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1404" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -40373,7 +40379,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1405" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -40399,7 +40405,7 @@
         <v>21.5</v>
       </c>
       <c r="G1406" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -40425,7 +40431,7 @@
         <v>21.5</v>
       </c>
       <c r="G1407" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -40451,7 +40457,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1408" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -40477,7 +40483,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1409" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -40503,7 +40509,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1410" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -40529,7 +40535,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1411" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -40555,7 +40561,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1412" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -40581,7 +40587,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1413" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -40607,7 +40613,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G1414" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -40633,7 +40639,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1415" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -40659,7 +40665,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1416" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -40685,7 +40691,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G1417" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -40711,7 +40717,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1418" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -40737,7 +40743,7 @@
         <v>20.1499996185303</v>
       </c>
       <c r="G1419" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -40763,7 +40769,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G1420" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -40789,7 +40795,7 @@
         <v>21.25</v>
       </c>
       <c r="G1421" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -40815,7 +40821,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1422" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -40841,7 +40847,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1423" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -40867,7 +40873,7 @@
         <v>20.75</v>
       </c>
       <c r="G1424" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -40893,7 +40899,7 @@
         <v>21.5</v>
       </c>
       <c r="G1425" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -40919,7 +40925,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1426" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -40945,7 +40951,7 @@
         <v>22.25</v>
       </c>
       <c r="G1427" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -40971,7 +40977,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1428" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -40997,7 +41003,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1429" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -41023,7 +41029,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1430" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -41049,7 +41055,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1431" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -41075,7 +41081,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1432" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -41101,7 +41107,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1433" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -41127,7 +41133,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1434" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -41153,7 +41159,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1435" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -41179,7 +41185,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1436" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -41205,7 +41211,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1437" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -41231,7 +41237,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1438" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -41257,7 +41263,7 @@
         <v>23.5</v>
       </c>
       <c r="G1439" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -41283,7 +41289,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1440" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -41309,7 +41315,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1441" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -41335,7 +41341,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1442" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -41361,7 +41367,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1443" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -41387,7 +41393,7 @@
         <v>24</v>
       </c>
       <c r="G1444" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -41413,7 +41419,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1445" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -41439,7 +41445,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1446" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -41465,7 +41471,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1447" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -41491,7 +41497,7 @@
         <v>24.5</v>
       </c>
       <c r="G1448" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -41517,7 +41523,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1449" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -41543,7 +41549,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1450" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -41569,7 +41575,7 @@
         <v>24.25</v>
       </c>
       <c r="G1451" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -41595,7 +41601,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1452" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -41621,7 +41627,7 @@
         <v>25.1499996185303</v>
       </c>
       <c r="G1453" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -41647,7 +41653,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1454" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -41673,7 +41679,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1455" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -41699,7 +41705,7 @@
         <v>24.5</v>
       </c>
       <c r="G1456" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -41725,7 +41731,7 @@
         <v>24.5</v>
       </c>
       <c r="G1457" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -41751,7 +41757,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1458" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -41777,7 +41783,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G1459" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -41803,7 +41809,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1460" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -41829,7 +41835,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1461" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -41855,7 +41861,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1462" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -41881,7 +41887,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1463" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -41907,7 +41913,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1464" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -41933,7 +41939,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1465" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -41959,7 +41965,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1466" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -41985,7 +41991,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1467" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -42011,7 +42017,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1468" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -42037,7 +42043,7 @@
         <v>23.2000007629395</v>
       </c>
       <c r="G1469" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -42063,7 +42069,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1470" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -42089,7 +42095,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -42115,7 +42121,7 @@
         <v>24</v>
       </c>
       <c r="G1472" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -42141,7 +42147,7 @@
         <v>23.75</v>
       </c>
       <c r="G1473" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -42167,7 +42173,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1474" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -42193,7 +42199,7 @@
         <v>23.5</v>
       </c>
       <c r="G1475" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -42219,7 +42225,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1476" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -42245,7 +42251,7 @@
         <v>23.75</v>
       </c>
       <c r="G1477" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -42271,7 +42277,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1478" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -42297,7 +42303,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1479" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -42323,7 +42329,7 @@
         <v>26</v>
       </c>
       <c r="G1480" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -42349,7 +42355,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1481" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -42375,7 +42381,7 @@
         <v>25.6499996185303</v>
       </c>
       <c r="G1482" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -42401,7 +42407,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G1483" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -42427,7 +42433,7 @@
         <v>25.5499992370605</v>
       </c>
       <c r="G1484" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -42453,7 +42459,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1485" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -42479,7 +42485,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1486" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -42505,7 +42511,7 @@
         <v>25.3500003814697</v>
       </c>
       <c r="G1487" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -42531,7 +42537,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1488" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -42557,7 +42563,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G1489" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -42583,7 +42589,7 @@
         <v>26</v>
       </c>
       <c r="G1490" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -42609,7 +42615,7 @@
         <v>27</v>
       </c>
       <c r="G1491" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -42635,7 +42641,7 @@
         <v>27</v>
       </c>
       <c r="G1492" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -42661,7 +42667,7 @@
         <v>27.8999996185303</v>
       </c>
       <c r="G1493" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -42687,7 +42693,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G1494" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -42713,7 +42719,7 @@
         <v>27.4500007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -42739,7 +42745,7 @@
         <v>27</v>
       </c>
       <c r="G1496" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -42765,7 +42771,7 @@
         <v>26.6000003814697</v>
       </c>
       <c r="G1497" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -42791,7 +42797,7 @@
         <v>26.8999996185303</v>
       </c>
       <c r="G1498" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -42817,7 +42823,7 @@
         <v>26.2000007629395</v>
       </c>
       <c r="G1499" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -42843,7 +42849,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G1500" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -42869,7 +42875,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1501" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -42895,7 +42901,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G1502" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -42921,7 +42927,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1503" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -42947,7 +42953,7 @@
         <v>24.75</v>
       </c>
       <c r="G1504" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -42973,7 +42979,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1505" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -42999,7 +43005,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1506" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -43025,7 +43031,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1507" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -43051,7 +43057,7 @@
         <v>25</v>
       </c>
       <c r="G1508" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -43077,7 +43083,7 @@
         <v>25</v>
       </c>
       <c r="G1509" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -43103,7 +43109,7 @@
         <v>25.2000007629395</v>
       </c>
       <c r="G1510" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -43129,7 +43135,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -43155,7 +43161,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1512" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -43181,7 +43187,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1513" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -43207,7 +43213,7 @@
         <v>24.5</v>
       </c>
       <c r="G1514" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -43233,7 +43239,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G1515" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -43259,7 +43265,7 @@
         <v>24.4500007629395</v>
       </c>
       <c r="G1516" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -43285,7 +43291,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -43311,7 +43317,7 @@
         <v>25.4500007629395</v>
       </c>
       <c r="G1518" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -43337,7 +43343,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G1519" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -43363,7 +43369,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -43389,7 +43395,7 @@
         <v>25</v>
       </c>
       <c r="G1521" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -43415,7 +43421,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G1522" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43441,7 +43447,7 @@
         <v>24.8500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -43467,7 +43473,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1524" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -43493,7 +43499,7 @@
         <v>24.75</v>
       </c>
       <c r="G1525" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43519,7 +43525,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1526" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43545,7 +43551,7 @@
         <v>24.75</v>
       </c>
       <c r="G1527" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43571,7 +43577,7 @@
         <v>24.7999992370605</v>
       </c>
       <c r="G1528" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43597,7 +43603,7 @@
         <v>24.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -43623,7 +43629,7 @@
         <v>24.6499996185303</v>
       </c>
       <c r="G1530" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43649,7 +43655,7 @@
         <v>24.2000007629395</v>
       </c>
       <c r="G1531" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43675,7 +43681,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1532" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -43701,7 +43707,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1533" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43727,7 +43733,7 @@
         <v>24.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -43753,7 +43759,7 @@
         <v>24</v>
       </c>
       <c r="G1535" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -43779,7 +43785,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1536" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -43805,7 +43811,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1537" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -43831,7 +43837,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1538" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -43857,7 +43863,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1539" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43883,7 +43889,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1540" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -43909,7 +43915,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1541" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -43935,7 +43941,7 @@
         <v>23</v>
       </c>
       <c r="G1542" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43961,7 +43967,7 @@
         <v>23</v>
       </c>
       <c r="G1543" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43987,7 +43993,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1544" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -44013,7 +44019,7 @@
         <v>23.6499996185303</v>
       </c>
       <c r="G1545" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -44039,7 +44045,7 @@
         <v>23.8999996185303</v>
       </c>
       <c r="G1546" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -44065,7 +44071,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G1547" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -44091,7 +44097,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G1548" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -44117,7 +44123,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G1549" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -44143,7 +44149,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G1550" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -44169,7 +44175,7 @@
         <v>24.1499996185303</v>
       </c>
       <c r="G1551" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -44195,7 +44201,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1552" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -44221,7 +44227,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1553" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -44247,7 +44253,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1554" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -44273,7 +44279,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1555" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -44299,7 +44305,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1556" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -44325,7 +44331,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1557" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -44351,7 +44357,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G1558" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -44377,7 +44383,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1559" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -44403,7 +44409,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -44429,7 +44435,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1561" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -44455,7 +44461,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1562" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -44481,7 +44487,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44507,7 +44513,7 @@
         <v>22</v>
       </c>
       <c r="G1564" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44533,7 +44539,7 @@
         <v>21.75</v>
       </c>
       <c r="G1565" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44559,7 +44565,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1566" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -44585,7 +44591,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1567" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -44611,7 +44617,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1568" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44637,7 +44643,7 @@
         <v>21.75</v>
       </c>
       <c r="G1569" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44663,7 +44669,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1570" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44689,7 +44695,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1571" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44715,7 +44721,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1572" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44741,7 +44747,7 @@
         <v>21.25</v>
       </c>
       <c r="G1573" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44767,7 +44773,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1574" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44793,7 +44799,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1575" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44819,7 +44825,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1576" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44845,7 +44851,7 @@
         <v>23.5</v>
       </c>
       <c r="G1577" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44871,7 +44877,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1578" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44897,7 +44903,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G1579" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -44923,7 +44929,7 @@
         <v>23</v>
       </c>
       <c r="G1580" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44949,7 +44955,7 @@
         <v>22.75</v>
       </c>
       <c r="G1581" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44975,7 +44981,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1582" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -45001,7 +45007,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1583" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -45027,7 +45033,7 @@
         <v>22.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -45053,7 +45059,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1585" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -45079,7 +45085,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1586" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -45105,7 +45111,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1587" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -45131,7 +45137,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G1588" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -45157,7 +45163,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1589" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -45183,7 +45189,7 @@
         <v>22.25</v>
       </c>
       <c r="G1590" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -45209,7 +45215,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1591" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -45235,7 +45241,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1592" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -45261,7 +45267,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1593" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -45287,7 +45293,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1594" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -45313,7 +45319,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G1595" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -45339,7 +45345,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1596" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -45365,7 +45371,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1597" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -45391,7 +45397,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1598" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -45417,7 +45423,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1599" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -45443,7 +45449,7 @@
         <v>21.75</v>
       </c>
       <c r="G1600" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -45469,7 +45475,7 @@
         <v>22</v>
       </c>
       <c r="G1601" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45495,7 +45501,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1602" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45521,7 +45527,7 @@
         <v>23</v>
       </c>
       <c r="G1603" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45547,7 +45553,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1604" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45573,7 +45579,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1605" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45599,7 +45605,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45625,7 +45631,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1607" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45651,7 +45657,7 @@
         <v>21.75</v>
       </c>
       <c r="G1608" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45677,7 +45683,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1609" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45703,7 +45709,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1610" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45729,7 +45735,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1611" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45755,7 +45761,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1612" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45781,7 +45787,7 @@
         <v>22</v>
       </c>
       <c r="G1613" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45807,7 +45813,7 @@
         <v>21.75</v>
       </c>
       <c r="G1614" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45833,7 +45839,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45859,7 +45865,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G1616" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45885,7 +45891,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G1617" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45911,7 +45917,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1618" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45937,7 +45943,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1619" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45963,7 +45969,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1620" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45989,7 +45995,7 @@
         <v>23.5</v>
       </c>
       <c r="G1621" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -46015,7 +46021,7 @@
         <v>23.25</v>
       </c>
       <c r="G1622" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -46041,7 +46047,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1623" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -46067,7 +46073,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1624" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -46093,7 +46099,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1625" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -46119,7 +46125,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1626" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -46145,7 +46151,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1627" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -46171,7 +46177,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1628" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -46197,7 +46203,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G1629" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -46223,7 +46229,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1630" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -46249,7 +46255,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1631" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -46275,7 +46281,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1632" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -46301,7 +46307,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1633" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -46327,7 +46333,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1634" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -46353,7 +46359,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1635" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -46379,7 +46385,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1636" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -46405,7 +46411,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1637" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -46431,7 +46437,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1638" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -46457,7 +46463,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1639" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46483,7 +46489,7 @@
         <v>21</v>
       </c>
       <c r="G1640" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46509,7 +46515,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G1641" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46535,7 +46541,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1642" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46561,7 +46567,7 @@
         <v>21.5</v>
       </c>
       <c r="G1643" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46587,7 +46593,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1644" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46613,7 +46619,7 @@
         <v>21.75</v>
       </c>
       <c r="G1645" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46639,7 +46645,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1646" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46665,7 +46671,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G1647" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46691,7 +46697,7 @@
         <v>21.25</v>
       </c>
       <c r="G1648" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46717,7 +46723,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1649" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46743,7 +46749,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1650" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46769,7 +46775,7 @@
         <v>21.75</v>
       </c>
       <c r="G1651" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46795,7 +46801,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1652" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46821,7 +46827,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1653" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46847,7 +46853,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1654" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46873,7 +46879,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G1655" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46899,7 +46905,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1656" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46925,7 +46931,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1657" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46951,7 +46957,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1658" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46977,7 +46983,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1659" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -47003,7 +47009,7 @@
         <v>21.75</v>
       </c>
       <c r="G1660" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -47029,7 +47035,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1661" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -47055,7 +47061,7 @@
         <v>21.25</v>
       </c>
       <c r="G1662" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -47081,7 +47087,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1663" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -47107,7 +47113,7 @@
         <v>21.75</v>
       </c>
       <c r="G1664" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -47133,7 +47139,7 @@
         <v>21.75</v>
       </c>
       <c r="G1665" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -47159,7 +47165,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1666" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -47185,7 +47191,7 @@
         <v>21.75</v>
       </c>
       <c r="G1667" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -47211,7 +47217,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1668" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -47237,7 +47243,7 @@
         <v>21.75</v>
       </c>
       <c r="G1669" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -47263,7 +47269,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1670" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -47289,7 +47295,7 @@
         <v>21.75</v>
       </c>
       <c r="G1671" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -47315,7 +47321,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G1672" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -47341,7 +47347,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1673" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -47367,7 +47373,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1674" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -47393,7 +47399,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1675" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -47419,7 +47425,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1676" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -47445,7 +47451,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1677" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -47471,7 +47477,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1678" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47497,7 +47503,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1679" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47523,7 +47529,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1680" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47549,7 +47555,7 @@
         <v>21.8500003814697</v>
       </c>
       <c r="G1681" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47575,7 +47581,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1682" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47601,7 +47607,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1683" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47627,7 +47633,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1684" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47653,7 +47659,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G1685" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47679,7 +47685,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G1686" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47705,7 +47711,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1687" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47731,7 +47737,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47757,7 +47763,7 @@
         <v>21.75</v>
       </c>
       <c r="G1689" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47783,7 +47789,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1690" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47809,7 +47815,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1691" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47835,7 +47841,7 @@
         <v>22.5</v>
       </c>
       <c r="G1692" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47861,7 +47867,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1693" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47887,7 +47893,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1694" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47913,7 +47919,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1695" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47939,7 +47945,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G1696" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47965,7 +47971,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47991,7 +47997,7 @@
         <v>22.8999996185303</v>
       </c>
       <c r="G1698" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -48017,7 +48023,7 @@
         <v>23</v>
       </c>
       <c r="G1699" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -48043,7 +48049,7 @@
         <v>23</v>
       </c>
       <c r="G1700" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -48069,7 +48075,7 @@
         <v>22.25</v>
       </c>
       <c r="G1701" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -48095,7 +48101,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1702" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -48121,7 +48127,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G1703" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -48147,7 +48153,7 @@
         <v>22.5</v>
       </c>
       <c r="G1704" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -48173,7 +48179,7 @@
         <v>22</v>
       </c>
       <c r="G1705" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -48199,7 +48205,7 @@
         <v>21.7000007629395</v>
       </c>
       <c r="G1706" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -48225,7 +48231,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G1707" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -48251,7 +48257,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1708" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -48277,7 +48283,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1709" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -48303,7 +48309,7 @@
         <v>21</v>
       </c>
       <c r="G1710" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -48329,7 +48335,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1711" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -48355,7 +48361,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1712" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -48381,7 +48387,7 @@
         <v>21</v>
       </c>
       <c r="G1713" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -48407,7 +48413,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G1714" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -48433,7 +48439,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G1715" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -48459,7 +48465,7 @@
         <v>20.5</v>
       </c>
       <c r="G1716" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48485,7 +48491,7 @@
         <v>19.6399993896484</v>
       </c>
       <c r="G1717" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48511,7 +48517,7 @@
         <v>20</v>
       </c>
       <c r="G1718" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48537,7 +48543,7 @@
         <v>21.25</v>
       </c>
       <c r="G1719" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48563,7 +48569,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1720" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48589,7 +48595,7 @@
         <v>21</v>
       </c>
       <c r="G1721" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48615,7 +48621,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G1722" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48641,7 +48647,7 @@
         <v>20.75</v>
       </c>
       <c r="G1723" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48667,7 +48673,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1724" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48693,7 +48699,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1725" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48719,7 +48725,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1726" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48745,7 +48751,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1727" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48771,7 +48777,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G1728" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48797,7 +48803,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G1729" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48823,7 +48829,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G1730" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48849,7 +48855,7 @@
         <v>21.25</v>
       </c>
       <c r="G1731" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48875,7 +48881,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1732" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48901,7 +48907,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G1733" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48927,7 +48933,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G1734" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48953,7 +48959,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1735" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48979,7 +48985,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G1736" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -49005,7 +49011,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G1737" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -49031,7 +49037,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G1738" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -49057,7 +49063,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G1739" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -49083,7 +49089,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -49109,7 +49115,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G1741" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -49135,7 +49141,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G1742" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -49161,7 +49167,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G1743" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -49187,7 +49193,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -49213,7 +49219,7 @@
         <v>22.25</v>
       </c>
       <c r="G1745" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -49239,7 +49245,7 @@
         <v>22</v>
       </c>
       <c r="G1746" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -49265,7 +49271,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G1747" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -49291,7 +49297,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1748" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -49317,7 +49323,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1749" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -49343,7 +49349,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1750" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -49369,7 +49375,7 @@
         <v>23.75</v>
       </c>
       <c r="G1751" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -49395,7 +49401,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1752" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -49421,7 +49427,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1753" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -49447,7 +49453,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1754" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -49473,7 +49479,7 @@
         <v>24</v>
       </c>
       <c r="G1755" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49499,7 +49505,7 @@
         <v>23.75</v>
       </c>
       <c r="G1756" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49525,7 +49531,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1757" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49551,7 +49557,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1758" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49577,7 +49583,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G1759" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49603,7 +49609,7 @@
         <v>23</v>
       </c>
       <c r="G1760" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49629,7 +49635,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G1761" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49655,7 +49661,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G1762" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49681,7 +49687,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G1763" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49707,7 +49713,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1764" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49733,7 +49739,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1765" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49759,7 +49765,7 @@
         <v>23.1499996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49785,7 +49791,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G1767" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49811,7 +49817,7 @@
         <v>23.5</v>
       </c>
       <c r="G1768" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49837,7 +49843,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1769" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49863,7 +49869,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1770" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49889,7 +49895,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1771" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49915,7 +49921,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1772" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49941,7 +49947,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1773" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49967,7 +49973,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1774" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49993,7 +49999,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1775" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -50019,7 +50025,7 @@
         <v>23.25</v>
       </c>
       <c r="G1776" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -50045,7 +50051,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1777" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -50071,7 +50077,7 @@
         <v>23.7000007629395</v>
       </c>
       <c r="G1778" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -50097,7 +50103,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -50123,7 +50129,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1780" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -50149,7 +50155,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G1781" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -50175,7 +50181,7 @@
         <v>23.6000003814697</v>
       </c>
       <c r="G1782" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -50201,7 +50207,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G1783" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -50227,7 +50233,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G1784" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -50253,7 +50259,7 @@
         <v>23.7999992370605</v>
       </c>
       <c r="G1785" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -50279,7 +50285,7 @@
         <v>23.75</v>
       </c>
       <c r="G1786" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -50305,7 +50311,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G1787" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -50331,7 +50337,7 @@
         <v>29.3500003814697</v>
       </c>
       <c r="G1788" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -50357,7 +50363,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1789" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -50383,7 +50389,7 @@
         <v>32</v>
       </c>
       <c r="G1790" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -50409,7 +50415,7 @@
         <v>31.7999992370605</v>
       </c>
       <c r="G1791" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -50435,7 +50441,7 @@
         <v>31.75</v>
       </c>
       <c r="G1792" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -50461,7 +50467,7 @@
         <v>31.5</v>
       </c>
       <c r="G1793" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50487,7 +50493,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1794" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50513,7 +50519,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1795" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50539,7 +50545,7 @@
         <v>30.75</v>
       </c>
       <c r="G1796" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50565,7 +50571,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G1797" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50591,7 +50597,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G1798" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50617,7 +50623,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1799" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50643,7 +50649,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1800" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50669,7 +50675,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1801" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50695,7 +50701,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1802" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50721,7 +50727,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1803" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50747,7 +50753,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1804" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50773,7 +50779,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1805" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50799,7 +50805,7 @@
         <v>32.3499984741211</v>
       </c>
       <c r="G1806" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50825,7 +50831,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1807" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50851,7 +50857,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G1808" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50877,7 +50883,7 @@
         <v>33.25</v>
       </c>
       <c r="G1809" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50903,7 +50909,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G1810" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50929,7 +50935,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1811" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50955,7 +50961,7 @@
         <v>32</v>
       </c>
       <c r="G1812" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50981,7 +50987,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G1813" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -51007,7 +51013,7 @@
         <v>33</v>
       </c>
       <c r="G1814" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -51033,7 +51039,7 @@
         <v>33.5</v>
       </c>
       <c r="G1815" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -51059,7 +51065,7 @@
         <v>33.4000015258789</v>
       </c>
       <c r="G1816" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -51085,7 +51091,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1817" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -51111,7 +51117,7 @@
         <v>33.1500015258789</v>
       </c>
       <c r="G1818" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -51137,7 +51143,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G1819" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -51163,7 +51169,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G1820" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -51189,7 +51195,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G1821" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -51215,7 +51221,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G1822" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -51241,7 +51247,7 @@
         <v>32.7999992370605</v>
       </c>
       <c r="G1823" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -51267,7 +51273,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G1824" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -51293,7 +51299,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G1825" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -51319,7 +51325,7 @@
         <v>33.3499984741211</v>
       </c>
       <c r="G1826" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -51345,7 +51351,7 @@
         <v>33.0999984741211</v>
       </c>
       <c r="G1827" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -51371,7 +51377,7 @@
         <v>33.5999984741211</v>
       </c>
       <c r="G1828" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -51397,7 +51403,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1829" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -51423,7 +51429,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1830" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -51449,7 +51455,7 @@
         <v>31.9500007629395</v>
       </c>
       <c r="G1831" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -51475,7 +51481,7 @@
         <v>32</v>
       </c>
       <c r="G1832" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51501,7 +51507,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51527,7 +51533,7 @@
         <v>32</v>
       </c>
       <c r="G1834" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51553,7 +51559,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G1835" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51579,7 +51585,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G1836" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51605,7 +51611,7 @@
         <v>31.8999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51631,7 +51637,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G1838" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51657,7 +51663,7 @@
         <v>32.25</v>
       </c>
       <c r="G1839" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51683,7 +51689,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G1840" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51709,7 +51715,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G1841" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51735,7 +51741,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G1842" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51761,7 +51767,7 @@
         <v>31.7000007629395</v>
       </c>
       <c r="G1843" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51787,7 +51793,7 @@
         <v>31.8500003814697</v>
       </c>
       <c r="G1844" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51813,7 +51819,7 @@
         <v>32.4000015258789</v>
       </c>
       <c r="G1845" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51839,7 +51845,7 @@
         <v>32.3499984741211</v>
       </c>
       <c r="G1846" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51865,7 +51871,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1847" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51891,7 +51897,7 @@
         <v>29.5499992370605</v>
       </c>
       <c r="G1848" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51917,7 +51923,7 @@
         <v>29.5</v>
       </c>
       <c r="G1849" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51943,7 +51949,7 @@
         <v>29.2000007629395</v>
       </c>
       <c r="G1850" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51969,7 +51975,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1851" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51995,7 +52001,7 @@
         <v>29.5</v>
       </c>
       <c r="G1852" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -52021,7 +52027,7 @@
         <v>29.25</v>
       </c>
       <c r="G1853" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -52047,7 +52053,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G1854" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -52073,7 +52079,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G1855" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -52099,7 +52105,7 @@
         <v>28.9500007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -52125,7 +52131,7 @@
         <v>29</v>
       </c>
       <c r="G1857" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -52151,7 +52157,7 @@
         <v>29.0499992370605</v>
       </c>
       <c r="G1858" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -52177,7 +52183,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G1859" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -52203,7 +52209,7 @@
         <v>29.6000003814697</v>
       </c>
       <c r="G1860" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -52229,7 +52235,7 @@
         <v>29.6499996185303</v>
       </c>
       <c r="G1861" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -52255,7 +52261,7 @@
         <v>29.25</v>
       </c>
       <c r="G1862" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -52281,7 +52287,7 @@
         <v>29.25</v>
       </c>
       <c r="G1863" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -52307,7 +52313,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -52333,7 +52339,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1865" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -52359,7 +52365,7 @@
         <v>28.6000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -52385,7 +52391,7 @@
         <v>28.1000003814697</v>
       </c>
       <c r="G1867" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -52411,7 +52417,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1868" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -52437,7 +52443,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1869" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -52463,7 +52469,7 @@
         <v>28.25</v>
       </c>
       <c r="G1870" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52489,7 +52495,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1871" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52515,7 +52521,7 @@
         <v>28.7999992370605</v>
       </c>
       <c r="G1872" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52541,7 +52547,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1873" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52567,7 +52573,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1874" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52593,7 +52599,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1875" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52619,7 +52625,7 @@
         <v>28</v>
       </c>
       <c r="G1876" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52671,7 +52677,7 @@
         <v>28</v>
       </c>
       <c r="G1878" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52723,7 +52729,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1880" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52905,7 +52911,7 @@
         <v>28</v>
       </c>
       <c r="G1887" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52983,7 +52989,7 @@
         <v>28</v>
       </c>
       <c r="G1890" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -53009,7 +53015,7 @@
         <v>28.25</v>
       </c>
       <c r="G1891" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -53061,7 +53067,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1893" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -53113,7 +53119,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1895" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -53425,7 +53431,7 @@
         <v>28.25</v>
       </c>
       <c r="G1907" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -53451,7 +53457,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1908" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -53529,7 +53535,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1911" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53581,7 +53587,7 @@
         <v>28</v>
       </c>
       <c r="G1913" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53685,7 +53691,7 @@
         <v>28</v>
       </c>
       <c r="G1917" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53763,7 +53769,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1920" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53815,7 +53821,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1922" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53893,7 +53899,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1925" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53919,7 +53925,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53945,7 +53951,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53971,7 +53977,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1928" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53997,7 +54003,7 @@
         <v>28.4500007629395</v>
       </c>
       <c r="G1929" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -54049,7 +54055,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1931" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -54075,7 +54081,7 @@
         <v>28.5499992370605</v>
       </c>
       <c r="G1932" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -54127,7 +54133,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1934" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -54153,7 +54159,7 @@
         <v>28.3999996185303</v>
       </c>
       <c r="G1935" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -54335,7 +54341,7 @@
         <v>28.7000007629395</v>
       </c>
       <c r="G1942" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -59699,27 +59705,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6496296296</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>92005</v>
+        <v>180483</v>
       </c>
       <c r="C2149" t="n">
-        <v>27.7000007629395</v>
+        <v>27.75</v>
       </c>
       <c r="D2149" t="n">
-        <v>27.6000003814697</v>
+        <v>27.5499992370605</v>
       </c>
       <c r="E2149" t="n">
         <v>27.7000007629395</v>
       </c>
       <c r="F2149" t="n">
-        <v>27.6000003814697</v>
+        <v>27.5499992370605</v>
       </c>
       <c r="G2149" t="s">
         <v>1165</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>92005</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>27.7000007629395</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>27.6000003814697</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>27.7000007629395</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>27.6000003814697</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6494675926</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>67905</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>27.6499996185303</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>27.6499996185303</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>27.6499996185303</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SG.MI.xlsx
+++ b/data/SG.MI.xlsx
@@ -44,28 +44,28 @@
     <t xml:space="preserve">SG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58355712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61073732376099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32805347442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9801344871521</t>
+    <t xml:space="preserve">7.58355569839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61073780059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32805299758911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98013401031494</t>
   </si>
   <si>
     <t xml:space="preserve">6.92577171325684</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01275205612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15409326553345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87684535980225</t>
+    <t xml:space="preserve">7.01275110244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15409278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87684440612793</t>
   </si>
   <si>
     <t xml:space="preserve">6.38214683532715</t>
@@ -74,22 +74,22 @@
     <t xml:space="preserve">5.95812082290649</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53436183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32234859466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74093914031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91489934921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99100637435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85510015487671</t>
+    <t xml:space="preserve">6.53436231613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32234811782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74093961715698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91489887237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99100494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85510063171387</t>
   </si>
   <si>
     <t xml:space="preserve">6.64852285385132</t>
@@ -101,22 +101,22 @@
     <t xml:space="preserve">6.89859008789062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75724792480469</t>
+    <t xml:space="preserve">6.75724840164185</t>
   </si>
   <si>
     <t xml:space="preserve">6.52348947525024</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25167798995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10489940643311</t>
+    <t xml:space="preserve">6.2516770362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10489892959595</t>
   </si>
   <si>
     <t xml:space="preserve">5.15355634689331</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19432878494263</t>
+    <t xml:space="preserve">5.19432830810547</t>
   </si>
   <si>
     <t xml:space="preserve">5.27315330505371</t>
@@ -125,25 +125,25 @@
     <t xml:space="preserve">4.92523431777954</t>
   </si>
   <si>
-    <t xml:space="preserve">5.02580499649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13724803924561</t>
+    <t xml:space="preserve">5.02580451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13724851608276</t>
   </si>
   <si>
     <t xml:space="preserve">5.0448317527771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01221513748169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.88446283340454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64825534820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47429513931274</t>
+    <t xml:space="preserve">5.01221466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.88446235656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64825487136841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47429466247559</t>
   </si>
   <si>
     <t xml:space="preserve">5.52322101593018</t>
@@ -152,19 +152,19 @@
     <t xml:space="preserve">5.45798635482788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56670999526978</t>
+    <t xml:space="preserve">5.56671047210693</t>
   </si>
   <si>
     <t xml:space="preserve">5.83308601379395</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19731521606445</t>
+    <t xml:space="preserve">6.19731426239014</t>
   </si>
   <si>
     <t xml:space="preserve">5.99617433547974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87114095687866</t>
+    <t xml:space="preserve">5.8711404800415</t>
   </si>
   <si>
     <t xml:space="preserve">5.84395933151245</t>
@@ -182,79 +182,79 @@
     <t xml:space="preserve">5.63194513320923</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80590629577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42020130157471</t>
+    <t xml:space="preserve">5.80590581893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42020177841187</t>
   </si>
   <si>
     <t xml:space="preserve">6.41476440429688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46369171142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31147480010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11577129364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36040210723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38758373260498</t>
+    <t xml:space="preserve">6.46369123458862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31147575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11577081680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36040258407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38758277893066</t>
   </si>
   <si>
     <t xml:space="preserve">6.45281791687012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34409427642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30060434341431</t>
+    <t xml:space="preserve">6.34409379959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30060482025146</t>
   </si>
   <si>
     <t xml:space="preserve">6.132080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0124831199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68087244033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07771778106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01792001724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83852291107178</t>
+    <t xml:space="preserve">6.01248264312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68087196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07771730422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01791906356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83852243423462</t>
   </si>
   <si>
     <t xml:space="preserve">6.00161027908325</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9907374382019</t>
+    <t xml:space="preserve">5.99073839187622</t>
   </si>
   <si>
     <t xml:space="preserve">5.71892595291138</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68630790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5775842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82765054702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77872371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82221364974976</t>
+    <t xml:space="preserve">5.68630838394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57758378982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82765102386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.778724193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82221412658691</t>
   </si>
   <si>
     <t xml:space="preserve">5.91239404678345</t>
@@ -263,121 +263,121 @@
     <t xml:space="preserve">5.70949029922485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72076320648193</t>
+    <t xml:space="preserve">5.72076177597046</t>
   </si>
   <si>
     <t xml:space="preserve">5.63058233261108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7602162361145</t>
+    <t xml:space="preserve">5.76021575927734</t>
   </si>
   <si>
     <t xml:space="preserve">5.81657838821411</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00820970535278</t>
+    <t xml:space="preserve">6.00820922851562</t>
   </si>
   <si>
     <t xml:space="preserve">5.9631199836731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13220739364624</t>
+    <t xml:space="preserve">6.13220596313477</t>
   </si>
   <si>
     <t xml:space="preserve">6.07584381103516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97439289093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9462103843689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77712440490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69258069992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83348703384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1152982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1265697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2280216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61128520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71837425231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60001230239868</t>
+    <t xml:space="preserve">5.97439336776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94621133804321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77712488174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69258213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83348751068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11529874801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12657022476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22802305221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6112847328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71837329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60001373291016</t>
   </si>
   <si>
     <t xml:space="preserve">6.59437656402588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42528963088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43656349182129</t>
+    <t xml:space="preserve">6.42528915405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43656253814697</t>
   </si>
   <si>
     <t xml:space="preserve">6.52110624313354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56619596481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62255811691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4534707069397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25620412826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1998405456543</t>
+    <t xml:space="preserve">6.56619548797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62255668640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45347166061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25620365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19984102249146</t>
   </si>
   <si>
     <t xml:space="preserve">6.27311229705811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50419664382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57746887207031</t>
+    <t xml:space="preserve">6.50419569015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.577467918396</t>
   </si>
   <si>
     <t xml:space="preserve">6.55492258071899</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63946580886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17166042327881</t>
+    <t xml:space="preserve">6.63946628570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17165994644165</t>
   </si>
   <si>
     <t xml:space="preserve">6.33511018753052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31256580352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3576545715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45910739898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48728847503662</t>
+    <t xml:space="preserve">6.31256484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35765504837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4591064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48728895187378</t>
   </si>
   <si>
     <t xml:space="preserve">6.67891979217529</t>
@@ -386,58 +386,58 @@
     <t xml:space="preserve">6.69019174575806</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75219011306763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12981796264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98327589035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93255043029785</t>
+    <t xml:space="preserve">6.75219058990479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12981653213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98327541351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93254947662354</t>
   </si>
   <si>
     <t xml:space="preserve">7.07345533370972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27635955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21436071395874</t>
+    <t xml:space="preserve">7.27635860443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2143611907959</t>
   </si>
   <si>
     <t xml:space="preserve">7.1185450553894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06781911849976</t>
+    <t xml:space="preserve">7.06781959533691</t>
   </si>
   <si>
     <t xml:space="preserve">7.06218242645264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14109039306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01145601272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71273708343506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76346349716187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72964572906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87055110931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92691326141357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10163545608521</t>
+    <t xml:space="preserve">7.14108896255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01145696640015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7127366065979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76346302032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7296462059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87055015563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92691230773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10163593292236</t>
   </si>
   <si>
     <t xml:space="preserve">7.05654716491699</t>
@@ -449,64 +449,64 @@
     <t xml:space="preserve">7.04527425765991</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01709270477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94945859909058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96636581420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85364198684692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14672613143921</t>
+    <t xml:space="preserve">7.01709318161011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94945812225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9663667678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85364294052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14672660827637</t>
   </si>
   <si>
     <t xml:space="preserve">7.20308780670166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23126888275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34399271011353</t>
+    <t xml:space="preserve">7.23126983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34399461746216</t>
   </si>
   <si>
     <t xml:space="preserve">7.51307964324951</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49617147445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41162824630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42853736877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48489999771118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40599298477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32708549499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45108127593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28763151168823</t>
+    <t xml:space="preserve">7.49617195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41162776947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42853689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48489856719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40599155426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32708501815796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45108222961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28763198852539</t>
   </si>
   <si>
     <t xml:space="preserve">7.30453968048096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4736270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37781143188477</t>
+    <t xml:space="preserve">7.47362661361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37781095504761</t>
   </si>
   <si>
     <t xml:space="preserve">7.23690557479858</t>
@@ -518,106 +518,106 @@
     <t xml:space="preserve">7.12418127059937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2256326675415</t>
+    <t xml:space="preserve">7.22563362121582</t>
   </si>
   <si>
     <t xml:space="preserve">7.1918158531189</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21999740600586</t>
+    <t xml:space="preserve">7.2199969291687</t>
   </si>
   <si>
     <t xml:space="preserve">7.25945043563843</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29890441894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18617916107178</t>
+    <t xml:space="preserve">7.29890394210815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18618011474609</t>
   </si>
   <si>
     <t xml:space="preserve">7.0903639793396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09600019454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08472728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03963756561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14347887039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44783401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58310413360596</t>
+    <t xml:space="preserve">7.09599924087524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08472633361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03963708877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.143479347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44783449172974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5831036567688</t>
   </si>
   <si>
     <t xml:space="preserve">6.63383007049561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38583564758301</t>
+    <t xml:space="preserve">6.38583612442017</t>
   </si>
   <si>
     <t xml:space="preserve">6.08711671829224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92366695404053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10966205596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92930364608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02511882781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05329895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90112113952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80530595779419</t>
+    <t xml:space="preserve">5.92366600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1096625328064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92930269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02511739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05329847335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90112209320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7320351600647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80530643463135</t>
   </si>
   <si>
     <t xml:space="preserve">5.91803026199341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21674966812134</t>
+    <t xml:space="preserve">6.2167501449585</t>
   </si>
   <si>
     <t xml:space="preserve">6.32947397232056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26747560501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30129289627075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41401815414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7071008682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87618780136108</t>
+    <t xml:space="preserve">6.26747608184814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30129241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41401720046997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70710134506226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87618732452393</t>
   </si>
   <si>
     <t xml:space="preserve">6.77473592758179</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6281943321228</t>
+    <t xml:space="preserve">6.62819385528564</t>
   </si>
   <si>
     <t xml:space="preserve">6.81982517242432</t>
@@ -626,25 +626,25 @@
     <t xml:space="preserve">6.78037166595459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72400999069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84800672531128</t>
+    <t xml:space="preserve">6.72400951385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84800624847412</t>
   </si>
   <si>
     <t xml:space="preserve">6.84237051010132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91000461578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70146417617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6845555305481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65073776245117</t>
+    <t xml:space="preserve">6.91000556945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70146512985229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68455600738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65073823928833</t>
   </si>
   <si>
     <t xml:space="preserve">6.6056489944458</t>
@@ -653,40 +653,40 @@
     <t xml:space="preserve">6.50983285903931</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51547002792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57183218002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39710807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36892795562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44219923019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47037982940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52674150466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53237819671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58873891830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66201114654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80291604995728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83673429489136</t>
+    <t xml:space="preserve">6.51546907424927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57183122634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710855484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36892747879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44219970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47037887573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52674198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53237915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58874082565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66201019287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80291652679443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83673334121704</t>
   </si>
   <si>
     <t xml:space="preserve">7.26508712768555</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">7.47926378250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62580537796021</t>
+    <t xml:space="preserve">7.62580394744873</t>
   </si>
   <si>
     <t xml:space="preserve">7.66525793075562</t>
@@ -707,22 +707,22 @@
     <t xml:space="preserve">8.17251777648926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26833438873291</t>
+    <t xml:space="preserve">8.26833343505859</t>
   </si>
   <si>
     <t xml:space="preserve">8.00343132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9301609992981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98652267456055</t>
+    <t xml:space="preserve">7.93016052246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98652219772339</t>
   </si>
   <si>
     <t xml:space="preserve">8.03161239624023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08797454833984</t>
+    <t xml:space="preserve">8.08797550201416</t>
   </si>
   <si>
     <t xml:space="preserve">8.4543285369873</t>
@@ -740,34 +740,34 @@
     <t xml:space="preserve">9.06303977966309</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37866878509521</t>
+    <t xml:space="preserve">9.37867069244385</t>
   </si>
   <si>
     <t xml:space="preserve">9.50266647338867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68866157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61539077758789</t>
+    <t xml:space="preserve">9.68866062164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61538982391357</t>
   </si>
   <si>
     <t xml:space="preserve">9.92538261413574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91974639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75065803527832</t>
+    <t xml:space="preserve">9.91974544525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75065898895264</t>
   </si>
   <si>
     <t xml:space="preserve">9.63793468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40121459960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29976272583008</t>
+    <t xml:space="preserve">9.40121364593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29976081848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.35048770904541</t>
@@ -779,22 +779,22 @@
     <t xml:space="preserve">9.46884727478027</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41812133789062</t>
+    <t xml:space="preserve">9.41812229156494</t>
   </si>
   <si>
     <t xml:space="preserve">9.29412460327148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38430595397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27158164978027</t>
+    <t xml:space="preserve">9.38430404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27158069610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.10249328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13067626953125</t>
+    <t xml:space="preserve">9.13067531585693</t>
   </si>
   <si>
     <t xml:space="preserve">9.51393699645996</t>
@@ -803,147 +803,150 @@
     <t xml:space="preserve">9.31667137145996</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73375034332275</t>
+    <t xml:space="preserve">9.73375129699707</t>
   </si>
   <si>
     <t xml:space="preserve">9.93665409088135</t>
   </si>
   <si>
+    <t xml:space="preserve">10.1170129776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.436803817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7856664657593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6519355773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5647201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4658756256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6344938278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7275228500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8147392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0763854980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8554391860962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6054220199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6228637695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8321809768677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9891700744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1926736831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2508172988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0473117828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.024055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0066118240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5589780807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3031454086304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1287136077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8728828430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1403427124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6751947402954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9484691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9077672958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4484329223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4891338348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.57053565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5589065551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9310255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4775047302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.58216381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4077320098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623729705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1693420410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0007266998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3263311386108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98909759521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88443851470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0297975540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94839668273926</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1170139312744</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4368047714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7856664657593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6519346237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5647201538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4658756256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6344947814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7275228500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8147373199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0763854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8554382324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6054201126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6228656768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.832181930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9891691207886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1926727294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2508163452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1635999679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0473136901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.024055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0066137313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5589780807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3031454086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1287145614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8728828430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1403436660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6751947402954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9484691619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9077682495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4484329223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4891338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5705347061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5589065551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9310274124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4775047302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.58216381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.407732963562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623720169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1693429946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0007276535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3263311386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98909759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88443851470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0297985076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94839763641357</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.012354850769</t>
   </si>
   <si>
@@ -953,22 +956,22 @@
     <t xml:space="preserve">10.4542465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3902883529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1751565933228</t>
+    <t xml:space="preserve">10.3902893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1751585006714</t>
   </si>
   <si>
     <t xml:space="preserve">10.2274856567383</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2333011627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1925992965698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3554019927979</t>
+    <t xml:space="preserve">10.2333002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1926002502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3554029464722</t>
   </si>
   <si>
     <t xml:space="preserve">10.1809711456299</t>
@@ -977,19 +980,19 @@
     <t xml:space="preserve">10.3030738830566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1460857391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3088874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344585418701</t>
+    <t xml:space="preserve">10.1460847854614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3088865280151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344575881958</t>
   </si>
   <si>
     <t xml:space="preserve">10.099570274353</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99491214752197</t>
+    <t xml:space="preserve">9.99491119384766</t>
   </si>
   <si>
     <t xml:space="preserve">10.5472784042358</t>
@@ -1007,25 +1010,25 @@
     <t xml:space="preserve">10.4251775741577</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5065765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5240201950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.553092956543</t>
+    <t xml:space="preserve">10.5065774917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5240211486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5530910491943</t>
   </si>
   <si>
     <t xml:space="preserve">10.6112356185913</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6810073852539</t>
+    <t xml:space="preserve">10.6810083389282</t>
   </si>
   <si>
     <t xml:space="preserve">11.1345300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5996799468994</t>
+    <t xml:space="preserve">11.5996780395508</t>
   </si>
   <si>
     <t xml:space="preserve">11.582236289978</t>
@@ -1034,76 +1037,76 @@
     <t xml:space="preserve">11.6868953704834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3555459976196</t>
+    <t xml:space="preserve">12.3555488586426</t>
   </si>
   <si>
     <t xml:space="preserve">12.4253215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4485778808594</t>
+    <t xml:space="preserve">12.4485769271851</t>
   </si>
   <si>
     <t xml:space="preserve">12.902099609375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8090686798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.123046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1637477874756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2858476638794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4544649124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8789157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3905801773071</t>
+    <t xml:space="preserve">12.8090696334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1230459213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.163745880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2858486175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4544658660889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8789148330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3905782699585</t>
   </si>
   <si>
     <t xml:space="preserve">14.4022083282471</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5359373092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0301599502563</t>
+    <t xml:space="preserve">14.5359392166138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.030161857605</t>
   </si>
   <si>
     <t xml:space="preserve">15.5534534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4080944061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4487953186035</t>
+    <t xml:space="preserve">15.4080953598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4487962722778</t>
   </si>
   <si>
     <t xml:space="preserve">16.1058197021484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6988134384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9023170471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.675555229187</t>
+    <t xml:space="preserve">15.6988153457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9023160934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6755561828613</t>
   </si>
   <si>
     <t xml:space="preserve">15.2918062210083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5825262069702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5592699050903</t>
+    <t xml:space="preserve">15.5825252532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5592679977417</t>
   </si>
   <si>
     <t xml:space="preserve">15.7395143508911</t>
@@ -1112,19 +1115,19 @@
     <t xml:space="preserve">15.6290407180786</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6813697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3092517852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2045917510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1638917922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3150663375854</t>
+    <t xml:space="preserve">15.6813678741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.309250831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2045927047729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1638898849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3150644302368</t>
   </si>
   <si>
     <t xml:space="preserve">15.1522626876831</t>
@@ -1133,49 +1136,49 @@
     <t xml:space="preserve">15.4778680801392</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3673944473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4139080047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4720544815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3906507492065</t>
+    <t xml:space="preserve">15.367395401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4139099121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.472053527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3906526565552</t>
   </si>
   <si>
     <t xml:space="preserve">15.1755199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1580038070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4661655426025</t>
+    <t xml:space="preserve">14.1580047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4661674499512</t>
   </si>
   <si>
     <t xml:space="preserve">14.0126447677612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2742929458618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0591611862183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7685136795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9836444854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1173753738403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0941181182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9720163345337</t>
+    <t xml:space="preserve">14.2742910385132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0591602325439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7685146331787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9836463928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1173763275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0941162109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9720153808594</t>
   </si>
   <si>
     <t xml:space="preserve">14.5068683624268</t>
@@ -1184,13 +1187,13 @@
     <t xml:space="preserve">14.4080228805542</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4603519439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3033647537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1870765686035</t>
+    <t xml:space="preserve">14.4603509902954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3033638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1870756149292</t>
   </si>
   <si>
     <t xml:space="preserve">14.239405632019</t>
@@ -1205,82 +1208,82 @@
     <t xml:space="preserve">14.4429092407227</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6173400878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4138383865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.309178352356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3382501602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4312801361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2684774398804</t>
+    <t xml:space="preserve">14.6173391342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4138374328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3091793060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3382511138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4312791824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2684783935547</t>
   </si>
   <si>
     <t xml:space="preserve">13.97194480896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8905410766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8091421127319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0242748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8672847747803</t>
+    <t xml:space="preserve">13.8905439376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8091411590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0242729187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8672857284546</t>
   </si>
   <si>
     <t xml:space="preserve">14.3731355667114</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3615064620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5940847396851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6697425842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7860288619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8151016235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7569570541382</t>
+    <t xml:space="preserve">14.3615083694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5940837860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6697435379028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7860307693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8151006698608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7569580078125</t>
   </si>
   <si>
     <t xml:space="preserve">15.6115980148315</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4371671676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3790245056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1464471817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.059232711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2627353668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8847999572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0883054733276</t>
+    <t xml:space="preserve">15.4371643066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3790235519409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1464490890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0592317581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.262734413147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8848009109497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.088306427002</t>
   </si>
   <si>
     <t xml:space="preserve">14.9429445266724</t>
@@ -1289,43 +1292,43 @@
     <t xml:space="preserve">14.6812982559204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6637830734253</t>
+    <t xml:space="preserve">13.663782119751</t>
   </si>
   <si>
     <t xml:space="preserve">13.5765676498413</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9545001983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6928539276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1986331939697</t>
+    <t xml:space="preserve">13.9545021057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.692852973938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1986312866211</t>
   </si>
   <si>
     <t xml:space="preserve">13.51842212677</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6347093582153</t>
+    <t xml:space="preserve">13.634711265564</t>
   </si>
   <si>
     <t xml:space="preserve">13.2277050018311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1404886245728</t>
+    <t xml:space="preserve">13.1404876708984</t>
   </si>
   <si>
     <t xml:space="preserve">13.2567749023438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9369850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1114158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5881233215332</t>
+    <t xml:space="preserve">12.9369859695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1114168167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5881214141846</t>
   </si>
   <si>
     <t xml:space="preserve">12.2101879119873</t>
@@ -1346,118 +1349,118 @@
     <t xml:space="preserve">13.6056385040283</t>
   </si>
   <si>
-    <t xml:space="preserve">13.54749584198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7334833145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9660568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0532741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9079141616821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8788414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8206987380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8497686386108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1695604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0823450088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7625541687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4312057495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4358034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458299636841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2558574676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.165885925293</t>
+    <t xml:space="preserve">13.5474948883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7334823608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9660577774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0532732009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9079160690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8788404464722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8206968307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8497714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0823440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625551223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4312076568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4358015060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3458280563354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2558584213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1658868789673</t>
   </si>
   <si>
     <t xml:space="preserve">13.0759134292603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1358957290649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9859418869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0459222793579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1958751678467</t>
+    <t xml:space="preserve">13.1358966827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9859409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0459232330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.195876121521</t>
   </si>
   <si>
     <t xml:space="preserve">13.4058113098145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8359889984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3561391830444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.176194190979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9482660293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5060911178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4161195755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.744330406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5164022445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7323322296143</t>
+    <t xml:space="preserve">12.8359880447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3561401367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1761960983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9482669830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5060939788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4161214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7443294525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5164012908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7323341369629</t>
   </si>
   <si>
     <t xml:space="preserve">11.6483602523804</t>
   </si>
   <si>
-    <t xml:space="preserve">12.266167640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9962501525879</t>
+    <t xml:space="preserve">12.2661685943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9962511062622</t>
   </si>
   <si>
     <t xml:space="preserve">11.9362697601318</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5960626602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3655109405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0656032562256</t>
+    <t xml:space="preserve">12.5960645675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3655118942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0656042098999</t>
   </si>
   <si>
     <t xml:space="preserve">13.6757259368896</t>
@@ -1466,19 +1469,19 @@
     <t xml:space="preserve">13.7656984329224</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9756336212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6157445907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7057161331177</t>
+    <t xml:space="preserve">13.9756317138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6157455444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7057180404663</t>
   </si>
   <si>
     <t xml:space="preserve">13.3158397674561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3758192062378</t>
+    <t xml:space="preserve">13.3758211135864</t>
   </si>
   <si>
     <t xml:space="preserve">12.7160263061523</t>
@@ -1487,16 +1490,16 @@
     <t xml:space="preserve">12.9259605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">12.68603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7460165023804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4761009216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5660743713379</t>
+    <t xml:space="preserve">12.6860361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7460174560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4761018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5660734176636</t>
   </si>
   <si>
     <t xml:space="preserve">12.5360832214355</t>
@@ -1505,67 +1508,67 @@
     <t xml:space="preserve">12.8959703445435</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7760066986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.656044960022</t>
+    <t xml:space="preserve">12.7760076522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6560459136963</t>
   </si>
   <si>
     <t xml:space="preserve">12.6260547637939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3261470794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2961568832397</t>
+    <t xml:space="preserve">12.3261461257935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2961578369141</t>
   </si>
   <si>
     <t xml:space="preserve">12.8059978485107</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9559516906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4461107254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3861293792725</t>
+    <t xml:space="preserve">12.9559507369995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4461116790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3861303329468</t>
   </si>
   <si>
     <t xml:space="preserve">12.8659801483154</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1162137985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9842529296875</t>
+    <t xml:space="preserve">12.1162157058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9842557907104</t>
   </si>
   <si>
     <t xml:space="preserve">11.9722585678101</t>
   </si>
   <si>
-    <t xml:space="preserve">11.108528137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.372444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7966251373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6166820526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6046857833862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5926895141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7246465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5327091217041</t>
+    <t xml:space="preserve">11.1085300445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3724460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7966241836548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6166830062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6046867370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5926885604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.724648475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5327081680298</t>
   </si>
   <si>
     <t xml:space="preserve">10.4847230911255</t>
@@ -1580,55 +1583,55 @@
     <t xml:space="preserve">10.3767557144165</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3647623062134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7366456985474</t>
+    <t xml:space="preserve">10.3647613525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.736644744873</t>
   </si>
   <si>
     <t xml:space="preserve">10.892596244812</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9285840988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0845355987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3244609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2524833679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2884712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4684171676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6243677139282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4084358215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603555679321</t>
+    <t xml:space="preserve">10.9285850524902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0845365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3244619369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2524824142456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2884721755981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4684162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6243667602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4084348678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603565216064</t>
   </si>
   <si>
     <t xml:space="preserve">11.54039478302</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4204320907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.156512260437</t>
+    <t xml:space="preserve">11.420431137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1565141677856</t>
   </si>
   <si>
     <t xml:space="preserve">10.6766624450684</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8446130752563</t>
+    <t xml:space="preserve">10.8446111679077</t>
   </si>
   <si>
     <t xml:space="preserve">11.3604497909546</t>
@@ -1637,67 +1640,67 @@
     <t xml:space="preserve">11.3484535217285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1685094833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2044992446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3964395523071</t>
+    <t xml:space="preserve">11.168511390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2044982910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3964376449585</t>
   </si>
   <si>
     <t xml:space="preserve">11.3844432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3124656677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2764768600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3364582061768</t>
+    <t xml:space="preserve">11.3124647140503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2764749526978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3364572525024</t>
   </si>
   <si>
     <t xml:space="preserve">11.1325197219849</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9645738601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6526718139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4607305526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9045925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8686037063599</t>
+    <t xml:space="preserve">10.9645748138428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6526699066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4607315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9045934677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8686046600342</t>
   </si>
   <si>
     <t xml:space="preserve">11.0725393295288</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3004684448242</t>
+    <t xml:space="preserve">11.3004693984985</t>
   </si>
   <si>
     <t xml:space="preserve">11.2644805908203</t>
   </si>
   <si>
-    <t xml:space="preserve">11.480411529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.68434715271</t>
+    <t xml:space="preserve">11.4804124832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6843481063843</t>
   </si>
   <si>
     <t xml:space="preserve">11.7203378677368</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7683229446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9242734909058</t>
+    <t xml:space="preserve">11.7683238983154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9242725372314</t>
   </si>
   <si>
     <t xml:space="preserve">12.0562324523926</t>
@@ -1712,13 +1715,13 @@
     <t xml:space="preserve">12.146203994751</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4657936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4957828521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2258682250977</t>
+    <t xml:space="preserve">13.4657926559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4957818984985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.225866317749</t>
   </si>
   <si>
     <t xml:space="preserve">13.3148641586304</t>
@@ -1727,7 +1730,7 @@
     <t xml:space="preserve">13.3767938613892</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4077587127686</t>
+    <t xml:space="preserve">13.4077577590942</t>
   </si>
   <si>
     <t xml:space="preserve">13.1910047531128</t>
@@ -1748,85 +1751,82 @@
     <t xml:space="preserve">13.62451171875</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7793350219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6864442825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9123210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4478492736816</t>
+    <t xml:space="preserve">13.779335975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6864423751831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9123229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.447850227356</t>
   </si>
   <si>
     <t xml:space="preserve">12.6336393356323</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4168844223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.37353515625</t>
+    <t xml:space="preserve">12.4168834686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3735342025757</t>
   </si>
   <si>
     <t xml:space="preserve">12.7574977874756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5407447814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5717077255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8194284439087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6955690383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7265310287476</t>
+    <t xml:space="preserve">12.5407438278198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5717096328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8194265365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6955671310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7265329360962</t>
   </si>
   <si>
     <t xml:space="preserve">12.788462638855</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6646041870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8813562393188</t>
+    <t xml:space="preserve">12.664605140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8813581466675</t>
   </si>
   <si>
     <t xml:space="preserve">12.6026725769043</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0361814498901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2529335021973</t>
+    <t xml:space="preserve">13.0361795425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2529344558716</t>
   </si>
   <si>
     <t xml:space="preserve">13.0981101989746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2839012145996</t>
+    <t xml:space="preserve">13.2839002609253</t>
   </si>
   <si>
     <t xml:space="preserve">13.1600408554077</t>
   </si>
   <si>
-    <t xml:space="preserve">12.943286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0052165985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3458290100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7483720779419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9341583251953</t>
+    <t xml:space="preserve">12.9432859420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0052156448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7483730316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9341592788696</t>
   </si>
   <si>
     <t xml:space="preserve">14.2128438949585</t>
@@ -1841,49 +1841,49 @@
     <t xml:space="preserve">14.2747716903687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3986320495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3676671981812</t>
+    <t xml:space="preserve">14.3986330032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3676681518555</t>
   </si>
   <si>
     <t xml:space="preserve">14.0270547866821</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0889844894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.491527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.150915145874</t>
+    <t xml:space="preserve">14.0889854431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4915266036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1509141921997</t>
   </si>
   <si>
     <t xml:space="preserve">14.4295969009399</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5224914550781</t>
+    <t xml:space="preserve">14.5224924087524</t>
   </si>
   <si>
     <t xml:space="preserve">14.8011741638184</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7702102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6773166656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2037153244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5133647918701</t>
+    <t xml:space="preserve">14.7702121734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6773157119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2037172317505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133628845215</t>
   </si>
   <si>
     <t xml:space="preserve">15.6372241973877</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5752954483032</t>
+    <t xml:space="preserve">15.5752935409546</t>
   </si>
   <si>
     <t xml:space="preserve">15.6991539001465</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">15.6681890487671</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8230133056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5352020263672</t>
+    <t xml:space="preserve">15.8230142593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5352039337158</t>
   </si>
   <si>
     <t xml:space="preserve">16.782922744751</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9067802429199</t>
+    <t xml:space="preserve">16.9067821502686</t>
   </si>
   <si>
     <t xml:space="preserve">17.0306396484375</t>
@@ -1910,19 +1910,19 @@
     <t xml:space="preserve">16.9687099456787</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0616035461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5570430755615</t>
+    <t xml:space="preserve">17.0616054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5570411682129</t>
   </si>
   <si>
     <t xml:space="preserve">18.2692317962646</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9194927215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7027416229248</t>
+    <t xml:space="preserve">18.919490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7027397155762</t>
   </si>
   <si>
     <t xml:space="preserve">19.0743160247803</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">19.8484363555908</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2291412353516</t>
+    <t xml:space="preserve">19.2291393280029</t>
   </si>
   <si>
     <t xml:space="preserve">19.445894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5078258514404</t>
+    <t xml:space="preserve">19.5078239440918</t>
   </si>
   <si>
     <t xml:space="preserve">19.3839645385742</t>
@@ -1961,19 +1961,19 @@
     <t xml:space="preserve">19.3220367431641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1981754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.79563331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5788803100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0123882293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8575649261475</t>
+    <t xml:space="preserve">19.1981773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7956352233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5788822174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0123863220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8575630187988</t>
   </si>
   <si>
     <t xml:space="preserve">18.6408100128174</t>
@@ -1982,22 +1982,22 @@
     <t xml:space="preserve">18.764669418335</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0433521270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1362476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2910709381104</t>
+    <t xml:space="preserve">19.0433540344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1362457275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2910690307617</t>
   </si>
   <si>
     <t xml:space="preserve">18.981424331665</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7337036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9504566192627</t>
+    <t xml:space="preserve">18.7337055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9504585266113</t>
   </si>
   <si>
     <t xml:space="preserve">18.4240570068359</t>
@@ -2006,37 +2006,37 @@
     <t xml:space="preserve">18.4859867095947</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3621253967285</t>
+    <t xml:space="preserve">18.3621273040771</t>
   </si>
   <si>
     <t xml:space="preserve">18.3001976013184</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1763401031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0834426879883</t>
+    <t xml:space="preserve">18.1763381958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0834445953369</t>
   </si>
   <si>
     <t xml:space="preserve">17.8976535797119</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7118663787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8047618865967</t>
+    <t xml:space="preserve">17.7118644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.804759979248</t>
   </si>
   <si>
     <t xml:space="preserve">17.1545009613037</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0925712585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4331817626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0215148925781</t>
+    <t xml:space="preserve">17.0925693511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4331836700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0215129852295</t>
   </si>
   <si>
     <t xml:space="preserve">17.9595851898193</t>
@@ -2048,31 +2048,31 @@
     <t xml:space="preserve">18.6098442077637</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7209911346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5042400360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9468717575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5443286895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8321399688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0488920211792</t>
+    <t xml:space="preserve">16.7209930419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5042381286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9468727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5443305969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8321390151978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0488929748535</t>
   </si>
   <si>
     <t xml:space="preserve">14.5534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5436773300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6303806304932</t>
+    <t xml:space="preserve">11.5436782836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6303787231445</t>
   </si>
   <si>
     <t xml:space="preserve">9.97066593170166</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">9.8344202041626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37614154815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2894401550293</t>
+    <t xml:space="preserve">9.37614059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28944110870361</t>
   </si>
   <si>
     <t xml:space="preserve">9.92112255096436</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">9.87157917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4537162780762</t>
+    <t xml:space="preserve">10.4537153244019</t>
   </si>
   <si>
     <t xml:space="preserve">10.7262077331543</t>
@@ -2105,67 +2105,67 @@
     <t xml:space="preserve">10.8376798629761</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3950443267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5065212249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2835721969604</t>
+    <t xml:space="preserve">11.3950462341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.506519317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2835731506348</t>
   </si>
   <si>
     <t xml:space="preserve">11.5932216644287</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3331165313721</t>
+    <t xml:space="preserve">11.3331174850464</t>
   </si>
   <si>
     <t xml:space="preserve">11.6179933547974</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4817476272583</t>
+    <t xml:space="preserve">11.4817485809326</t>
   </si>
   <si>
     <t xml:space="preserve">11.8533248901367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0143423080444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3239889144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.803783416748</t>
+    <t xml:space="preserve">12.0143442153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3239898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8037815093994</t>
   </si>
   <si>
     <t xml:space="preserve">11.6799240112305</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1382026672363</t>
+    <t xml:space="preserve">12.138201713562</t>
   </si>
   <si>
     <t xml:space="preserve">12.1258163452148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2001323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3859195709229</t>
+    <t xml:space="preserve">12.2001314163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3859205245972</t>
   </si>
   <si>
     <t xml:space="preserve">12.5637693405151</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4022016525269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0373773574829</t>
+    <t xml:space="preserve">13.4022006988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0373764038086</t>
   </si>
   <si>
     <t xml:space="preserve">13.656270980835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3704414367676</t>
+    <t xml:space="preserve">13.3704404830933</t>
   </si>
   <si>
     <t xml:space="preserve">13.1798887252808</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">12.7670249938965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0210943222046</t>
+    <t xml:space="preserve">13.0210952758789</t>
   </si>
   <si>
     <t xml:space="preserve">13.5292358398438</t>
@@ -2195,10 +2195,10 @@
     <t xml:space="preserve">13.2751655578613</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4974765777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0056161880493</t>
+    <t xml:space="preserve">13.4974775314331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.005615234375</t>
   </si>
   <si>
     <t xml:space="preserve">14.5772752761841</t>
@@ -2213,34 +2213,34 @@
     <t xml:space="preserve">14.9266204833984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2124490737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4030027389526</t>
+    <t xml:space="preserve">15.2124500274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.403003692627</t>
   </si>
   <si>
     <t xml:space="preserve">15.9429035186768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4982795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5300397872925</t>
+    <t xml:space="preserve">15.4982786178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5300388336182</t>
   </si>
   <si>
     <t xml:space="preserve">15.3077268600464</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1171741485596</t>
+    <t xml:space="preserve">15.1171731948853</t>
   </si>
   <si>
     <t xml:space="preserve">14.6407909393311</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2914447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9103403091431</t>
+    <t xml:space="preserve">14.2914457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9103412628174</t>
   </si>
   <si>
     <t xml:space="preserve">14.2596874237061</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">14.9583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7360696792603</t>
+    <t xml:space="preserve">14.7360706329346</t>
   </si>
   <si>
     <t xml:space="preserve">14.4819974899292</t>
@@ -2258,10 +2258,10 @@
     <t xml:space="preserve">14.2279291152954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1961708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.973858833313</t>
+    <t xml:space="preserve">14.1961698532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9738578796387</t>
   </si>
   <si>
     <t xml:space="preserve">15.2442083358765</t>
@@ -2285,25 +2285,25 @@
     <t xml:space="preserve">15.7523488998413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.720591545105</t>
+    <t xml:space="preserve">15.7205905914307</t>
   </si>
   <si>
     <t xml:space="preserve">15.4665203094482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8793840408325</t>
+    <t xml:space="preserve">15.8793849945068</t>
   </si>
   <si>
     <t xml:space="preserve">16.3240070343018</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0226993560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5145606994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9111423492432</t>
+    <t xml:space="preserve">17.0227012634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5145587921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9111413955688</t>
   </si>
   <si>
     <t xml:space="preserve">15.8158664703369</t>
@@ -2318,13 +2318,13 @@
     <t xml:space="preserve">16.6415958404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8321475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8003883361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8956661224365</t>
+    <t xml:space="preserve">16.832145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8003902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8956642150879</t>
   </si>
   <si>
     <t xml:space="preserve">16.7051124572754</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">17.1497364044189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.117977142334</t>
+    <t xml:space="preserve">17.1179752349854</t>
   </si>
   <si>
     <t xml:space="preserve">17.2132530212402</t>
@@ -2360,16 +2360,16 @@
     <t xml:space="preserve">16.0699367523193</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5617971420288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2759666442871</t>
+    <t xml:space="preserve">15.5617961883545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2759675979614</t>
   </si>
   <si>
     <t xml:space="preserve">15.1806917190552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4347610473633</t>
+    <t xml:space="preserve">15.4347620010376</t>
   </si>
   <si>
     <t xml:space="preserve">15.1489343643188</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">12.7352647781372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0683326721191</t>
+    <t xml:space="preserve">12.0683317184448</t>
   </si>
   <si>
     <t xml:space="preserve">12.373215675354</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">12.601879119873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0846138000488</t>
+    <t xml:space="preserve">13.0846128463745</t>
   </si>
   <si>
     <t xml:space="preserve">13.0528535842896</t>
@@ -2414,16 +2414,16 @@
     <t xml:space="preserve">14.1326513290405</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8468227386475</t>
+    <t xml:space="preserve">13.8468217849731</t>
   </si>
   <si>
     <t xml:space="preserve">15.68883228302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8313436508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5455150604248</t>
+    <t xml:space="preserve">14.8313446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5455160140991</t>
   </si>
   <si>
     <t xml:space="preserve">14.704309463501</t>
@@ -2441,37 +2441,37 @@
     <t xml:space="preserve">14.3232049942017</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8785820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5137577056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8631038665771</t>
+    <t xml:space="preserve">13.8785829544067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5137586593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8631048202515</t>
   </si>
   <si>
     <t xml:space="preserve">14.3867225646973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1008939743042</t>
+    <t xml:space="preserve">14.1008949279785</t>
   </si>
   <si>
     <t xml:space="preserve">13.7197875976562</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4657192230225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6245136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8150653839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0691337585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6880283355713</t>
+    <t xml:space="preserve">13.4657182693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6245126724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8150644302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0691347122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6880292892456</t>
   </si>
   <si>
     <t xml:space="preserve">13.4339590072632</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">13.3386821746826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3069229125977</t>
+    <t xml:space="preserve">13.306923866272</t>
   </si>
   <si>
     <t xml:space="preserve">13.7515459060669</t>
@@ -13992,7 +13992,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14018,7 +14018,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G391" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14044,7 +14044,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G392" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14070,7 +14070,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G393" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14096,7 +14096,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="G394" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14122,7 +14122,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G395" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14148,7 +14148,7 @@
         <v>17.5</v>
       </c>
       <c r="G396" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14174,7 +14174,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14226,7 +14226,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14252,7 +14252,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G400" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14278,7 +14278,7 @@
         <v>17.8099994659424</v>
       </c>
       <c r="G401" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14304,7 +14304,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G402" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14330,7 +14330,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G403" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14356,7 +14356,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14382,7 +14382,7 @@
         <v>17.7299995422363</v>
       </c>
       <c r="G405" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14434,7 +14434,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G407" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14460,7 +14460,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G408" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14486,7 +14486,7 @@
         <v>17.1900005340576</v>
       </c>
       <c r="G409" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14538,7 +14538,7 @@
         <v>17.5</v>
       </c>
       <c r="G411" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14564,7 +14564,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G412" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14590,7 +14590,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="G413" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14616,7 +14616,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G414" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14642,7 +14642,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G415" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14668,7 +14668,7 @@
         <v>17.7299995422363</v>
       </c>
       <c r="G416" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14694,7 +14694,7 @@
         <v>17.6100006103516</v>
       </c>
       <c r="G417" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14720,7 +14720,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G418" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14746,7 +14746,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G419" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14772,7 +14772,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G420" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14798,7 +14798,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G421" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14824,7 +14824,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G422" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14850,7 +14850,7 @@
         <v>18.0699996948242</v>
       </c>
       <c r="G423" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14928,7 +14928,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G426" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14954,7 +14954,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -14980,7 +14980,7 @@
         <v>18.25</v>
       </c>
       <c r="G428" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15006,7 +15006,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="G429" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15032,7 +15032,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G430" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15058,7 +15058,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G431" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15084,7 +15084,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G432" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15110,7 +15110,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15136,7 +15136,7 @@
         <v>21.25</v>
       </c>
       <c r="G434" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15162,7 +15162,7 @@
         <v>21.3700008392334</v>
       </c>
       <c r="G435" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15188,7 +15188,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G436" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15214,7 +15214,7 @@
         <v>22.1900005340576</v>
       </c>
       <c r="G437" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15240,7 +15240,7 @@
         <v>22.0300006866455</v>
       </c>
       <c r="G438" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15266,7 +15266,7 @@
         <v>22.5699996948242</v>
       </c>
       <c r="G439" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15292,7 +15292,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G440" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15318,7 +15318,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G441" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15344,7 +15344,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G442" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15370,7 +15370,7 @@
         <v>23.8700008392334</v>
       </c>
       <c r="G443" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15396,7 +15396,7 @@
         <v>24.75</v>
       </c>
       <c r="G444" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15422,7 +15422,7 @@
         <v>24.7700004577637</v>
       </c>
       <c r="G445" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15448,7 +15448,7 @@
         <v>25</v>
       </c>
       <c r="G446" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15474,7 +15474,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15500,7 +15500,7 @@
         <v>26.75</v>
       </c>
       <c r="G448" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15526,7 +15526,7 @@
         <v>26.5</v>
       </c>
       <c r="G449" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15552,7 +15552,7 @@
         <v>26.5699996948242</v>
       </c>
       <c r="G450" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15578,7 +15578,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G451" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15604,7 +15604,7 @@
         <v>27</v>
       </c>
       <c r="G452" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15630,7 +15630,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G453" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15656,7 +15656,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G454" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15682,7 +15682,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G455" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15708,7 +15708,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G456" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15734,7 +15734,7 @@
         <v>26.7600002288818</v>
       </c>
       <c r="G457" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15760,7 +15760,7 @@
         <v>27.0699996948242</v>
       </c>
       <c r="G458" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15786,7 +15786,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="G459" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15812,7 +15812,7 @@
         <v>27</v>
       </c>
       <c r="G460" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15838,7 +15838,7 @@
         <v>26.9699993133545</v>
       </c>
       <c r="G461" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15864,7 +15864,7 @@
         <v>26.3299999237061</v>
       </c>
       <c r="G462" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15890,7 +15890,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15916,7 +15916,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G464" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15942,7 +15942,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G465" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15968,7 +15968,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G466" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -15994,7 +15994,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G467" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16020,7 +16020,7 @@
         <v>26.0599994659424</v>
       </c>
       <c r="G468" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16046,7 +16046,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="G469" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16072,7 +16072,7 @@
         <v>26.3299999237061</v>
       </c>
       <c r="G470" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16098,7 +16098,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="G471" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16124,7 +16124,7 @@
         <v>26.4300003051758</v>
       </c>
       <c r="G472" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16150,7 +16150,7 @@
         <v>26.5100002288818</v>
       </c>
       <c r="G473" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16176,7 +16176,7 @@
         <v>26.6100006103516</v>
       </c>
       <c r="G474" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16202,7 +16202,7 @@
         <v>26.4699993133545</v>
       </c>
       <c r="G475" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16228,7 +16228,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G476" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16254,7 +16254,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G477" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16280,7 +16280,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G478" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16306,7 +16306,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16332,7 +16332,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G480" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16358,7 +16358,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G481" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16384,7 +16384,7 @@
         <v>25</v>
       </c>
       <c r="G482" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16410,7 +16410,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G483" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16436,7 +16436,7 @@
         <v>25.7700004577637</v>
       </c>
       <c r="G484" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16462,7 +16462,7 @@
         <v>26</v>
       </c>
       <c r="G485" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16488,7 +16488,7 @@
         <v>25.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16514,7 +16514,7 @@
         <v>25.75</v>
       </c>
       <c r="G487" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16540,7 +16540,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G488" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16566,7 +16566,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G489" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16592,7 +16592,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="G490" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16618,7 +16618,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G491" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16644,7 +16644,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G492" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16670,7 +16670,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16696,7 +16696,7 @@
         <v>24.4899997711182</v>
       </c>
       <c r="G494" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16722,7 +16722,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G495" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16748,7 +16748,7 @@
         <v>24.9099998474121</v>
       </c>
       <c r="G496" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16774,7 +16774,7 @@
         <v>24.75</v>
       </c>
       <c r="G497" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16800,7 +16800,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G498" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16826,7 +16826,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16852,7 +16852,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G500" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16878,7 +16878,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G501" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16904,7 +16904,7 @@
         <v>24.7900009155273</v>
       </c>
       <c r="G502" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16930,7 +16930,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G503" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16956,7 +16956,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G504" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -16982,7 +16982,7 @@
         <v>24.8199996948242</v>
       </c>
       <c r="G505" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17008,7 +17008,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G506" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17034,7 +17034,7 @@
         <v>24.0300006866455</v>
       </c>
       <c r="G507" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17060,7 +17060,7 @@
         <v>23.8899993896484</v>
       </c>
       <c r="G508" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17086,7 +17086,7 @@
         <v>23.75</v>
       </c>
       <c r="G509" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17112,7 +17112,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G510" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17138,7 +17138,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17164,7 +17164,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G512" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17190,7 +17190,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17216,7 +17216,7 @@
         <v>24.75</v>
       </c>
       <c r="G514" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17242,7 +17242,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17268,7 +17268,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G516" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17294,7 +17294,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G517" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17320,7 +17320,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G518" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17346,7 +17346,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G519" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17372,7 +17372,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G520" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17398,7 +17398,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G521" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17424,7 +17424,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G522" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17450,7 +17450,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17476,7 +17476,7 @@
         <v>26.75</v>
       </c>
       <c r="G524" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17502,7 +17502,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17528,7 +17528,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17554,7 +17554,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G527" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17580,7 +17580,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G528" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17606,7 +17606,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17632,7 +17632,7 @@
         <v>26.25</v>
       </c>
       <c r="G530" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17658,7 +17658,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17684,7 +17684,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17710,7 +17710,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17736,7 +17736,7 @@
         <v>25.25</v>
       </c>
       <c r="G534" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17762,7 +17762,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G535" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17788,7 +17788,7 @@
         <v>23.5</v>
       </c>
       <c r="G536" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17814,7 +17814,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17840,7 +17840,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17866,7 +17866,7 @@
         <v>24</v>
       </c>
       <c r="G539" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17892,7 +17892,7 @@
         <v>23.75</v>
       </c>
       <c r="G540" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17918,7 +17918,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G541" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17944,7 +17944,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -17970,7 +17970,7 @@
         <v>23.25</v>
       </c>
       <c r="G543" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -17996,7 +17996,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G544" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18022,7 +18022,7 @@
         <v>24</v>
       </c>
       <c r="G545" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18048,7 +18048,7 @@
         <v>23.25</v>
       </c>
       <c r="G546" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18074,7 +18074,7 @@
         <v>22.75</v>
       </c>
       <c r="G547" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18100,7 +18100,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G548" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18126,7 +18126,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18152,7 +18152,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18178,7 +18178,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18204,7 +18204,7 @@
         <v>22.25</v>
       </c>
       <c r="G552" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18230,7 +18230,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G553" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18256,7 +18256,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G554" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18282,7 +18282,7 @@
         <v>21.25</v>
       </c>
       <c r="G555" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18308,7 +18308,7 @@
         <v>21</v>
       </c>
       <c r="G556" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18334,7 +18334,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18360,7 +18360,7 @@
         <v>22</v>
       </c>
       <c r="G558" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18386,7 +18386,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18412,7 +18412,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18438,7 +18438,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G561" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18464,7 +18464,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G562" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18490,7 +18490,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18516,7 +18516,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18542,7 +18542,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G565" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18568,7 +18568,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18594,7 +18594,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G567" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18620,7 +18620,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G568" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18646,7 +18646,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18672,7 +18672,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18698,7 +18698,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18724,7 +18724,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G572" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18750,7 +18750,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G573" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18776,7 +18776,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G574" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18802,7 +18802,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18828,7 +18828,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18854,7 +18854,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G577" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18880,7 +18880,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G578" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18906,7 +18906,7 @@
         <v>22</v>
       </c>
       <c r="G579" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18932,7 +18932,7 @@
         <v>22.25</v>
       </c>
       <c r="G580" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18958,7 +18958,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -18984,7 +18984,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19010,7 +19010,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19036,7 +19036,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19062,7 +19062,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G585" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19088,7 +19088,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19114,7 +19114,7 @@
         <v>22.5</v>
       </c>
       <c r="G587" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19140,7 +19140,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19166,7 +19166,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19192,7 +19192,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19218,7 +19218,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G591" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19244,7 +19244,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G592" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19270,7 +19270,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G593" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19296,7 +19296,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G594" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19322,7 +19322,7 @@
         <v>22.25</v>
       </c>
       <c r="G595" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19348,7 +19348,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19374,7 +19374,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G597" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19400,7 +19400,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G598" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19426,7 +19426,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G599" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19452,7 +19452,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G600" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19478,7 +19478,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G601" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19504,7 +19504,7 @@
         <v>21.75</v>
       </c>
       <c r="G602" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19530,7 +19530,7 @@
         <v>22</v>
       </c>
       <c r="G603" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19556,7 +19556,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G604" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19582,7 +19582,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G605" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19608,7 +19608,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G606" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19634,7 +19634,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19660,7 +19660,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19686,7 +19686,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G609" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19712,7 +19712,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19738,7 +19738,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19764,7 +19764,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G612" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19790,7 +19790,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G613" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19816,7 +19816,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G614" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19842,7 +19842,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G615" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19868,7 +19868,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G616" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19894,7 +19894,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G617" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19920,7 +19920,7 @@
         <v>20</v>
       </c>
       <c r="G618" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19946,7 +19946,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G619" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19972,7 +19972,7 @@
         <v>21</v>
       </c>
       <c r="G620" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19998,7 +19998,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20024,7 +20024,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20050,7 +20050,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20076,7 +20076,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20102,7 +20102,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G625" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20128,7 +20128,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G626" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20154,7 +20154,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20180,7 +20180,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G628" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20206,7 +20206,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20232,7 +20232,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G630" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20258,7 +20258,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20284,7 +20284,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G632" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20310,7 +20310,7 @@
         <v>22</v>
       </c>
       <c r="G633" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20336,7 +20336,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20362,7 +20362,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G635" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20388,7 +20388,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G636" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20414,7 +20414,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G637" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20440,7 +20440,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G638" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20466,7 +20466,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20492,7 +20492,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G640" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20518,7 +20518,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20544,7 +20544,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20570,7 +20570,7 @@
         <v>21.25</v>
       </c>
       <c r="G643" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20596,7 +20596,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20622,7 +20622,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20648,7 +20648,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G646" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20674,7 +20674,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G647" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20700,7 +20700,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20726,7 +20726,7 @@
         <v>21.25</v>
       </c>
       <c r="G649" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20752,7 +20752,7 @@
         <v>21.5</v>
       </c>
       <c r="G650" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20778,7 +20778,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20804,7 +20804,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G652" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20830,7 +20830,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20856,7 +20856,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20882,7 +20882,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G655" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20908,7 +20908,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G656" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20934,7 +20934,7 @@
         <v>21.25</v>
       </c>
       <c r="G657" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20960,7 +20960,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20986,7 +20986,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G659" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21012,7 +21012,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21038,7 +21038,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G661" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21064,7 +21064,7 @@
         <v>21.25</v>
       </c>
       <c r="G662" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21090,7 +21090,7 @@
         <v>21</v>
       </c>
       <c r="G663" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21116,7 +21116,7 @@
         <v>21.25</v>
       </c>
       <c r="G664" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21142,7 +21142,7 @@
         <v>21</v>
       </c>
       <c r="G665" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21168,7 +21168,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21194,7 +21194,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G667" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21220,7 +21220,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G668" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21246,7 +21246,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21272,7 +21272,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21298,7 +21298,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21324,7 +21324,7 @@
         <v>20.5</v>
       </c>
       <c r="G672" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21350,7 +21350,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21376,7 +21376,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21402,7 +21402,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21428,7 +21428,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21454,7 +21454,7 @@
         <v>21.5</v>
       </c>
       <c r="G677" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21480,7 +21480,7 @@
         <v>21.25</v>
       </c>
       <c r="G678" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21506,7 +21506,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21532,7 +21532,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G680" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21558,7 +21558,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G681" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21584,7 +21584,7 @@
         <v>20.75</v>
       </c>
       <c r="G682" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21610,7 +21610,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21636,7 +21636,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G684" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21662,7 +21662,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21688,7 +21688,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21714,7 +21714,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G687" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21740,7 +21740,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G688" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21766,7 +21766,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21792,7 +21792,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G690" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21818,7 +21818,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21844,7 +21844,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21870,7 +21870,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21896,7 +21896,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G694" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21922,7 +21922,7 @@
         <v>21.5</v>
       </c>
       <c r="G695" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21948,7 +21948,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21974,7 +21974,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22000,7 +22000,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22026,7 +22026,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22052,7 +22052,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22078,7 +22078,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22104,7 +22104,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G702" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22130,7 +22130,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G703" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22156,7 +22156,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G704" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22182,7 +22182,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G705" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22208,7 +22208,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G706" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22234,7 +22234,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G707" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22260,7 +22260,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G708" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22286,7 +22286,7 @@
         <v>18</v>
       </c>
       <c r="G709" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22312,7 +22312,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22338,7 +22338,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G711" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22364,7 +22364,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G712" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22390,7 +22390,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G713" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22416,7 +22416,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G714" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22442,7 +22442,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G715" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22468,7 +22468,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G716" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22494,7 +22494,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G717" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22520,7 +22520,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22546,7 +22546,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22572,7 +22572,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G720" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22598,7 +22598,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G721" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22624,7 +22624,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G722" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22650,7 +22650,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G723" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22676,7 +22676,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22702,7 +22702,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G725" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22728,7 +22728,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G726" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22754,7 +22754,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G727" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22780,7 +22780,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G728" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22806,7 +22806,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G729" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22832,7 +22832,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="G730" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22858,7 +22858,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G731" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22884,7 +22884,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G732" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22910,7 +22910,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G733" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22936,7 +22936,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G734" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22962,7 +22962,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G735" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22988,7 +22988,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G736" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23014,7 +23014,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23040,7 +23040,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G738" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23066,7 +23066,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G739" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23092,7 +23092,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G740" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23118,7 +23118,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G741" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23144,7 +23144,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G742" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23170,7 +23170,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G743" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23196,7 +23196,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G744" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23222,7 +23222,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G745" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23248,7 +23248,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G746" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23274,7 +23274,7 @@
         <v>19</v>
       </c>
       <c r="G747" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23300,7 +23300,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G748" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23326,7 +23326,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G749" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23352,7 +23352,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G750" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23378,7 +23378,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G751" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23404,7 +23404,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G752" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23430,7 +23430,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23456,7 +23456,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23482,7 +23482,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23508,7 +23508,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23534,7 +23534,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G757" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23560,7 +23560,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G758" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23586,7 +23586,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G759" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23612,7 +23612,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23638,7 +23638,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G761" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23664,7 +23664,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G762" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23690,7 +23690,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G763" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23716,7 +23716,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G764" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23742,7 +23742,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G765" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23768,7 +23768,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23794,7 +23794,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G767" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23820,7 +23820,7 @@
         <v>19</v>
       </c>
       <c r="G768" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23846,7 +23846,7 @@
         <v>19</v>
       </c>
       <c r="G769" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23872,7 +23872,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G770" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23898,7 +23898,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G771" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23924,7 +23924,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23950,7 +23950,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23976,7 +23976,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G774" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24002,7 +24002,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G775" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24028,7 +24028,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G776" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24054,7 +24054,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G777" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24080,7 +24080,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G778" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24106,7 +24106,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G779" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24132,7 +24132,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G780" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24158,7 +24158,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="G781" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24184,7 +24184,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24210,7 +24210,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24236,7 +24236,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24262,7 +24262,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G785" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24288,7 +24288,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G786" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24314,7 +24314,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G787" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24340,7 +24340,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24366,7 +24366,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24392,7 +24392,7 @@
         <v>20.25</v>
       </c>
       <c r="G790" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24418,7 +24418,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G791" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24444,7 +24444,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G792" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24470,7 +24470,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24496,7 +24496,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G794" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24522,7 +24522,7 @@
         <v>21.25</v>
       </c>
       <c r="G795" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24548,7 +24548,7 @@
         <v>22.25</v>
       </c>
       <c r="G796" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24574,7 +24574,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G797" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24600,7 +24600,7 @@
         <v>22.25</v>
       </c>
       <c r="G798" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24626,7 +24626,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G799" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24652,7 +24652,7 @@
         <v>22.25</v>
       </c>
       <c r="G800" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24678,7 +24678,7 @@
         <v>22.25</v>
       </c>
       <c r="G801" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24704,7 +24704,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G802" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24730,7 +24730,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24756,7 +24756,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G804" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24782,7 +24782,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24808,7 +24808,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24834,7 +24834,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G807" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24860,7 +24860,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G808" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24886,7 +24886,7 @@
         <v>22.5</v>
       </c>
       <c r="G809" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24912,7 +24912,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G810" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24938,7 +24938,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G811" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24964,7 +24964,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G812" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24990,7 +24990,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25016,7 +25016,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G814" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25042,7 +25042,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25068,7 +25068,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25094,7 +25094,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25120,7 +25120,7 @@
         <v>22.25</v>
       </c>
       <c r="G818" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25146,7 +25146,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G819" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25172,7 +25172,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G820" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25198,7 +25198,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G821" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25224,7 +25224,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25250,7 +25250,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25276,7 +25276,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G824" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25302,7 +25302,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25328,7 +25328,7 @@
         <v>22</v>
       </c>
       <c r="G826" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25354,7 +25354,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G827" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25380,7 +25380,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25406,7 +25406,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G829" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25432,7 +25432,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G830" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25458,7 +25458,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25484,7 +25484,7 @@
         <v>22.25</v>
       </c>
       <c r="G832" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25510,7 +25510,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25536,7 +25536,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25562,7 +25562,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25588,7 +25588,7 @@
         <v>22.25</v>
       </c>
       <c r="G836" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25614,7 +25614,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25640,7 +25640,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25666,7 +25666,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G839" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25692,7 +25692,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25718,7 +25718,7 @@
         <v>22.25</v>
       </c>
       <c r="G841" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25744,7 +25744,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25770,7 +25770,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G843" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25796,7 +25796,7 @@
         <v>22.25</v>
       </c>
       <c r="G844" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25822,7 +25822,7 @@
         <v>21.5</v>
       </c>
       <c r="G845" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25848,7 +25848,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25874,7 +25874,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25900,7 +25900,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G848" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25926,7 +25926,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25952,7 +25952,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25978,7 +25978,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26004,7 +26004,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G852" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26030,7 +26030,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26056,7 +26056,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26082,7 +26082,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G855" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26108,7 +26108,7 @@
         <v>21.5</v>
       </c>
       <c r="G856" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26134,7 +26134,7 @@
         <v>21.75</v>
       </c>
       <c r="G857" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26160,7 +26160,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26186,7 +26186,7 @@
         <v>22</v>
       </c>
       <c r="G859" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26212,7 +26212,7 @@
         <v>22.25</v>
       </c>
       <c r="G860" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26238,7 +26238,7 @@
         <v>22.25</v>
       </c>
       <c r="G861" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26264,7 +26264,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G862" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26290,7 +26290,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26316,7 +26316,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26342,7 +26342,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26368,7 +26368,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G866" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26394,7 +26394,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26420,7 +26420,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G868" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26446,7 +26446,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G869" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26472,7 +26472,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26498,7 +26498,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26524,7 +26524,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G872" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26550,7 +26550,7 @@
         <v>20.25</v>
       </c>
       <c r="G873" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26576,7 +26576,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G874" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26602,7 +26602,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G875" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26628,7 +26628,7 @@
         <v>20.5</v>
       </c>
       <c r="G876" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26654,7 +26654,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26680,7 +26680,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G878" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26706,7 +26706,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26732,7 +26732,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26758,7 +26758,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26784,7 +26784,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26810,7 +26810,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G883" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26836,7 +26836,7 @@
         <v>20.5</v>
       </c>
       <c r="G884" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26862,7 +26862,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26888,7 +26888,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G886" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26914,7 +26914,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26940,7 +26940,7 @@
         <v>20.5</v>
       </c>
       <c r="G888" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26966,7 +26966,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26992,7 +26992,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G890" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27018,7 +27018,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27044,7 +27044,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G892" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27070,7 +27070,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G893" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27096,7 +27096,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G894" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27122,7 +27122,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G895" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27148,7 +27148,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G896" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27174,7 +27174,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G897" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27200,7 +27200,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G898" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27226,7 +27226,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27252,7 +27252,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G900" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27278,7 +27278,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27304,7 +27304,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G902" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27330,7 +27330,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27356,7 +27356,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27382,7 +27382,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G905" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27408,7 +27408,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27434,7 +27434,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G907" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27460,7 +27460,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27486,7 +27486,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27512,7 +27512,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27538,7 +27538,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27564,7 +27564,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G912" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27590,7 +27590,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G913" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27616,7 +27616,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G914" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27642,7 +27642,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27668,7 +27668,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G916" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27694,7 +27694,7 @@
         <v>21.25</v>
       </c>
       <c r="G917" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27720,7 +27720,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G918" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27746,7 +27746,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27772,7 +27772,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G920" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27798,7 +27798,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27824,7 +27824,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27850,7 +27850,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27876,7 +27876,7 @@
         <v>21</v>
       </c>
       <c r="G924" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27902,7 +27902,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27928,7 +27928,7 @@
         <v>21.5</v>
       </c>
       <c r="G926" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27954,7 +27954,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G927" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27980,7 +27980,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28006,7 +28006,7 @@
         <v>21.25</v>
       </c>
       <c r="G929" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28032,7 +28032,7 @@
         <v>21</v>
       </c>
       <c r="G930" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28058,7 +28058,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28084,7 +28084,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G932" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28110,7 +28110,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G933" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28136,7 +28136,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28162,7 +28162,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28188,7 +28188,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G936" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28214,7 +28214,7 @@
         <v>21.75</v>
       </c>
       <c r="G937" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28240,7 +28240,7 @@
         <v>22.25</v>
       </c>
       <c r="G938" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -31438,7 +31438,7 @@
         <v>22.25</v>
       </c>
       <c r="G1061" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31464,7 +31464,7 @@
         <v>21.75</v>
       </c>
       <c r="G1062" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31490,7 +31490,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1063" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32270,7 +32270,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32296,7 +32296,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1094" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -59786,7 +59786,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6496180556</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>191527</v>
@@ -59807,6 +59807,32 @@
         <v>1168</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6494907407</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>87302</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>27.8500003814697</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>27.6499996185303</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>27.8500003814697</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>27.7000007629395</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SG.MI.xlsx
+++ b/data/SG.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1179">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01664161682129</t>
+    <t xml:space="preserve">7.01664209365845</t>
   </si>
   <si>
     <t xml:space="preserve">SG.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4265661239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45318555831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17635202407837</t>
+    <t xml:space="preserve">7.42656660079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45318460464478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17635250091553</t>
   </si>
   <si>
     <t xml:space="preserve">6.83563566207886</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78239822387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86757802963257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00599431991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73448514938354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25002861022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83477926254272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39909172058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19146823883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60139131546021</t>
+    <t xml:space="preserve">6.78239917755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86757755279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00599479675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73448467254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25002813339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83477973937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39909267425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60139226913452</t>
   </si>
   <si>
     <t xml:space="preserve">6.77175140380859</t>
@@ -89,34 +89,34 @@
     <t xml:space="preserve">6.84628343582153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71319103240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51089000701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56944990158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7557806968689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61736345291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38844442367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12225961685181</t>
+    <t xml:space="preserve">6.71319055557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51088953018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56945085525513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75578022003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61736440658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3884449005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12225866317749</t>
   </si>
   <si>
     <t xml:space="preserve">5.97851943969727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04687118530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08679866790771</t>
+    <t xml:space="preserve">5.04687070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08679962158203</t>
   </si>
   <si>
     <t xml:space="preserve">5.1639928817749</t>
@@ -125,61 +125,61 @@
     <t xml:space="preserve">4.82327604293823</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9217643737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0309009552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94039726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90845584869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78334712982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53132724761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36096906661987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4088830947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34499883651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45147275924683</t>
+    <t xml:space="preserve">4.92176485061646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03090047836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9403977394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90845537185669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78334808349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53132820129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36096954345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40888261795044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34499835968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45147180557251</t>
   </si>
   <si>
     <t xml:space="preserve">5.71233415603638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06902265548706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87204504013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74959945678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72298145294189</t>
+    <t xml:space="preserve">6.06902122497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87204551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74960041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72298097610474</t>
   </si>
   <si>
     <t xml:space="preserve">5.82413101196289</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69636201858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45679616928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51535606384277</t>
+    <t xml:space="preserve">5.69636344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45679664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51535701751709</t>
   </si>
   <si>
     <t xml:space="preserve">5.68571615219116</t>
@@ -188,58 +188,58 @@
     <t xml:space="preserve">6.28729438781738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2819709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32988405227661</t>
+    <t xml:space="preserve">6.28197145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32988452911377</t>
   </si>
   <si>
     <t xml:space="preserve">6.18081998825073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9891676902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22873306274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25535106658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31923627853394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21276235580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17017269134521</t>
+    <t xml:space="preserve">5.98916673660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2287335395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25535202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31923580169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2127628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17017221450806</t>
   </si>
   <si>
     <t xml:space="preserve">6.00513744354248</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88801717758179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56326961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95190143585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89333963394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71765756607056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87736797332764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86672115325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60053682327271</t>
+    <t xml:space="preserve">5.88801670074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5632700920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95190095901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89333915710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7176570892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87736940383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86672163009644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60053634643555</t>
   </si>
   <si>
     <t xml:space="preserve">5.56859445571899</t>
@@ -251,79 +251,79 @@
     <t xml:space="preserve">5.70701026916504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65909624099731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70168685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78999948501587</t>
+    <t xml:space="preserve">5.65909719467163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70168733596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78999996185303</t>
   </si>
   <si>
     <t xml:space="preserve">5.59129524230957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60233449935913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51402235031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64097118377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69616651535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88383150100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.839674949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00526142120361</t>
+    <t xml:space="preserve">5.60233402252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51402187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64097213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69616746902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88383102416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83967542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00526094436646</t>
   </si>
   <si>
     <t xml:space="preserve">5.95006561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85071420669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82311677932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65752983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57473707199097</t>
+    <t xml:space="preserve">5.85071468353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82311630249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65753078460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57473659515381</t>
   </si>
   <si>
     <t xml:space="preserve">5.71272611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98870277404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99974155426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09909343719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57929372787476</t>
+    <t xml:space="preserve">5.98870325088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99974250793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09909248352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47442102432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5792932510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.46338367462158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45786333084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29227733612061</t>
+    <t xml:space="preserve">6.45786428451538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29227685928345</t>
   </si>
   <si>
     <t xml:space="preserve">6.30331707000732</t>
@@ -332,106 +332,106 @@
     <t xml:space="preserve">6.38610982894897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43026685714722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48546123504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31987524032593</t>
+    <t xml:space="preserve">6.43026638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48546171188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31987476348877</t>
   </si>
   <si>
     <t xml:space="preserve">6.1266918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07149600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14324998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36955165863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44130516052246</t>
+    <t xml:space="preserve">6.0714955329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14325046539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36955070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44130563735962</t>
   </si>
   <si>
     <t xml:space="preserve">6.4192271232605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50202035903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04389762878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20396518707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18188714981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22604274749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32539558410645</t>
+    <t xml:space="preserve">6.50201988220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04389715194702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2039647102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18188667297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22604322433472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32539510726929</t>
   </si>
   <si>
     <t xml:space="preserve">6.35299301147461</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54065752029419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55169677734375</t>
+    <t xml:space="preserve">6.54065704345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55169582366943</t>
   </si>
   <si>
     <t xml:space="preserve">6.61241102218628</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98222017288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8387131690979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78903675079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92702484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12572860717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06501436233521</t>
+    <t xml:space="preserve">6.98221969604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83871269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7890362739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92702579498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12572813034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06501388549805</t>
   </si>
   <si>
     <t xml:space="preserve">6.97118186950684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92150592803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91598653793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9932599067688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86631011962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57377433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62345123291016</t>
+    <t xml:space="preserve">6.92150497436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91598558425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99326038360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86630964279175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5737738609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.623450756073</t>
   </si>
   <si>
     <t xml:space="preserve">6.59033250808716</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72832107543945</t>
+    <t xml:space="preserve">6.72832202911377</t>
   </si>
   <si>
     <t xml:space="preserve">6.78351736068726</t>
@@ -440,37 +440,37 @@
     <t xml:space="preserve">6.95462274551392</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91046619415283</t>
+    <t xml:space="preserve">6.91046714782715</t>
   </si>
   <si>
     <t xml:space="preserve">7.0098180770874</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89942693710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87182950973511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80559492111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82215404510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71176242828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99877882003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05397367477417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08157205581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19196319580078</t>
+    <t xml:space="preserve">6.89942741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87182998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80559539794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82215356826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71176195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99877834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05397462844849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08157253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19196271896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.3575496673584</t>
@@ -479,13 +479,13 @@
     <t xml:space="preserve">7.34099149703979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25819778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27475595474243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32995176315308</t>
+    <t xml:space="preserve">7.25819730758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27475643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32995080947876</t>
   </si>
   <si>
     <t xml:space="preserve">7.25267791748047</t>
@@ -494,46 +494,46 @@
     <t xml:space="preserve">7.17540454864502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29683399200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13676881790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1533260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31891345977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22508001327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08709144592285</t>
+    <t xml:space="preserve">7.29683494567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13676786422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15332651138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31891298294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2250804901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08709192276001</t>
   </si>
   <si>
     <t xml:space="preserve">7.13124847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9767017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07605266571045</t>
+    <t xml:space="preserve">6.97670125961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07605314254761</t>
   </si>
   <si>
     <t xml:space="preserve">7.04293537139893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07053375244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10916996002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14780712127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03741645812988</t>
+    <t xml:space="preserve">7.07053327560425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10917043685913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1478066444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03741598129272</t>
   </si>
   <si>
     <t xml:space="preserve">6.94358348846436</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">6.93806409835815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89390802383423</t>
+    <t xml:space="preserve">6.89390659332275</t>
   </si>
   <si>
     <t xml:space="preserve">6.01629972457886</t>
@@ -554,22 +554,22 @@
     <t xml:space="preserve">6.31435537338257</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44682550430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49650144577026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25364112854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96110534667969</t>
+    <t xml:space="preserve">6.44682455062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49650096893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2536416053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96110582351685</t>
   </si>
   <si>
     <t xml:space="preserve">5.80103826522827</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98318290710449</t>
+    <t xml:space="preserve">5.98318386077881</t>
   </si>
   <si>
     <t xml:space="preserve">5.80655765533447</t>
@@ -578,97 +578,97 @@
     <t xml:space="preserve">5.90038967132568</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92798805236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77896070480347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61337423324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68512868881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79551935195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08805418014526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19844532012939</t>
+    <t xml:space="preserve">5.92798709869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77896022796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61337375640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6851282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79551887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08805513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19844579696655</t>
   </si>
   <si>
     <t xml:space="preserve">6.13773059844971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17084836959839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28123903274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56825494766235</t>
+    <t xml:space="preserve">6.17084789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2812385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56825542449951</t>
   </si>
   <si>
     <t xml:space="preserve">6.73384094238281</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6344895362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49098110198975</t>
+    <t xml:space="preserve">6.63449001312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4909815788269</t>
   </si>
   <si>
     <t xml:space="preserve">6.67864608764648</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6400089263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58481311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70624303817749</t>
+    <t xml:space="preserve">6.64000844955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58481407165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70624351501465</t>
   </si>
   <si>
     <t xml:space="preserve">6.70072412490845</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76695871353149</t>
+    <t xml:space="preserve">6.76695823669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.56273603439331</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54617643356323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51305913925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46890354156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37507104873657</t>
+    <t xml:space="preserve">6.54617691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51306009292603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46890306472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37507152557373</t>
   </si>
   <si>
     <t xml:space="preserve">6.38059091567993</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43578577041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2646803855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23708248138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30883598327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33643341064453</t>
+    <t xml:space="preserve">6.43578624725342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26467943191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23708200454712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30883550643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33643388748169</t>
   </si>
   <si>
     <t xml:space="preserve">6.39162969589233</t>
@@ -680,34 +680,34 @@
     <t xml:space="preserve">6.45234394073486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52409887313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66208648681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69520425796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11469030380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09261226654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32443284988403</t>
+    <t xml:space="preserve">6.52409791946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66208696365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69520473480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11468982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09261274337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32443237304688</t>
   </si>
   <si>
     <t xml:space="preserve">7.46794033050537</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50657796859741</t>
+    <t xml:space="preserve">7.5065770149231</t>
   </si>
   <si>
     <t xml:space="preserve">8.00333595275879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09716892242432</t>
+    <t xml:space="preserve">8.09716796875</t>
   </si>
   <si>
     <t xml:space="preserve">7.83774948120117</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">7.76599550247192</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82119083404541</t>
+    <t xml:space="preserve">7.82119131088257</t>
   </si>
   <si>
     <t xml:space="preserve">7.86534738540649</t>
@@ -725,46 +725,46 @@
     <t xml:space="preserve">7.92054271697998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27931308746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50009536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52217197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72087669372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87542343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18451881408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30594730377197</t>
+    <t xml:space="preserve">8.27931213378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50009441375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52217292785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72087574005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8754243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18451690673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30594825744629</t>
   </si>
   <si>
     <t xml:space="preserve">9.48809337615967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41633892059326</t>
+    <t xml:space="preserve">9.41633796691895</t>
   </si>
   <si>
     <t xml:space="preserve">9.71991443634033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71439456939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54880809783936</t>
+    <t xml:space="preserve">9.71439361572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54880714416504</t>
   </si>
   <si>
     <t xml:space="preserve">9.43841648101807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20659732818604</t>
+    <t xml:space="preserve">9.20659637451172</t>
   </si>
   <si>
     <t xml:space="preserve">9.10724353790283</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">9.15691947937012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32250499725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27282905578613</t>
+    <t xml:space="preserve">9.32250595092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27283000946045</t>
   </si>
   <si>
     <t xml:space="preserve">9.22315406799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10172557830811</t>
+    <t xml:space="preserve">9.10172367095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.19003772735596</t>
@@ -791,82 +791,82 @@
     <t xml:space="preserve">9.07964611053467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91406059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94165706634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31698799133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12380218505859</t>
+    <t xml:space="preserve">8.91405963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94165802001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31698513031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12380313873291</t>
   </si>
   <si>
     <t xml:space="preserve">9.53224945068359</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7309513092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90757751464844</t>
+    <t xml:space="preserve">9.73095226287842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90757846832275</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207479476929</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562388420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4314260482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3460168838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2492189407349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.414345741272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5054492950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.590859413147</t>
+    <t xml:space="preserve">10.5623893737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4314250946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3460159301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2492198944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4143447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5054502487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5908603668213</t>
   </si>
   <si>
     <t xml:space="preserve">10.8470897674561</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6307163238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3858757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4029569625854</t>
+    <t xml:space="preserve">10.6307182312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3858728408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4029579162598</t>
   </si>
   <si>
     <t xml:space="preserve">10.6079406738281</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7616777420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9609689712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0179100036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9324998855591</t>
+    <t xml:space="preserve">10.761679649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9609699249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0179090499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9324989318848</t>
   </si>
   <si>
     <t xml:space="preserve">10.8186187744141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7958431243896</t>
+    <t xml:space="preserve">10.795844078064</t>
   </si>
   <si>
     <t xml:space="preserve">10.7787628173828</t>
@@ -878,31 +878,31 @@
     <t xml:space="preserve">11.0691566467285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8983345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6478004455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.909725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4542036056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7218217849731</t>
+    <t xml:space="preserve">10.8983364105225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6477994918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.909722328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4542016983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7218208312988</t>
   </si>
   <si>
     <t xml:space="preserve">10.6819629669189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2321357727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2719955444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.351710319519</t>
+    <t xml:space="preserve">10.2321367263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2719945907593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517112731934</t>
   </si>
   <si>
     <t xml:space="preserve">10.3403224945068</t>
@@ -914,31 +914,31 @@
     <t xml:space="preserve">10.2606077194214</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3631000518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1922779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0499277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95882415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79369735717773</t>
+    <t xml:space="preserve">10.3630981445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1922788619995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0499296188354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95882225036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79369831085205</t>
   </si>
   <si>
     <t xml:space="preserve">10.1125621795654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78231048583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67981624603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82216835021973</t>
+    <t xml:space="preserve">9.78230857849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67981815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82216739654541</t>
   </si>
   <si>
     <t xml:space="preserve">9.74245166778564</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">9.90757656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80508422851562</t>
+    <t xml:space="preserve">9.80508613586426</t>
   </si>
   <si>
     <t xml:space="preserve">10.1353387832642</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2378301620483</t>
+    <t xml:space="preserve">10.237829208374</t>
   </si>
   <si>
     <t xml:space="preserve">10.1751976013184</t>
@@ -965,10 +965,10 @@
     <t xml:space="preserve">10.0157632827759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0214595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98159980773926</t>
+    <t xml:space="preserve">10.0214576721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98159885406494</t>
   </si>
   <si>
     <t xml:space="preserve">10.1410322189331</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">9.97021198272705</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0897855758667</t>
+    <t xml:space="preserve">10.089786529541</t>
   </si>
   <si>
     <t xml:space="preserve">9.93604850769043</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0954790115356</t>
+    <t xml:space="preserve">10.09547996521</t>
   </si>
   <si>
     <t xml:space="preserve">9.92466068267822</t>
@@ -992,13 +992,13 @@
     <t xml:space="preserve">9.89049625396729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78800296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3289346694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99298667907715</t>
+    <t xml:space="preserve">9.78800487518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3289337158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99298763275146</t>
   </si>
   <si>
     <t xml:space="preserve">10.0271530151367</t>
@@ -1007,34 +1007,34 @@
     <t xml:space="preserve">9.90188312530518</t>
   </si>
   <si>
-    <t xml:space="preserve">10.209361076355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2890768051147</t>
+    <t xml:space="preserve">10.2093620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2890748977661</t>
   </si>
   <si>
     <t xml:space="preserve">10.3061590194702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3346281051636</t>
+    <t xml:space="preserve">10.3346300125122</t>
   </si>
   <si>
     <t xml:space="preserve">10.3915681838989</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4598979949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9040298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3595504760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3424682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449596405029</t>
+    <t xml:space="preserve">10.4598960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9040307998657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3595485687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3424692153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449605941772</t>
   </si>
   <si>
     <t xml:space="preserve">12.0997714996338</t>
@@ -1046,7 +1046,7 @@
     <t xml:space="preserve">12.1908740997314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350088119507</t>
+    <t xml:space="preserve">12.635009765625</t>
   </si>
   <si>
     <t xml:space="preserve">12.5439033508301</t>
@@ -1055,91 +1055,91 @@
     <t xml:space="preserve">12.8513803482056</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8912391662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0108127593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1759405136108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5916042327881</t>
+    <t xml:space="preserve">12.8912382125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.010814666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1759386062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5916023254395</t>
   </si>
   <si>
     <t xml:space="preserve">14.0926752090454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1040630340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2350244522095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.71901512146</t>
+    <t xml:space="preserve">14.1040639877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2350254058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7190170288086</t>
   </si>
   <si>
     <t xml:space="preserve">15.2314767837524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0891275405884</t>
+    <t xml:space="preserve">15.0891284942627</t>
   </si>
   <si>
     <t xml:space="preserve">15.1289854049683</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7724103927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3738288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5731182098389</t>
+    <t xml:space="preserve">15.7724075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3738269805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5731201171875</t>
   </si>
   <si>
     <t xml:space="preserve">15.3510513305664</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9752473831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2599458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.23717212677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4136867523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3054981231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.356746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9923295974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8898372650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8499784469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9980230331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8385906219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1574554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0492706298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0948219299316</t>
+    <t xml:space="preserve">14.9752464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2599468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2371730804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4136877059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3054990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3567457199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9923286437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8898363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8499774932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9980220794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8385896682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1574544906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0492696762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0948209762573</t>
   </si>
   <si>
     <t xml:space="preserve">15.151762008667</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">15.0720443725586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.861367225647</t>
+    <t xml:space="preserve">14.8613662719727</t>
   </si>
   <si>
     <t xml:space="preserve">13.864914894104</t>
@@ -1157,37 +1157,37 @@
     <t xml:space="preserve">14.1666965484619</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7225646972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9787969589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7681159973145</t>
+    <t xml:space="preserve">13.7225637435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.978796005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7681169509888</t>
   </si>
   <si>
     <t xml:space="preserve">14.4627857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6734657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044242858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7816486358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620769500732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2065563201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1097583770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.161003112793</t>
+    <t xml:space="preserve">14.6734647750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8044261932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7816495895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620759963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2065553665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1097564697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1610021591187</t>
   </si>
   <si>
     <t xml:space="preserve">14.0072660446167</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">14.2236366271973</t>
   </si>
   <si>
-    <t xml:space="preserve">14.183780670166</t>
+    <t xml:space="preserve">14.1837787628174</t>
   </si>
   <si>
     <t xml:space="preserve">14.1439208984375</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3147420883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1154518127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0129585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0414295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1325330734253</t>
+    <t xml:space="preserve">14.3147411346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1154508590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.01296043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.041428565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1325340270996</t>
   </si>
   <si>
     <t xml:space="preserve">13.9731006622314</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">13.6827068328857</t>
   </si>
   <si>
-    <t xml:space="preserve">13.602991104126</t>
+    <t xml:space="preserve">13.6029920578003</t>
   </si>
   <si>
     <t xml:space="preserve">13.5232734680176</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">13.7339525222778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5802145004272</t>
+    <t xml:space="preserve">13.5802135467529</t>
   </si>
   <si>
     <t xml:space="preserve">14.0755920410156</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">14.0642051696777</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2919654846191</t>
+    <t xml:space="preserve">14.2919673919678</t>
   </si>
   <si>
     <t xml:space="preserve">15.3453578948975</t>
@@ -1256,19 +1256,19 @@
     <t xml:space="preserve">15.4592380523682</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4877080917358</t>
+    <t xml:space="preserve">15.4877090454102</t>
   </si>
   <si>
     <t xml:space="preserve">15.4307680130005</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2884178161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1175966262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.060658454895</t>
+    <t xml:space="preserve">15.2884187698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1175975799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0606565475464</t>
   </si>
   <si>
     <t xml:space="preserve">14.8328952789307</t>
@@ -1280,13 +1280,13 @@
     <t xml:space="preserve">14.9467763900757</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5766658782959</t>
+    <t xml:space="preserve">14.5766668319702</t>
   </si>
   <si>
     <t xml:space="preserve">14.7759571075439</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6336050033569</t>
+    <t xml:space="preserve">14.6336059570312</t>
   </si>
   <si>
     <t xml:space="preserve">14.3773765563965</t>
@@ -1298,34 +1298,34 @@
     <t xml:space="preserve">13.2955131530762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6656255722046</t>
+    <t xml:space="preserve">13.6656246185303</t>
   </si>
   <si>
     <t xml:space="preserve">13.4093923568726</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9254035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2385740280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3524551391602</t>
+    <t xml:space="preserve">12.9254016876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2385730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3524532318115</t>
   </si>
   <si>
     <t xml:space="preserve">12.9538726806641</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8684635162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823417663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6691722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8399934768677</t>
+    <t xml:space="preserve">12.8684644699097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823427200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.669171333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.839991569519</t>
   </si>
   <si>
     <t xml:space="preserve">12.3275318145752</t>
@@ -1334,73 +1334,73 @@
     <t xml:space="preserve">11.9574213027954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2990627288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5268220901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7545824050903</t>
+    <t xml:space="preserve">12.2990617752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5268211364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7545833587646</t>
   </si>
   <si>
     <t xml:space="preserve">13.1246929168701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3239822387695</t>
+    <t xml:space="preserve">13.3239831924438</t>
   </si>
   <si>
     <t xml:space="preserve">13.2670440673828</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4698801040649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6976413726807</t>
+    <t xml:space="preserve">12.4698810577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.697642326355</t>
   </si>
   <si>
     <t xml:space="preserve">12.783052444458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6407032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6122331619263</t>
+    <t xml:space="preserve">12.6407022476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6122312545776</t>
   </si>
   <si>
     <t xml:space="preserve">12.5552921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.58376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8969316482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8115224838257</t>
+    <t xml:space="preserve">12.5837621688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.896933555603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8115243911743</t>
   </si>
   <si>
     <t xml:space="preserve">12.4983510971069</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1531639099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1576614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0695524215698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9814424514771</t>
+    <t xml:space="preserve">13.1531629562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1576623916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0695514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9814434051514</t>
   </si>
   <si>
     <t xml:space="preserve">12.8933334350586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108137130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8052244186401</t>
+    <t xml:space="preserve">13.0108118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8052234649658</t>
   </si>
   <si>
     <t xml:space="preserve">12.8639631271362</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">12.7758541107178</t>
   </si>
   <si>
-    <t xml:space="preserve">12.922703742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1282930374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5702657699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1003503799438</t>
+    <t xml:space="preserve">12.9227027893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1282939910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5702667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1003494262695</t>
   </si>
   <si>
     <t xml:space="preserve">11.924129486084</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">11.7009220123291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2471981048584</t>
+    <t xml:space="preserve">12.247200012207</t>
   </si>
   <si>
     <t xml:space="preserve">12.1590900421143</t>
@@ -1439,31 +1439,31 @@
     <t xml:space="preserve">11.5012063980103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2779970169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4894580841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4072237014771</t>
+    <t xml:space="preserve">11.2779960632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4894599914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4072246551514</t>
   </si>
   <si>
     <t xml:space="preserve">12.0122404098511</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7479133605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6891736984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3353090286255</t>
+    <t xml:space="preserve">11.7479124069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.689172744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3353080749512</t>
   </si>
   <si>
     <t xml:space="preserve">14.0681247711182</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7744293212891</t>
+    <t xml:space="preserve">13.7744274139404</t>
   </si>
   <si>
     <t xml:space="preserve">13.3926200866699</t>
@@ -1475,22 +1475,22 @@
     <t xml:space="preserve">13.686318397522</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3338823318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.421989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0401840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0989208221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4527864456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6583757400513</t>
+    <t xml:space="preserve">13.3338794708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4219913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0401830673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0989227294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4527883529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.658374786377</t>
   </si>
   <si>
     <t xml:space="preserve">12.4234170913696</t>
@@ -1499,34 +1499,34 @@
     <t xml:space="preserve">12.48215675354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.217827796936</t>
+    <t xml:space="preserve">12.2178287506104</t>
   </si>
   <si>
     <t xml:space="preserve">12.3059377670288</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2765684127808</t>
+    <t xml:space="preserve">12.2765693664551</t>
   </si>
   <si>
     <t xml:space="preserve">12.6290054321289</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5115261077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3940467834473</t>
+    <t xml:space="preserve">12.5115251541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3940486907959</t>
   </si>
   <si>
     <t xml:space="preserve">12.3646774291992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0709791183472</t>
+    <t xml:space="preserve">12.0709810256958</t>
   </si>
   <si>
     <t xml:space="preserve">12.0416097640991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5408964157104</t>
+    <t xml:space="preserve">12.5408973693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.6877450942993</t>
@@ -1535,31 +1535,31 @@
     <t xml:space="preserve">12.188458442688</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1297206878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5996370315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8653917312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7361640930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7244157791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8785676956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1370210647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5731220245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969039916992</t>
+    <t xml:space="preserve">12.1297197341919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5996351242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8653898239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7361660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7244167327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.878568649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1370220184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5731229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969020843506</t>
   </si>
   <si>
     <t xml:space="preserve">10.3851547241211</t>
@@ -1574,22 +1574,22 @@
     <t xml:space="preserve">10.3146686553955</t>
   </si>
   <si>
-    <t xml:space="preserve">10.267674446106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.197190284729</t>
+    <t xml:space="preserve">10.2676763534546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1971883773804</t>
   </si>
   <si>
     <t xml:space="preserve">10.0327167510986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1619434356689</t>
+    <t xml:space="preserve">10.1619443893433</t>
   </si>
   <si>
     <t xml:space="preserve">10.1501970291138</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5143814086914</t>
+    <t xml:space="preserve">10.5143823623657</t>
   </si>
   <si>
     <t xml:space="preserve">10.6671047210693</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">10.7023487091064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8550710678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0900297164917</t>
+    <t xml:space="preserve">10.8550720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0900287628174</t>
   </si>
   <si>
     <t xml:space="preserve">11.0195417404175</t>
@@ -1613,61 +1613,61 @@
     <t xml:space="preserve">11.2310047149658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3837280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1722660064697</t>
+    <t xml:space="preserve">11.3837261199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1722650527954</t>
   </si>
   <si>
     <t xml:space="preserve">11.4189720153809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.30149269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1840143203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9255590438843</t>
+    <t xml:space="preserve">11.3014917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1840152740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9255599975586</t>
   </si>
   <si>
     <t xml:space="preserve">10.4556427001953</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6201124191284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1252737045288</t>
+    <t xml:space="preserve">10.6201133728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1252746582031</t>
   </si>
   <si>
     <t xml:space="preserve">11.113525390625</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9373083114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9725503921509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605176925659</t>
+    <t xml:space="preserve">10.9373064041138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9725513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1605167388916</t>
   </si>
   <si>
     <t xml:space="preserve">11.1487684249878</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0782823562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0430374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1017770767212</t>
+    <t xml:space="preserve">11.0782833099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0430383682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1017780303955</t>
   </si>
   <si>
     <t xml:space="preserve">10.902063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7375917434692</t>
+    <t xml:space="preserve">10.7375926971436</t>
   </si>
   <si>
     <t xml:space="preserve">10.432147026062</t>
@@ -1679,31 +1679,31 @@
     <t xml:space="preserve">10.6788530349731</t>
   </si>
   <si>
-    <t xml:space="preserve">10.643609046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8433227539062</t>
+    <t xml:space="preserve">10.6436100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8433218002319</t>
   </si>
   <si>
     <t xml:space="preserve">11.0665349960327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0312910079956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.242751121521</t>
+    <t xml:space="preserve">11.0312900543213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2427530288696</t>
   </si>
   <si>
     <t xml:space="preserve">11.4424667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.477710723877</t>
+    <t xml:space="preserve">11.4777097702026</t>
   </si>
   <si>
     <t xml:space="preserve">11.5247030258179</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6774253845215</t>
+    <t xml:space="preserve">11.6774263381958</t>
   </si>
   <si>
     <t xml:space="preserve">11.8066520690918</t>
@@ -1712,16 +1712,16 @@
     <t xml:space="preserve">11.6304330825806</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9535007476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8947620391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1870307922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.216402053833</t>
+    <t xml:space="preserve">11.953501701355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8947610855103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1870317459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2164030075073</t>
   </si>
   <si>
     <t xml:space="preserve">12.952073097229</t>
@@ -1730,7 +1730,7 @@
     <t xml:space="preserve">13.0392284393311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0998764038086</t>
+    <t xml:space="preserve">13.0998754501343</t>
   </si>
   <si>
     <t xml:space="preserve">13.130199432373</t>
@@ -1739,25 +1739,25 @@
     <t xml:space="preserve">12.917932510376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8572864532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9482564926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1908473968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4334383010864</t>
+    <t xml:space="preserve">12.8572874069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9482583999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1908464431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4334373474121</t>
   </si>
   <si>
     <t xml:space="preserve">13.3424654006958</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4940853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.403112411499</t>
+    <t xml:space="preserve">13.494083404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4031133651733</t>
   </si>
   <si>
     <t xml:space="preserve">12.64501953125</t>
@@ -1766,13 +1766,13 @@
     <t xml:space="preserve">12.1901626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3721036911011</t>
+    <t xml:space="preserve">12.3721055984497</t>
   </si>
   <si>
     <t xml:space="preserve">12.159839630127</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1173849105835</t>
+    <t xml:space="preserve">12.1173868179321</t>
   </si>
   <si>
     <t xml:space="preserve">12.4934005737305</t>
@@ -1784,61 +1784,61 @@
     <t xml:space="preserve">12.3114566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5540475845337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4327516555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4630756378174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5237245559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4024295806885</t>
+    <t xml:space="preserve">12.554048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4327526092529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4630765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5237236022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4024286270142</t>
   </si>
   <si>
     <t xml:space="preserve">12.6146945953369</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3417806625366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663125991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9785804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8269605636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0089044570923</t>
+    <t xml:space="preserve">12.3417825698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663145065308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9785814285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8269624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0089054107666</t>
   </si>
   <si>
     <t xml:space="preserve">12.8876085281372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6753425598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7359914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4637622833252</t>
+    <t xml:space="preserve">12.6753444671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.735990524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4637613296509</t>
   </si>
   <si>
     <t xml:space="preserve">13.6457042694092</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9186191558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7670001983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8276472091675</t>
+    <t xml:space="preserve">13.9186182022095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7669973373413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8276453018188</t>
   </si>
   <si>
     <t xml:space="preserve">13.9792652130127</t>
@@ -1847,31 +1847,31 @@
     <t xml:space="preserve">14.1005611419678</t>
   </si>
   <si>
-    <t xml:space="preserve">14.070237159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7366743087769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7973232269287</t>
+    <t xml:space="preserve">14.0702362060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7366752624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7973222732544</t>
   </si>
   <si>
     <t xml:space="preserve">14.1915321350098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8579702377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1308851242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2218580245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4947690963745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4644470214844</t>
+    <t xml:space="preserve">13.8579711914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1308841705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2218561172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4947710037231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4644460678101</t>
   </si>
   <si>
     <t xml:space="preserve">14.3734750747681</t>
@@ -1880,25 +1880,25 @@
     <t xml:space="preserve">14.8889799118042</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1922178268433</t>
+    <t xml:space="preserve">15.1922168731689</t>
   </si>
   <si>
     <t xml:space="preserve">15.313512802124</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2528657913208</t>
+    <t xml:space="preserve">15.2528648376465</t>
   </si>
   <si>
     <t xml:space="preserve">15.3741607666016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3438348770142</t>
+    <t xml:space="preserve">15.3438367843628</t>
   </si>
   <si>
     <t xml:space="preserve">15.4954557418823</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1929054260254</t>
+    <t xml:space="preserve">16.1929035186768</t>
   </si>
   <si>
     <t xml:space="preserve">16.4354934692383</t>
@@ -1916,19 +1916,19 @@
     <t xml:space="preserve">16.7084064483643</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1935882568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8910350799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.52783203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3155689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6794509887695</t>
+    <t xml:space="preserve">17.1935863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8910331726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5278339385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3155670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6794528961182</t>
   </si>
   <si>
     <t xml:space="preserve">19.3768997192383</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">20.0743465423584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6498165130615</t>
+    <t xml:space="preserve">19.6498146057129</t>
   </si>
   <si>
     <t xml:space="preserve">19.4072246551514</t>
@@ -1952,40 +1952,40 @@
     <t xml:space="preserve">19.0433387756348</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1039848327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9826908111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2252807617188</t>
+    <t xml:space="preserve">19.1039867401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9826889038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2252826690674</t>
   </si>
   <si>
     <t xml:space="preserve">18.9220428466797</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8007488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4065399169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1942691802979</t>
+    <t xml:space="preserve">18.8007469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4065380096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1942710876465</t>
   </si>
   <si>
     <t xml:space="preserve">18.6188049316406</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4671878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.254919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3762168884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6491260528564</t>
+    <t xml:space="preserve">18.4671859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2549209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3762130737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6491298675537</t>
   </si>
   <si>
     <t xml:space="preserve">18.7401008605957</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">18.8917198181152</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5884799957275</t>
+    <t xml:space="preserve">18.5884819030762</t>
   </si>
   <si>
     <t xml:space="preserve">18.345890045166</t>
@@ -2006,19 +2006,19 @@
     <t xml:space="preserve">18.0426540374756</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1033000946045</t>
+    <t xml:space="preserve">18.1033020019531</t>
   </si>
   <si>
     <t xml:space="preserve">17.982006072998</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9213581085205</t>
+    <t xml:space="preserve">17.9213562011719</t>
   </si>
   <si>
     <t xml:space="preserve">17.8000621795654</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7090930938721</t>
+    <t xml:space="preserve">17.7090911865234</t>
   </si>
   <si>
     <t xml:space="preserve">17.5271492004395</t>
@@ -2030,19 +2030,19 @@
     <t xml:space="preserve">17.4361763000488</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7993812561035</t>
+    <t xml:space="preserve">16.7993774414062</t>
   </si>
   <si>
     <t xml:space="preserve">16.7387313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0722904205322</t>
+    <t xml:space="preserve">17.0722923278809</t>
   </si>
   <si>
     <t xml:space="preserve">17.6484451293945</t>
   </si>
   <si>
-    <t xml:space="preserve">17.587797164917</t>
+    <t xml:space="preserve">17.5877952575684</t>
   </si>
   <si>
     <t xml:space="preserve">17.860710144043</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">16.3748455047607</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1625785827637</t>
+    <t xml:space="preserve">16.1625804901123</t>
   </si>
   <si>
     <t xml:space="preserve">15.6167516708374</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">14.7373600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2521810531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3047094345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3896160125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76425933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0189790725708</t>
+    <t xml:space="preserve">14.2521800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.304708480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3896150588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76426029205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0189800262451</t>
   </si>
   <si>
     <t xml:space="preserve">9.63083457946777</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">9.18204307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09713459014893</t>
+    <t xml:space="preserve">9.09713554382324</t>
   </si>
   <si>
     <t xml:space="preserve">9.71574115753174</t>
@@ -2099,16 +2099,16 @@
     <t xml:space="preserve">9.66722297668457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373094558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5041608810425</t>
+    <t xml:space="preserve">10.2373104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5041589736938</t>
   </si>
   <si>
     <t xml:space="preserve">10.6133251190186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1591539382935</t>
+    <t xml:space="preserve">11.1591548919678</t>
   </si>
   <si>
     <t xml:space="preserve">11.2683200836182</t>
@@ -2123,22 +2123,22 @@
     <t xml:space="preserve">11.0985069274902</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3774843215942</t>
+    <t xml:space="preserve">11.3774852752686</t>
   </si>
   <si>
     <t xml:space="preserve">11.2440614700317</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6079454421997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7656297683716</t>
+    <t xml:space="preserve">11.6079473495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7656307220459</t>
   </si>
   <si>
     <t xml:space="preserve">12.068868637085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5594291687012</t>
+    <t xml:space="preserve">11.5594282150269</t>
   </si>
   <si>
     <t xml:space="preserve">11.4381332397461</t>
@@ -2147,25 +2147,25 @@
     <t xml:space="preserve">11.886926651001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.874794960022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9475746154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1295156478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3036832809448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1247577667236</t>
+    <t xml:space="preserve">11.8747959136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9475736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1295146942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3036823272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1247568130493</t>
   </si>
   <si>
     <t xml:space="preserve">13.7467832565308</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3735675811768</t>
+    <t xml:space="preserve">13.3735666275024</t>
   </si>
   <si>
     <t xml:space="preserve">13.0936546325684</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">12.9070472717285</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6893377304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8759469985962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7204399108887</t>
+    <t xml:space="preserve">12.689338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8759460449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7204389572144</t>
   </si>
   <si>
     <t xml:space="preserve">12.5649318695068</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">12.5027303695679</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7515411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2491617202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0003509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2180604934692</t>
+    <t xml:space="preserve">12.751540184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2491607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0003519058228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2180595397949</t>
   </si>
   <si>
     <t xml:space="preserve">13.7156810760498</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">14.2755060195923</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0577955245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.586519241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6176195144653</t>
+    <t xml:space="preserve">14.0577974319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5865182876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6176204681396</t>
   </si>
   <si>
     <t xml:space="preserve">14.8975324630737</t>
@@ -2222,19 +2222,19 @@
     <t xml:space="preserve">15.0841398239136</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6128635406494</t>
+    <t xml:space="preserve">15.6128644943237</t>
   </si>
   <si>
     <t xml:space="preserve">15.1774444580078</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2085447311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.990837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8042278289795</t>
+    <t xml:space="preserve">15.2085466384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9908361434937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8042287826538</t>
   </si>
   <si>
     <t xml:space="preserve">14.3377075195312</t>
@@ -2246,19 +2246,19 @@
     <t xml:space="preserve">13.6223773956299</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9644937515259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6487216949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4310131072998</t>
+    <t xml:space="preserve">13.9644918441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.648720741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4310111999512</t>
   </si>
   <si>
     <t xml:space="preserve">14.1822004318237</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9333906173706</t>
+    <t xml:space="preserve">13.9333915710449</t>
   </si>
   <si>
     <t xml:space="preserve">13.9022903442383</t>
@@ -2273,46 +2273,46 @@
     <t xml:space="preserve">14.7731266021729</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0530385971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7420263290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9238777160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7994699478149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4262542724609</t>
+    <t xml:space="preserve">15.0530376434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7420253753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9238767623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7994709014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4262533187866</t>
   </si>
   <si>
     <t xml:space="preserve">15.3951530456543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1463441848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5506591796875</t>
+    <t xml:space="preserve">15.1463432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5506601333618</t>
   </si>
   <si>
     <t xml:space="preserve">15.9860782623291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6703052520752</t>
+    <t xml:space="preserve">16.6703071594238</t>
   </si>
   <si>
     <t xml:space="preserve">16.1726856231689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5817594528198</t>
+    <t xml:space="preserve">15.5817604064941</t>
   </si>
   <si>
     <t xml:space="preserve">15.4884576797485</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3281936645508</t>
+    <t xml:space="preserve">16.3281917572021</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415843963623</t>
@@ -2321,7 +2321,7 @@
     <t xml:space="preserve">16.2970924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4837017059326</t>
+    <t xml:space="preserve">16.483699798584</t>
   </si>
   <si>
     <t xml:space="preserve">16.4525985717773</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">16.7014102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">16.794713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8569183349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.514799118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4214973449707</t>
+    <t xml:space="preserve">16.7947120666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8569164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5148010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4214992523193</t>
   </si>
   <si>
     <t xml:space="preserve">16.3903961181641</t>
@@ -2357,19 +2357,19 @@
     <t xml:space="preserve">16.0793838500977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8305730819702</t>
+    <t xml:space="preserve">15.8305711746216</t>
   </si>
   <si>
     <t xml:space="preserve">15.7372674942017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2396469116211</t>
+    <t xml:space="preserve">15.2396459579468</t>
   </si>
   <si>
     <t xml:space="preserve">14.9597339630127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8664321899414</t>
+    <t xml:space="preserve">14.8664312362671</t>
   </si>
   <si>
     <t xml:space="preserve">15.1152410507202</t>
@@ -2378,85 +2378,85 @@
     <t xml:space="preserve">14.8353290557861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4932136535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3066062927246</t>
+    <t xml:space="preserve">14.4932146072388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3066072463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.8711881637573</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4979734420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4716291427612</t>
+    <t xml:space="preserve">13.4979724884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4716300964355</t>
   </si>
   <si>
     <t xml:space="preserve">11.8185014724731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1170740127563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1917181015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3410034179688</t>
+    <t xml:space="preserve">12.1170749664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1917190551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3410043716431</t>
   </si>
   <si>
     <t xml:space="preserve">12.8137435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7826414108276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9692506790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8400869369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5601749420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364052772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5243167877197</t>
+    <t xml:space="preserve">12.782642364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9692497253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8400859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5601739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3640518188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5243158340454</t>
   </si>
   <si>
     <t xml:space="preserve">14.2444038391113</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3999109268188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1199998855591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1511011123657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6798229217529</t>
+    <t xml:space="preserve">14.3999118804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1199979782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1511001586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798238754272</t>
   </si>
   <si>
     <t xml:space="preserve">14.0266942977905</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5912752151489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.213303565979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5554170608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0888977050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.808985710144</t>
+    <t xml:space="preserve">13.5912780761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2133045196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5554180145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0888986587524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8089866638184</t>
   </si>
   <si>
     <t xml:space="preserve">13.43577003479</t>
@@ -2471,22 +2471,22 @@
     <t xml:space="preserve">13.7778844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4046678543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1558570861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0625534057617</t>
+    <t xml:space="preserve">13.4046688079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.155858039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.062554359436</t>
   </si>
   <si>
     <t xml:space="preserve">13.0314521789551</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4668703079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4985580444336</t>
+    <t xml:space="preserve">13.466872215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4985570907593</t>
   </si>
   <si>
     <t xml:space="preserve">13.3084373474121</t>
@@ -2498,22 +2498,22 @@
     <t xml:space="preserve">13.2133779525757</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0549440383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0866289138794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1500034332275</t>
+    <t xml:space="preserve">13.0549430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0866298675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1500043869019</t>
   </si>
   <si>
     <t xml:space="preserve">13.2767505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5302448272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2450637817383</t>
+    <t xml:space="preserve">13.5302457809448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2450647354126</t>
   </si>
   <si>
     <t xml:space="preserve">13.0232563018799</t>
@@ -2522,16 +2522,16 @@
     <t xml:space="preserve">12.8965101242065</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8014488220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.738076210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.636679649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9915704727173</t>
+    <t xml:space="preserve">12.8014497756958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7380771636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6366806030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.991569519043</t>
   </si>
   <si>
     <t xml:space="preserve">13.2014846801758</t>
@@ -2543,16 +2543,16 @@
     <t xml:space="preserve">14.0427570343018</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1398258209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0751132965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9456853866577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7515468597412</t>
+    <t xml:space="preserve">14.1398267745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0751123428345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.945686340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7515459060669</t>
   </si>
   <si>
     <t xml:space="preserve">14.0103988647461</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">15.0458106994629</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8840274810791</t>
+    <t xml:space="preserve">14.8840284347534</t>
   </si>
   <si>
     <t xml:space="preserve">14.4633922576904</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">14.1074686050415</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2692518234253</t>
+    <t xml:space="preserve">14.2692527770996</t>
   </si>
   <si>
     <t xml:space="preserve">14.2368955612183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9133291244507</t>
+    <t xml:space="preserve">13.913330078125</t>
   </si>
   <si>
     <t xml:space="preserve">13.7191905975342</t>
@@ -2615,16 +2615,16 @@
     <t xml:space="preserve">13.6221199035645</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4279804229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9780435562134</t>
+    <t xml:space="preserve">13.4279813766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9780426025391</t>
   </si>
   <si>
     <t xml:space="preserve">13.8486166000366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.366322517395</t>
+    <t xml:space="preserve">14.3663234710693</t>
   </si>
   <si>
     <t xml:space="preserve">14.8193140029907</t>
@@ -2639,31 +2639,31 @@
     <t xml:space="preserve">14.9487409591675</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9163837432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0134544372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3370208740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2075929641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1752367019653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3046627044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2399501800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5311594009399</t>
+    <t xml:space="preserve">14.9163827896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0134534835815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3370199203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.142879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2075939178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1752376556396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3046636581421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2399492263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5311584472656</t>
   </si>
   <si>
     <t xml:space="preserve">15.8547248840332</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">16.048864364624</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1135787963867</t>
+    <t xml:space="preserve">16.1135768890381</t>
   </si>
   <si>
     <t xml:space="preserve">15.6929426193237</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0812225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2753620147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6282291412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7252979278564</t>
+    <t xml:space="preserve">16.0812206268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2753601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.628228187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7252988815308</t>
   </si>
   <si>
     <t xml:space="preserve">15.5958728790283</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">15.4664459228516</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1105241775513</t>
+    <t xml:space="preserve">15.110523223877</t>
   </si>
   <si>
     <t xml:space="preserve">15.4988031387329</t>
@@ -2705,28 +2705,28 @@
     <t xml:space="preserve">15.3693761825562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2723064422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8870820999146</t>
+    <t xml:space="preserve">15.2723073959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8870811462402</t>
   </si>
   <si>
     <t xml:space="preserve">16.8254222869873</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6312828063965</t>
+    <t xml:space="preserve">16.6312847137451</t>
   </si>
   <si>
     <t xml:space="preserve">16.5989265441895</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5342121124268</t>
+    <t xml:space="preserve">16.5342140197754</t>
   </si>
   <si>
     <t xml:space="preserve">16.7283535003662</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4695014953613</t>
+    <t xml:space="preserve">16.4694995880127</t>
   </si>
   <si>
     <t xml:space="preserve">16.4047870635986</t>
@@ -2753,16 +2753,16 @@
     <t xml:space="preserve">17.4078407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5665721893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2430038452148</t>
+    <t xml:space="preserve">16.5665702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2430057525635</t>
   </si>
   <si>
     <t xml:space="preserve">16.016508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3724308013916</t>
+    <t xml:space="preserve">16.372428894043</t>
   </si>
   <si>
     <t xml:space="preserve">16.1459350585938</t>
@@ -2774,37 +2774,37 @@
     <t xml:space="preserve">16.3077182769775</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9841527938843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8223686218262</t>
+    <t xml:space="preserve">15.98415184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8223695755005</t>
   </si>
   <si>
     <t xml:space="preserve">15.7900114059448</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9517936706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6605854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5635147094727</t>
+    <t xml:space="preserve">15.9517946243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6605863571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.563515663147</t>
   </si>
   <si>
     <t xml:space="preserve">15.4340896606445</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9810962677002</t>
+    <t xml:space="preserve">14.9810972213745</t>
   </si>
   <si>
     <t xml:space="preserve">14.8516712188721</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7576560974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0781660079956</t>
+    <t xml:space="preserve">15.7576551437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0781669616699</t>
   </si>
   <si>
     <t xml:space="preserve">14.6575317382812</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">14.5604619979858</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7869577407837</t>
+    <t xml:space="preserve">14.786958694458</t>
   </si>
   <si>
     <t xml:space="preserve">14.2045392990112</t>
@@ -3546,6 +3546,9 @@
   </si>
   <si>
     <t xml:space="preserve">28.0499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
   </si>
 </sst>
 </file>
@@ -59995,7 +59998,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494444444</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>293593</v>
@@ -60016,6 +60019,32 @@
         <v>1177</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6496412037</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>87200</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>28</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/SG.MI.xlsx
+++ b/data/SG.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">7.42656660079956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45318651199341</t>
+    <t xml:space="preserve">7.45318603515625</t>
   </si>
   <si>
     <t xml:space="preserve">7.17635297775269</t>
@@ -56,106 +56,106 @@
     <t xml:space="preserve">6.83563613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78239917755127</t>
+    <t xml:space="preserve">6.78239822387695</t>
   </si>
   <si>
     <t xml:space="preserve">6.86757755279541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00599384307861</t>
+    <t xml:space="preserve">7.00599527359009</t>
   </si>
   <si>
     <t xml:space="preserve">6.73448514938354</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25002813339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83478021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39909219741821</t>
+    <t xml:space="preserve">6.25002861022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83477926254272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39909172058105</t>
   </si>
   <si>
     <t xml:space="preserve">6.19146776199341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60139274597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77175092697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84628200531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71319007873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51088905334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56945085525513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75578022003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61736440658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3884449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12225866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97851943969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04687070846558</t>
+    <t xml:space="preserve">6.60139226913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77175140380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84628295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71318960189819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51088953018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56945037841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75577926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61736345291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38844442367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12225961685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97851848602295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04687166213989</t>
   </si>
   <si>
     <t xml:space="preserve">5.08679962158203</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1639928817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82327556610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.92176389694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03090047836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.94039678573608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90845537185669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78334808349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5313286781311</t>
+    <t xml:space="preserve">5.16399192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82327604293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.92176342010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03089952468872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.94039583206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90845584869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78334760665894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53132820129395</t>
   </si>
   <si>
     <t xml:space="preserve">5.36096954345703</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40888261795044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34499835968018</t>
+    <t xml:space="preserve">5.40888357162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34499883651733</t>
   </si>
   <si>
     <t xml:space="preserve">5.45147275924683</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71233415603638</t>
+    <t xml:space="preserve">5.71233463287354</t>
   </si>
   <si>
     <t xml:space="preserve">6.0690221786499</t>
@@ -164,22 +164,22 @@
     <t xml:space="preserve">5.87204551696777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74959993362427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72298192977905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82413148880005</t>
+    <t xml:space="preserve">5.74960041046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72298240661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82413196563721</t>
   </si>
   <si>
     <t xml:space="preserve">5.69636297225952</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45679616928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51535654067993</t>
+    <t xml:space="preserve">5.45679712295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51535701751709</t>
   </si>
   <si>
     <t xml:space="preserve">5.685715675354</t>
@@ -188,67 +188,67 @@
     <t xml:space="preserve">6.28729438781738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2819709777832</t>
+    <t xml:space="preserve">6.28197050094604</t>
   </si>
   <si>
     <t xml:space="preserve">6.32988405227661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18081998825073</t>
+    <t xml:space="preserve">6.18082046508789</t>
   </si>
   <si>
     <t xml:space="preserve">5.98916673660278</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2287335395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25535202026367</t>
+    <t xml:space="preserve">6.22873258590698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25535154342651</t>
   </si>
   <si>
     <t xml:space="preserve">6.31923627853394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21276235580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17017221450806</t>
+    <t xml:space="preserve">6.21276187896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17017269134521</t>
   </si>
   <si>
     <t xml:space="preserve">6.00513792037964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88801670074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56327056884766</t>
+    <t xml:space="preserve">5.88801622390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56327152252197</t>
   </si>
   <si>
     <t xml:space="preserve">5.95190095901489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89334011077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7176570892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87736892700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86672163009644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60053682327271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56859397888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4621205329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7070107460022</t>
+    <t xml:space="preserve">5.89333963394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71765756607056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87736988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86672210693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60053586959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56859350204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46212005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70701122283936</t>
   </si>
   <si>
     <t xml:space="preserve">5.65909671783447</t>
@@ -257,130 +257,130 @@
     <t xml:space="preserve">5.70168685913086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78999948501587</t>
+    <t xml:space="preserve">5.78999900817871</t>
   </si>
   <si>
     <t xml:space="preserve">5.59129619598389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60233449935913</t>
+    <t xml:space="preserve">5.60233497619629</t>
   </si>
   <si>
     <t xml:space="preserve">5.51402187347412</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64097213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6961669921875</t>
+    <t xml:space="preserve">5.64097118377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69616746902466</t>
   </si>
   <si>
     <t xml:space="preserve">5.88383150100708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.839674949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00526142120361</t>
+    <t xml:space="preserve">5.83967542648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00526189804077</t>
   </si>
   <si>
     <t xml:space="preserve">5.95006561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85071420669556</t>
+    <t xml:space="preserve">5.85071516036987</t>
   </si>
   <si>
     <t xml:space="preserve">5.82311677932739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65753030776978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57473754882812</t>
+    <t xml:space="preserve">5.65753126144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57473850250244</t>
   </si>
   <si>
     <t xml:space="preserve">5.71272611618042</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98870229721069</t>
+    <t xml:space="preserve">5.98870277404785</t>
   </si>
   <si>
     <t xml:space="preserve">5.99974250793457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09909296035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47442245483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57929372787476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46338367462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45786380767822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29227828979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30331707000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38610982894897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4302659034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48546171188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31987571716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1266918182373</t>
+    <t xml:space="preserve">6.09909391403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47442293167114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57929420471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46338319778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45786333084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29227733612061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30331659317017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38610935211182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43026638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48546123504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31987524032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12669134140015</t>
   </si>
   <si>
     <t xml:space="preserve">6.0714955329895</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14324998855591</t>
+    <t xml:space="preserve">6.14324951171875</t>
   </si>
   <si>
     <t xml:space="preserve">6.36955165863037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44130611419678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4192271232605</t>
+    <t xml:space="preserve">6.4413046836853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41922760009766</t>
   </si>
   <si>
     <t xml:space="preserve">6.50201988220215</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04389810562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2039647102356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18188667297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22604274749756</t>
+    <t xml:space="preserve">6.04389905929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20396518707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18188714981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22604322433472</t>
   </si>
   <si>
     <t xml:space="preserve">6.32539510726929</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35299253463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54065799713135</t>
+    <t xml:space="preserve">6.35299301147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54065752029419</t>
   </si>
   <si>
     <t xml:space="preserve">6.55169630050659</t>
@@ -395,67 +395,67 @@
     <t xml:space="preserve">6.83871269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78903722763062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92702531814575</t>
+    <t xml:space="preserve">6.78903675079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92702579498291</t>
   </si>
   <si>
     <t xml:space="preserve">7.12572765350342</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06501483917236</t>
+    <t xml:space="preserve">7.06501293182373</t>
   </si>
   <si>
     <t xml:space="preserve">6.97118139266968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92150545120239</t>
+    <t xml:space="preserve">6.92150497436523</t>
   </si>
   <si>
     <t xml:space="preserve">6.91598606109619</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99326086044312</t>
+    <t xml:space="preserve">6.99325942993164</t>
   </si>
   <si>
     <t xml:space="preserve">6.86631011962891</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57377433776855</t>
+    <t xml:space="preserve">6.57377481460571</t>
   </si>
   <si>
     <t xml:space="preserve">6.62345027923584</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59033298492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72832155227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78351640701294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95462322235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91046714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00981855392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89942741394043</t>
+    <t xml:space="preserve">6.59033250808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72832107543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7835168838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95462274551392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91046762466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0098180770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89942693710327</t>
   </si>
   <si>
     <t xml:space="preserve">6.87182950973511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80559539794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82215309143066</t>
+    <t xml:space="preserve">6.80559492111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82215404510498</t>
   </si>
   <si>
     <t xml:space="preserve">6.71176290512085</t>
@@ -467,19 +467,19 @@
     <t xml:space="preserve">7.05397462844849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08157205581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19196271896362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35754919052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34099006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25819730758667</t>
+    <t xml:space="preserve">7.08157253265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19196319580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3575496673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34099054336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25819778442383</t>
   </si>
   <si>
     <t xml:space="preserve">7.27475690841675</t>
@@ -491,49 +491,49 @@
     <t xml:space="preserve">7.25267791748047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1754035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29683446884155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13676738739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15332555770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31891298294067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22508096694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08709192276001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13124799728394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97670078277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07605218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04293489456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07053327560425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10917043685913</t>
+    <t xml:space="preserve">7.17540454864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29683399200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13676786422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1533260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31891250610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22508001327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08709239959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13124895095825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97670125961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07605266571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04293584823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07053375244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10916948318481</t>
   </si>
   <si>
     <t xml:space="preserve">7.14780616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03741550445557</t>
+    <t xml:space="preserve">7.03741645812988</t>
   </si>
   <si>
     <t xml:space="preserve">6.94358348846436</t>
@@ -545,22 +545,22 @@
     <t xml:space="preserve">6.93806409835815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89390754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01630020141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31435585021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44682550430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49650096893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25364112854004</t>
+    <t xml:space="preserve">6.89390802383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01630115509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31435537338257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44682502746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49650144577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25364017486572</t>
   </si>
   <si>
     <t xml:space="preserve">5.96110534667969</t>
@@ -569,22 +569,22 @@
     <t xml:space="preserve">5.80103874206543</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98318338394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80655860900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90039014816284</t>
+    <t xml:space="preserve">5.98318386077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80655765533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.900390625</t>
   </si>
   <si>
     <t xml:space="preserve">5.92798757553101</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77896022796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61337423324585</t>
+    <t xml:space="preserve">5.77895975112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61337375640869</t>
   </si>
   <si>
     <t xml:space="preserve">5.6851282119751</t>
@@ -593,52 +593,52 @@
     <t xml:space="preserve">5.79551935195923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08805465698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19844579696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13773012161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17084741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28123903274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5682544708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73384094238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6344895362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4909815788269</t>
+    <t xml:space="preserve">6.08805513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19844484329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13773059844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17084789276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2812385559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56825494766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73384046554565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63448905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49098110198975</t>
   </si>
   <si>
     <t xml:space="preserve">6.67864561080933</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6400089263916</t>
+    <t xml:space="preserve">6.64000844955444</t>
   </si>
   <si>
     <t xml:space="preserve">6.58481407165527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70624446868896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70072460174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76695919036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56273603439331</t>
+    <t xml:space="preserve">6.70624303817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70072507858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76695775985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56273555755615</t>
   </si>
   <si>
     <t xml:space="preserve">6.54617643356323</t>
@@ -647,31 +647,31 @@
     <t xml:space="preserve">6.51305961608887</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4689040184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37507104873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38059139251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43578577041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2646803855896</t>
+    <t xml:space="preserve">6.46890258789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37507152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38058996200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43578672409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26468086242676</t>
   </si>
   <si>
     <t xml:space="preserve">6.23708248138428</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30883693695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33643436431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39162921905518</t>
+    <t xml:space="preserve">6.30883646011353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33643341064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39163017272949</t>
   </si>
   <si>
     <t xml:space="preserve">6.39714908599854</t>
@@ -680,91 +680,91 @@
     <t xml:space="preserve">6.45234441757202</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52409887313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66208696365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69520425796509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11468982696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09261083602905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32443189620972</t>
+    <t xml:space="preserve">6.52409839630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66208648681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69520473480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11468935012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09261131286621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32443332672119</t>
   </si>
   <si>
     <t xml:space="preserve">7.46793985366821</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5065770149231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00333595275879</t>
+    <t xml:space="preserve">7.50657749176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00333690643311</t>
   </si>
   <si>
     <t xml:space="preserve">8.09716796875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83774852752686</t>
+    <t xml:space="preserve">7.83774948120117</t>
   </si>
   <si>
     <t xml:space="preserve">7.76599502563477</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82119178771973</t>
+    <t xml:space="preserve">7.82119131088257</t>
   </si>
   <si>
     <t xml:space="preserve">7.86534786224365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92054176330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27931213378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50009536743164</t>
+    <t xml:space="preserve">7.92054319381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27931308746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50009346008301</t>
   </si>
   <si>
     <t xml:space="preserve">8.52217197418213</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72087574005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87542247772217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18451690673828</t>
+    <t xml:space="preserve">8.72087669372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8754243850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1845178604126</t>
   </si>
   <si>
     <t xml:space="preserve">9.30594730377197</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48809242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41633796691895</t>
+    <t xml:space="preserve">9.48809337615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41633892059326</t>
   </si>
   <si>
     <t xml:space="preserve">9.71991348266602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71439361572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54880714416504</t>
+    <t xml:space="preserve">9.71439266204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54880619049072</t>
   </si>
   <si>
     <t xml:space="preserve">9.43841743469238</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2065954208374</t>
+    <t xml:space="preserve">9.20659637451172</t>
   </si>
   <si>
     <t xml:space="preserve">9.10724449157715</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">9.15692043304443</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3225040435791</t>
+    <t xml:space="preserve">9.32250595092773</t>
   </si>
   <si>
     <t xml:space="preserve">9.27283000946045</t>
@@ -782,19 +782,19 @@
     <t xml:space="preserve">9.22315406799316</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10172462463379</t>
+    <t xml:space="preserve">9.10172367095947</t>
   </si>
   <si>
     <t xml:space="preserve">9.19003677368164</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07964611053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91405868530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94165802001953</t>
+    <t xml:space="preserve">9.07964706420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91406059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94165897369385</t>
   </si>
   <si>
     <t xml:space="preserve">9.31698703765869</t>
@@ -803,34 +803,34 @@
     <t xml:space="preserve">9.12380313873291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53224849700928</t>
+    <t xml:space="preserve">9.53224754333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.7309513092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90757846832275</t>
+    <t xml:space="preserve">9.9075756072998</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207489013672</t>
   </si>
   <si>
-    <t xml:space="preserve">10.562388420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4314270019531</t>
+    <t xml:space="preserve">10.5623874664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4314260482788</t>
   </si>
   <si>
     <t xml:space="preserve">10.3460168838501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2492179870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4143438339233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5054502487183</t>
+    <t xml:space="preserve">10.2492189407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.414345741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5054492950439</t>
   </si>
   <si>
     <t xml:space="preserve">10.590859413147</t>
@@ -845,49 +845,49 @@
     <t xml:space="preserve">10.38587474823</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4029569625854</t>
+    <t xml:space="preserve">10.4029560089111</t>
   </si>
   <si>
     <t xml:space="preserve">10.6079406738281</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7616786956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9609708786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0179090499878</t>
+    <t xml:space="preserve">10.761679649353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9609680175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0179100036621</t>
   </si>
   <si>
     <t xml:space="preserve">10.9325008392334</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7958421707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7787618637085</t>
+    <t xml:space="preserve">10.8186187744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7958431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7787599563599</t>
   </si>
   <si>
     <t xml:space="preserve">11.31969165802</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0691576004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8983364105225</t>
+    <t xml:space="preserve">11.0691547393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8983345031738</t>
   </si>
   <si>
     <t xml:space="preserve">10.647798538208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9097232818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4542036056519</t>
+    <t xml:space="preserve">10.909722328186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4542016983032</t>
   </si>
   <si>
     <t xml:space="preserve">10.7218208312988</t>
@@ -896,13 +896,13 @@
     <t xml:space="preserve">10.6819629669189</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2321348190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2719945907593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3517112731934</t>
+    <t xml:space="preserve">10.2321338653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.271993637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3517093658447</t>
   </si>
   <si>
     <t xml:space="preserve">10.3403224945068</t>
@@ -911,16 +911,16 @@
     <t xml:space="preserve">10.704737663269</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2606058120728</t>
+    <t xml:space="preserve">10.2606067657471</t>
   </si>
   <si>
     <t xml:space="preserve">10.3630981445312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1922788619995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0499277114868</t>
+    <t xml:space="preserve">10.1922760009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0499267578125</t>
   </si>
   <si>
     <t xml:space="preserve">9.95882415771484</t>
@@ -929,58 +929,55 @@
     <t xml:space="preserve">9.79369735717773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1125621795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78231048583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67981624603271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82216835021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74245071411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90757751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80508518218994</t>
+    <t xml:space="preserve">10.1125631332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78230953216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67981719970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82216739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74245166778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80508613586426</t>
   </si>
   <si>
     <t xml:space="preserve">10.1353378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2378301620483</t>
+    <t xml:space="preserve">10.237829208374</t>
   </si>
   <si>
     <t xml:space="preserve">10.175196647644</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96451663970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0157642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0214576721191</t>
+    <t xml:space="preserve">9.96451759338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0157632827759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0214586257935</t>
   </si>
   <si>
     <t xml:space="preserve">9.98160076141357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1410322189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97021293640137</t>
+    <t xml:space="preserve">10.1410312652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97021102905273</t>
   </si>
   <si>
     <t xml:space="preserve">10.0897855758667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93604850769043</t>
+    <t xml:space="preserve">9.9360466003418</t>
   </si>
   <si>
     <t xml:space="preserve">10.09547996521</t>
@@ -995,70 +992,70 @@
     <t xml:space="preserve">9.78800296783447</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99298667907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0271520614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90188312530518</t>
+    <t xml:space="preserve">10.3289346694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99298763275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.027153968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90188407897949</t>
   </si>
   <si>
     <t xml:space="preserve">10.2093601226807</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2890777587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3061580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3346281051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3915681838989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4598970413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9040298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3595504760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3424692153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4449596405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0997705459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1680994033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1908760070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6350078582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5439043045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8513803482056</t>
+    <t xml:space="preserve">10.2890748977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3061599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3346271514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3915672302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4598979949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9040279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3595523834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3424673080444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4449605941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0997714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1681003570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1908750534058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6350088119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.543906211853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8513813018799</t>
   </si>
   <si>
     <t xml:space="preserve">12.8912382125854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0108137130737</t>
+    <t xml:space="preserve">13.010814666748</t>
   </si>
   <si>
     <t xml:space="preserve">13.1759395599365</t>
@@ -1070,67 +1067,67 @@
     <t xml:space="preserve">14.0926752090454</t>
   </si>
   <si>
-    <t xml:space="preserve">14.104061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2350254058838</t>
+    <t xml:space="preserve">14.1040620803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2350263595581</t>
   </si>
   <si>
     <t xml:space="preserve">14.71901512146</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2314767837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0891275405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1289834976196</t>
+    <t xml:space="preserve">15.2314777374268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0891265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1289844512939</t>
   </si>
   <si>
     <t xml:space="preserve">15.772406578064</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3738279342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5731172561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3510503768921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9752473831177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2599477767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2371683120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.413685798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3055000305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.356743812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9923295974731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8898372650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8499774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9980239868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8385896682739</t>
+    <t xml:space="preserve">15.3738269805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5731182098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3510513305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9752464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2599458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2371711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4136848449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3054990768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3567447662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9923267364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8898363113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8499784469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9980220794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8385906219482</t>
   </si>
   <si>
     <t xml:space="preserve">15.1574544906616</t>
@@ -1139,247 +1136,247 @@
     <t xml:space="preserve">15.0492687225342</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0948219299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.151762008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0720453262329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.861367225647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8649129867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1666975021362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7225646972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9787940979004</t>
+    <t xml:space="preserve">15.094820022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1517601013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0720443725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8613681793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8649158477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1666965484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7225637435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9787931442261</t>
   </si>
   <si>
     <t xml:space="preserve">13.7681169509888</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4627866744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6734628677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044261932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7816505432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6620779037476</t>
+    <t xml:space="preserve">14.4627847671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6734647750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8044271469116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7816486358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6620759963989</t>
   </si>
   <si>
     <t xml:space="preserve">14.2065553665161</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1097574234009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1610050201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0072660446167</t>
+    <t xml:space="preserve">14.1097564697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1610040664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0072650909424</t>
   </si>
   <si>
     <t xml:space="preserve">13.893383026123</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9446325302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2236375808716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1837778091431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1439199447632</t>
+    <t xml:space="preserve">13.9446296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2236385345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1837797164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1439208984375</t>
   </si>
   <si>
     <t xml:space="preserve">14.3147411346436</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1154527664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0129585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0414295196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1325340270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9731006622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6827049255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6029891967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5232725143433</t>
+    <t xml:space="preserve">14.1154518127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0129594802856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.041428565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1325330734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9730997085571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6827058792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.602991104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5232744216919</t>
   </si>
   <si>
     <t xml:space="preserve">13.7339525222778</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5802145004272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0755920410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0642061233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2919645309448</t>
+    <t xml:space="preserve">13.5802154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0755929946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0642051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2919654846191</t>
   </si>
   <si>
     <t xml:space="preserve">15.3453559875488</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4592380523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4877071380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4307680130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2884159088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1175985336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0606575012207</t>
+    <t xml:space="preserve">15.4592370986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4877080917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4307689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2884168624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1175975799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.060658454895</t>
   </si>
   <si>
     <t xml:space="preserve">14.8328952789307</t>
   </si>
   <si>
-    <t xml:space="preserve">14.747486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9467754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5766677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7759590148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6336050033569</t>
+    <t xml:space="preserve">14.7474851608276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.94677734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5766649246216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7759561538696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6336069107056</t>
   </si>
   <si>
     <t xml:space="preserve">14.3773765563965</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3809232711792</t>
+    <t xml:space="preserve">13.3809242248535</t>
   </si>
   <si>
     <t xml:space="preserve">13.2955141067505</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6656255722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4093942642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9254035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2385740280151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3524541854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9538717269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8684635162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9823427200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6691722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.839991569519</t>
+    <t xml:space="preserve">13.6656246185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4093933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.925404548645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2385730743408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3524551391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9538726806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.868462562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9823417663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6691732406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8399925231934</t>
   </si>
   <si>
     <t xml:space="preserve">12.3275318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9574222564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2990636825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5268220901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.754581451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1246919631958</t>
+    <t xml:space="preserve">11.9574213027954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2990627288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5268230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7545824050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1246929168701</t>
   </si>
   <si>
     <t xml:space="preserve">13.3239831924438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2670431137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4698810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6976432800293</t>
+    <t xml:space="preserve">13.2670421600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4698829650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6976413726807</t>
   </si>
   <si>
     <t xml:space="preserve">12.783052444458</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6407041549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.612232208252</t>
+    <t xml:space="preserve">12.6407022476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6122312545776</t>
   </si>
   <si>
     <t xml:space="preserve">12.5552921295166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5837621688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.896933555603</t>
+    <t xml:space="preserve">12.5837640762329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8969326019287</t>
   </si>
   <si>
     <t xml:space="preserve">12.8115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4983530044556</t>
+    <t xml:space="preserve">12.4983510971069</t>
   </si>
   <si>
     <t xml:space="preserve">13.1531629562378</t>
@@ -1391,100 +1388,100 @@
     <t xml:space="preserve">13.0695524215698</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9814424514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8933343887329</t>
+    <t xml:space="preserve">12.9814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8933334350586</t>
   </si>
   <si>
     <t xml:space="preserve">13.0108127593994</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8052225112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8639640808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7171144485474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7758550643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.922703742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1282930374146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5702648162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1003503799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9241304397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009210586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.247200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1590890884399</t>
+    <t xml:space="preserve">12.8052244186401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8639650344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7171154022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7758541107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9227046966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1282911300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5702667236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1003494262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9241313934326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009201049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2471990585327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1590900421143</t>
   </si>
   <si>
     <t xml:space="preserve">11.5012073516846</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2779970169067</t>
+    <t xml:space="preserve">11.2779979705811</t>
   </si>
   <si>
     <t xml:space="preserve">11.4894590377808</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4072246551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0122404098511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7479124069214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6891736984253</t>
+    <t xml:space="preserve">11.4072227478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0122413635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7479133605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.689172744751</t>
   </si>
   <si>
     <t xml:space="preserve">12.3353090286255</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0681247711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7744274139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3926200866699</t>
+    <t xml:space="preserve">14.0681257247925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7744293212891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3926191329956</t>
   </si>
   <si>
     <t xml:space="preserve">13.480731010437</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6863174438477</t>
+    <t xml:space="preserve">13.6863164901733</t>
   </si>
   <si>
     <t xml:space="preserve">13.3338813781738</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4219903945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0401849746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0989227294922</t>
+    <t xml:space="preserve">13.4219913482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0401830673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0989217758179</t>
   </si>
   <si>
     <t xml:space="preserve">12.4527883529663</t>
@@ -1511,7 +1508,7 @@
     <t xml:space="preserve">12.6290063858032</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5115280151367</t>
+    <t xml:space="preserve">12.5115270614624</t>
   </si>
   <si>
     <t xml:space="preserve">12.3940477371216</t>
@@ -1520,34 +1517,34 @@
     <t xml:space="preserve">12.3646774291992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0709810256958</t>
+    <t xml:space="preserve">12.0709800720215</t>
   </si>
   <si>
     <t xml:space="preserve">12.0416097640991</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5408973693848</t>
+    <t xml:space="preserve">12.5408983230591</t>
   </si>
   <si>
     <t xml:space="preserve">12.6877470016479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.188458442688</t>
+    <t xml:space="preserve">12.1884603500366</t>
   </si>
   <si>
     <t xml:space="preserve">12.1297197341919</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5996360778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8653926849365</t>
+    <t xml:space="preserve">12.5996370315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8653917312622</t>
   </si>
   <si>
     <t xml:space="preserve">11.7361640930176</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7244157791138</t>
+    <t xml:space="preserve">11.7244167327881</t>
   </si>
   <si>
     <t xml:space="preserve">10.8785676956177</t>
@@ -1556,25 +1553,25 @@
     <t xml:space="preserve">11.137020111084</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5731210708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3969039916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3851547241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3734064102173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5026340484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3146667480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.267674446106</t>
+    <t xml:space="preserve">10.5731220245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3969030380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3851537704468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3734073638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5026330947876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3146677017212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2676753997803</t>
   </si>
   <si>
     <t xml:space="preserve">10.1971874237061</t>
@@ -1586,10 +1583,10 @@
     <t xml:space="preserve">10.1619434356689</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1501960754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5143823623657</t>
+    <t xml:space="preserve">10.1501970291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5143804550171</t>
   </si>
   <si>
     <t xml:space="preserve">10.6671047210693</t>
@@ -1598,31 +1595,31 @@
     <t xml:space="preserve">10.7023477554321</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8550710678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0900297164917</t>
+    <t xml:space="preserve">10.8550720214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.090030670166</t>
   </si>
   <si>
     <t xml:space="preserve">11.0195417404175</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0547857284546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2310047149658</t>
+    <t xml:space="preserve">11.0547847747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2310056686401</t>
   </si>
   <si>
     <t xml:space="preserve">11.3837261199951</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1722640991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4189729690552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3014907836914</t>
+    <t xml:space="preserve">11.1722650527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4189710617065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3014917373657</t>
   </si>
   <si>
     <t xml:space="preserve">11.1840133666992</t>
@@ -1631,31 +1628,31 @@
     <t xml:space="preserve">10.9255590438843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.455641746521</t>
+    <t xml:space="preserve">10.4556427001953</t>
   </si>
   <si>
     <t xml:space="preserve">10.6201124191284</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1252717971802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.113525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9373073577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9725494384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1605176925659</t>
+    <t xml:space="preserve">11.1252727508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1135244369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9373083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9725513458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1605167388916</t>
   </si>
   <si>
     <t xml:space="preserve">11.1487684249878</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0782823562622</t>
+    <t xml:space="preserve">11.0782794952393</t>
   </si>
   <si>
     <t xml:space="preserve">11.0430364608765</t>
@@ -1667,46 +1664,46 @@
     <t xml:space="preserve">10.902063369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7375936508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.432147026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2441806793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6788539886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.643609046936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8433237075806</t>
+    <t xml:space="preserve">10.7375907897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4321479797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.244179725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6788520812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6436100006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8433227539062</t>
   </si>
   <si>
     <t xml:space="preserve">11.0665340423584</t>
   </si>
   <si>
-    <t xml:space="preserve">11.031289100647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2427530288696</t>
+    <t xml:space="preserve">11.0312910079956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.242751121521</t>
   </si>
   <si>
     <t xml:space="preserve">11.4424667358398</t>
   </si>
   <si>
-    <t xml:space="preserve">11.477710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5247030258179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6774253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8066511154175</t>
+    <t xml:space="preserve">11.4777097702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5247020721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6774244308472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8066520690918</t>
   </si>
   <si>
     <t xml:space="preserve">11.6304330825806</t>
@@ -1721,28 +1718,28 @@
     <t xml:space="preserve">13.1870317459106</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2164030075073</t>
+    <t xml:space="preserve">13.216402053833</t>
   </si>
   <si>
     <t xml:space="preserve">12.9520740509033</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0392284393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0998773574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.130199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9179344177246</t>
+    <t xml:space="preserve">13.0392293930054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0998754501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1302003860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9179334640503</t>
   </si>
   <si>
     <t xml:space="preserve">12.8572864532471</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9482574462891</t>
+    <t xml:space="preserve">12.9482583999634</t>
   </si>
   <si>
     <t xml:space="preserve">13.1908473968506</t>
@@ -1754,61 +1751,61 @@
     <t xml:space="preserve">13.3424663543701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4940853118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4031133651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6450204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1901617050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3721046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.159836769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1173849105835</t>
+    <t xml:space="preserve">13.4940872192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4031143188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.64501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1901636123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3721055984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1598377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1173839569092</t>
   </si>
   <si>
     <t xml:space="preserve">12.4934005737305</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2811346054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3114566802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5540475845337</t>
+    <t xml:space="preserve">12.2811336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3114576339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.554048538208</t>
   </si>
   <si>
     <t xml:space="preserve">12.4327526092529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.463077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5237245559692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4024286270142</t>
+    <t xml:space="preserve">12.4630765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5237236022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4024305343628</t>
   </si>
   <si>
     <t xml:space="preserve">12.6146955490112</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3417816162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7663135528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9785795211792</t>
+    <t xml:space="preserve">12.3417825698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7663154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9785814285278</t>
   </si>
   <si>
     <t xml:space="preserve">12.826961517334</t>
@@ -1823,16 +1820,19 @@
     <t xml:space="preserve">12.6753425598145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7359914779663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4637632369995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6457052230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9186201095581</t>
+    <t xml:space="preserve">12.7359895706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0695514678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4637622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6457042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9186191558838</t>
   </si>
   <si>
     <t xml:space="preserve">13.7670001983643</t>
@@ -1844,16 +1844,16 @@
     <t xml:space="preserve">13.9792652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1005620956421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0702381134033</t>
+    <t xml:space="preserve">14.1005611419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0702390670776</t>
   </si>
   <si>
     <t xml:space="preserve">13.7366762161255</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7973222732544</t>
+    <t xml:space="preserve">13.797324180603</t>
   </si>
   <si>
     <t xml:space="preserve">14.1915321350098</t>
@@ -1862,7 +1862,7 @@
     <t xml:space="preserve">13.8579711914062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1308841705322</t>
+    <t xml:space="preserve">14.1308851242065</t>
   </si>
   <si>
     <t xml:space="preserve">14.2218561172485</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">14.4947710037231</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4644470214844</t>
+    <t xml:space="preserve">14.4644460678101</t>
   </si>
   <si>
     <t xml:space="preserve">14.3734760284424</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">15.1922168731689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3135137557983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2528657913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3741598129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3438367843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4954538345337</t>
+    <t xml:space="preserve">15.313512802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2528648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3741617202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3438348770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.495454788208</t>
   </si>
   <si>
     <t xml:space="preserve">16.1929035186768</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">16.5567874908447</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6780834197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6174373626709</t>
+    <t xml:space="preserve">16.6780815124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.617431640625</t>
   </si>
   <si>
     <t xml:space="preserve">16.7084045410156</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">18.5278339385986</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3155689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6794528961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3769016265869</t>
+    <t xml:space="preserve">18.3155670166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6794509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3768997192383</t>
   </si>
   <si>
     <t xml:space="preserve">20.0743465423584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6498146057129</t>
+    <t xml:space="preserve">19.6498165130615</t>
   </si>
   <si>
     <t xml:space="preserve">19.4072227478027</t>
@@ -1946,46 +1946,46 @@
     <t xml:space="preserve">19.4375476837158</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8310699462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0433387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1039867401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9826889038086</t>
+    <t xml:space="preserve">18.8310718536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0433406829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1039848327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9826908111572</t>
   </si>
   <si>
     <t xml:space="preserve">19.2252826690674</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9220447540283</t>
+    <t xml:space="preserve">18.9220409393311</t>
   </si>
   <si>
     <t xml:space="preserve">18.8007469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4065380096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1942729949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6188049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4671878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2549209594727</t>
+    <t xml:space="preserve">18.4065399169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1942710876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6188068389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4671859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.254919052124</t>
   </si>
   <si>
     <t xml:space="preserve">18.3762149810791</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6491298675537</t>
+    <t xml:space="preserve">18.6491279602051</t>
   </si>
   <si>
     <t xml:space="preserve">18.7401008605957</t>
@@ -1994,37 +1994,37 @@
     <t xml:space="preserve">18.8917198181152</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5884819030762</t>
+    <t xml:space="preserve">18.5884799957275</t>
   </si>
   <si>
     <t xml:space="preserve">18.345890045166</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5581588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0426502227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1033039093018</t>
+    <t xml:space="preserve">18.5581569671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.042652130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1033020019531</t>
   </si>
   <si>
     <t xml:space="preserve">17.9820041656494</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9213581085205</t>
+    <t xml:space="preserve">17.9213600158691</t>
   </si>
   <si>
     <t xml:space="preserve">17.8000640869141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7090911865234</t>
+    <t xml:space="preserve">17.7090930938721</t>
   </si>
   <si>
     <t xml:space="preserve">17.5271492004395</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3452072143555</t>
+    <t xml:space="preserve">17.3452091217041</t>
   </si>
   <si>
     <t xml:space="preserve">17.4361782073975</t>
@@ -2036,82 +2036,82 @@
     <t xml:space="preserve">16.7387313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0722923278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6484451293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5877952575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8607120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2245979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3748455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1625804901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6167526245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2225408554077</t>
+    <t xml:space="preserve">17.0722942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6484432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.587797164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.860710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2245960235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3748435974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.162576675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6167497634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.222541809082</t>
   </si>
   <si>
     <t xml:space="preserve">14.5250940322876</t>
   </si>
   <si>
-    <t xml:space="preserve">14.737361907959</t>
+    <t xml:space="preserve">14.7373609542847</t>
   </si>
   <si>
     <t xml:space="preserve">14.252179145813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3047075271606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3896141052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76425933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0189790725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63083457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18204212188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09713649749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71574211120605</t>
+    <t xml:space="preserve">11.3047065734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3896150588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76426029205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0189809799194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63083553314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18204307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09713554382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71574115753174</t>
   </si>
   <si>
     <t xml:space="preserve">9.66722297668457</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2373113632202</t>
+    <t xml:space="preserve">10.2373104095459</t>
   </si>
   <si>
     <t xml:space="preserve">10.5041599273682</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6133251190186</t>
+    <t xml:space="preserve">10.6133260726929</t>
   </si>
   <si>
     <t xml:space="preserve">11.1591529846191</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2683200836182</t>
+    <t xml:space="preserve">11.2683191299438</t>
   </si>
   <si>
     <t xml:space="preserve">11.0499877929688</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">11.0985059738159</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3774843215942</t>
+    <t xml:space="preserve">11.3774852752686</t>
   </si>
   <si>
     <t xml:space="preserve">11.2440614700317</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">11.607946395874</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7656278610229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0688676834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5594272613525</t>
+    <t xml:space="preserve">11.7656297683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0688667297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5594282150269</t>
   </si>
   <si>
     <t xml:space="preserve">11.4381332397461</t>
@@ -2147,52 +2147,52 @@
     <t xml:space="preserve">11.8869247436523</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8747959136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9475727081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1295146942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3036823272705</t>
+    <t xml:space="preserve">11.874794960022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9475717544556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1295156478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3036842346191</t>
   </si>
   <si>
     <t xml:space="preserve">13.1247568130493</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7467832565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3735675811768</t>
+    <t xml:space="preserve">13.7467842102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3735685348511</t>
   </si>
   <si>
     <t xml:space="preserve">13.0936555862427</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9070472717285</t>
+    <t xml:space="preserve">12.9070482254028</t>
   </si>
   <si>
     <t xml:space="preserve">12.689338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8759460449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7204389572144</t>
+    <t xml:space="preserve">12.8759479522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.720440864563</t>
   </si>
   <si>
     <t xml:space="preserve">12.5649337768555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5027303695679</t>
+    <t xml:space="preserve">12.5027313232422</t>
   </si>
   <si>
     <t xml:space="preserve">12.7515411376953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2491626739502</t>
+    <t xml:space="preserve">13.2491607666016</t>
   </si>
   <si>
     <t xml:space="preserve">13.0003509521484</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">13.7156820297241</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2755069732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0577974319458</t>
+    <t xml:space="preserve">14.2755060195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0577955245972</t>
   </si>
   <si>
     <t xml:space="preserve">14.586519241333</t>
@@ -2216,10 +2216,10 @@
     <t xml:space="preserve">14.6176195144653</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8975315093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0841407775879</t>
+    <t xml:space="preserve">14.8975324630737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0841388702393</t>
   </si>
   <si>
     <t xml:space="preserve">15.6128616333008</t>
@@ -2228,10 +2228,10 @@
     <t xml:space="preserve">15.1774435043335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2085447311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.990837097168</t>
+    <t xml:space="preserve">15.2085466384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9908351898193</t>
   </si>
   <si>
     <t xml:space="preserve">14.8042278289795</t>
@@ -2243,19 +2243,19 @@
     <t xml:space="preserve">13.9955940246582</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6223773956299</t>
+    <t xml:space="preserve">13.6223783493042</t>
   </si>
   <si>
     <t xml:space="preserve">13.9644927978516</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6487216949463</t>
+    <t xml:space="preserve">14.648720741272</t>
   </si>
   <si>
     <t xml:space="preserve">14.4310131072998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.182201385498</t>
+    <t xml:space="preserve">14.1822023391724</t>
   </si>
   <si>
     <t xml:space="preserve">13.9333906173706</t>
@@ -2267,85 +2267,85 @@
     <t xml:space="preserve">13.6845798492432</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9286336898804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7731266021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0530385971069</t>
+    <t xml:space="preserve">14.9286317825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7731275558472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0530395507812</t>
   </si>
   <si>
     <t xml:space="preserve">14.7420263290405</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9238786697388</t>
+    <t xml:space="preserve">15.9238748550415</t>
   </si>
   <si>
     <t xml:space="preserve">15.7994709014893</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4262542724609</t>
+    <t xml:space="preserve">15.4262552261353</t>
   </si>
   <si>
     <t xml:space="preserve">15.3951530456543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1463413238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5506601333618</t>
+    <t xml:space="preserve">15.1463432312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5506582260132</t>
   </si>
   <si>
     <t xml:space="preserve">15.9860782623291</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6703090667725</t>
+    <t xml:space="preserve">16.6703071594238</t>
   </si>
   <si>
     <t xml:space="preserve">16.1726856231689</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5817613601685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4884567260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3281917572021</t>
+    <t xml:space="preserve">15.5817604064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4884586334229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3281936645508</t>
   </si>
   <si>
     <t xml:space="preserve">16.1415863037109</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2970924377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.483699798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4525985717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5459003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3592948913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7014083862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.794713973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7636127471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8569145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5148010253906</t>
+    <t xml:space="preserve">16.2970905303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4836978912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.452600479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5459041595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7014064788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7947120666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7636108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8569164276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.514799118042</t>
   </si>
   <si>
     <t xml:space="preserve">16.4214954376221</t>
@@ -2357,73 +2357,73 @@
     <t xml:space="preserve">16.079381942749</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8305730819702</t>
+    <t xml:space="preserve">15.8305711746216</t>
   </si>
   <si>
     <t xml:space="preserve">15.7372674942017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2396459579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9597339630127</t>
+    <t xml:space="preserve">15.2396469116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.959734916687</t>
   </si>
   <si>
     <t xml:space="preserve">14.8664312362671</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1152429580688</t>
+    <t xml:space="preserve">15.1152420043945</t>
   </si>
   <si>
     <t xml:space="preserve">14.8353300094604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4932136535645</t>
+    <t xml:space="preserve">14.4932146072388</t>
   </si>
   <si>
     <t xml:space="preserve">14.3066062927246</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8711881637573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4979724884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4716272354126</t>
+    <t xml:space="preserve">13.871187210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4979734420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4716281890869</t>
   </si>
   <si>
     <t xml:space="preserve">11.8185014724731</t>
   </si>
   <si>
-    <t xml:space="preserve">12.117073059082</t>
+    <t xml:space="preserve">12.1170749664307</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917171478271</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3410043716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8137435913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7826433181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9692516326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8400869369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5601739883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.364052772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5243167877197</t>
+    <t xml:space="preserve">12.3410034179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8137445449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7826414108276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9692506790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.840087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5601758956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3640518188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5243158340454</t>
   </si>
   <si>
     <t xml:space="preserve">14.2444047927856</t>
@@ -2435,13 +2435,13 @@
     <t xml:space="preserve">14.1199998855591</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1511001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6798229217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0266942977905</t>
+    <t xml:space="preserve">14.1511011123657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6798238754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0266952514648</t>
   </si>
   <si>
     <t xml:space="preserve">13.5912771224976</t>
@@ -2450,43 +2450,43 @@
     <t xml:space="preserve">14.213303565979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5554180145264</t>
+    <t xml:space="preserve">14.5554170608521</t>
   </si>
   <si>
     <t xml:space="preserve">14.0888977050781</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8089876174927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4357709884644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1869592666626</t>
+    <t xml:space="preserve">13.8089866638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.43577003479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1869611740112</t>
   </si>
   <si>
     <t xml:space="preserve">13.52907371521</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7778844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4046688079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.155858039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.062554359436</t>
+    <t xml:space="preserve">13.7778825759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4046678543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1558570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0625534057617</t>
   </si>
   <si>
     <t xml:space="preserve">13.0314531326294</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4668703079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4985589981079</t>
+    <t xml:space="preserve">13.466872215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4985580444336</t>
   </si>
   <si>
     <t xml:space="preserve">13.3084383010864</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">13.340124130249</t>
   </si>
   <si>
-    <t xml:space="preserve">13.21337890625</t>
+    <t xml:space="preserve">13.2133779525757</t>
   </si>
   <si>
     <t xml:space="preserve">13.0549440383911</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">13.0866298675537</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1500043869019</t>
+    <t xml:space="preserve">13.1500053405762</t>
   </si>
   <si>
     <t xml:space="preserve">13.2767515182495</t>
@@ -2513,10 +2513,10 @@
     <t xml:space="preserve">13.5302448272705</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2450637817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0232572555542</t>
+    <t xml:space="preserve">13.2450647354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0232563018799</t>
   </si>
   <si>
     <t xml:space="preserve">12.8965101242065</t>
@@ -2525,34 +2525,34 @@
     <t xml:space="preserve">12.8014507293701</t>
   </si>
   <si>
-    <t xml:space="preserve">12.738076210022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.636679649353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.991569519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2014856338501</t>
+    <t xml:space="preserve">12.7380752563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6366786956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9915704727173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2014846801758</t>
   </si>
   <si>
     <t xml:space="preserve">13.6544780731201</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0427560806274</t>
+    <t xml:space="preserve">14.0427570343018</t>
   </si>
   <si>
     <t xml:space="preserve">14.1398267745972</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0751132965088</t>
+    <t xml:space="preserve">14.0751123428345</t>
   </si>
   <si>
     <t xml:space="preserve">13.945686340332</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7515468597412</t>
+    <t xml:space="preserve">13.7515478134155</t>
   </si>
   <si>
     <t xml:space="preserve">14.0103988647461</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">15.0458106994629</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8840265274048</t>
+    <t xml:space="preserve">14.8840274810791</t>
   </si>
   <si>
     <t xml:space="preserve">14.4633922576904</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">14.1721820831299</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1074686050415</t>
+    <t xml:space="preserve">14.1074695587158</t>
   </si>
   <si>
     <t xml:space="preserve">14.2692527770996</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">14.2368955612183</t>
   </si>
   <si>
-    <t xml:space="preserve">13.913330078125</t>
+    <t xml:space="preserve">13.9133310317993</t>
   </si>
   <si>
     <t xml:space="preserve">13.7191905975342</t>
@@ -2609,7 +2609,7 @@
     <t xml:space="preserve">13.1367712020874</t>
   </si>
   <si>
-    <t xml:space="preserve">13.039701461792</t>
+    <t xml:space="preserve">13.0397024154663</t>
   </si>
   <si>
     <t xml:space="preserve">13.6221208572388</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">13.9780445098877</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8486166000366</t>
+    <t xml:space="preserve">13.8486156463623</t>
   </si>
   <si>
     <t xml:space="preserve">14.3663234710693</t>
@@ -2630,7 +2630,7 @@
     <t xml:space="preserve">14.819314956665</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7546014785767</t>
+    <t xml:space="preserve">14.7546005249023</t>
   </si>
   <si>
     <t xml:space="preserve">14.4957485198975</t>
@@ -2648,10 +2648,10 @@
     <t xml:space="preserve">15.3370208740234</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1428804397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2075929641724</t>
+    <t xml:space="preserve">15.142879486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2075939178467</t>
   </si>
   <si>
     <t xml:space="preserve">15.1752376556396</t>
@@ -2660,10 +2660,10 @@
     <t xml:space="preserve">15.3046627044678</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2399501800537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5311594009399</t>
+    <t xml:space="preserve">15.2399492263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5311584472656</t>
   </si>
   <si>
     <t xml:space="preserve">15.8547248840332</t>
@@ -2675,10 +2675,10 @@
     <t xml:space="preserve">16.1135768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6929426193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0812225341797</t>
+    <t xml:space="preserve">15.692943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0812206268311</t>
   </si>
   <si>
     <t xml:space="preserve">16.2753620147705</t>
@@ -2687,10 +2687,10 @@
     <t xml:space="preserve">15.628228187561</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7252998352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5958738327026</t>
+    <t xml:space="preserve">15.7252988815308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5958728790283</t>
   </si>
   <si>
     <t xml:space="preserve">15.4664459228516</t>
@@ -2699,13 +2699,13 @@
     <t xml:space="preserve">15.1105241775513</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4988021850586</t>
+    <t xml:space="preserve">15.4988031387329</t>
   </si>
   <si>
     <t xml:space="preserve">15.3693761825562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2723064422607</t>
+    <t xml:space="preserve">15.2723073959351</t>
   </si>
   <si>
     <t xml:space="preserve">15.8870801925659</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">16.6312828063965</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5989265441895</t>
+    <t xml:space="preserve">16.5989284515381</t>
   </si>
   <si>
     <t xml:space="preserve">16.5342121124268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7283515930176</t>
+    <t xml:space="preserve">16.7283535003662</t>
   </si>
   <si>
     <t xml:space="preserve">16.4695014953613</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">17.4078407287598</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5665721893311</t>
+    <t xml:space="preserve">16.5665702819824</t>
   </si>
   <si>
     <t xml:space="preserve">16.2430038452148</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">16.3724308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1459350585938</t>
+    <t xml:space="preserve">16.1459369659424</t>
   </si>
   <si>
     <t xml:space="preserve">16.1782913208008</t>
@@ -2774,22 +2774,22 @@
     <t xml:space="preserve">16.3077182769775</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9841527938843</t>
+    <t xml:space="preserve">15.98415184021</t>
   </si>
   <si>
     <t xml:space="preserve">15.8223686218262</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7900114059448</t>
+    <t xml:space="preserve">15.7900104522705</t>
   </si>
   <si>
     <t xml:space="preserve">15.9517936706543</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6605854034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5635147094727</t>
+    <t xml:space="preserve">15.6605863571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.563515663147</t>
   </si>
   <si>
     <t xml:space="preserve">15.4340896606445</t>
@@ -2801,7 +2801,7 @@
     <t xml:space="preserve">14.8516721725464</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7576541900635</t>
+    <t xml:space="preserve">15.7576551437378</t>
   </si>
   <si>
     <t xml:space="preserve">15.0781660079956</t>
@@ -2813,13 +2813,13 @@
     <t xml:space="preserve">14.3339653015137</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5928173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8162603378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7839040756226</t>
+    <t xml:space="preserve">14.5928182601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8162612915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7839031219482</t>
   </si>
   <si>
     <t xml:space="preserve">14.7222442626953</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">14.7869577407837</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2045392990112</t>
+    <t xml:space="preserve">14.2045402526855</t>
   </si>
   <si>
     <t xml:space="preserve">14.8352680206299</t>
@@ -14022,7 +14022,7 @@
         <v>17.3999996185303</v>
       </c>
       <c r="G390" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -14048,7 +14048,7 @@
         <v>17.2199993133545</v>
       </c>
       <c r="G391" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -14074,7 +14074,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G392" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -14100,7 +14100,7 @@
         <v>17.9799995422363</v>
       </c>
       <c r="G393" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -14126,7 +14126,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="G394" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -14152,7 +14152,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G395" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -14178,7 +14178,7 @@
         <v>17.5</v>
       </c>
       <c r="G396" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -14204,7 +14204,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G397" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -14256,7 +14256,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G399" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -14282,7 +14282,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G400" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -14308,7 +14308,7 @@
         <v>17.8099994659424</v>
       </c>
       <c r="G401" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -14334,7 +14334,7 @@
         <v>17.5100002288818</v>
       </c>
       <c r="G402" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -14360,7 +14360,7 @@
         <v>17.7199993133545</v>
       </c>
       <c r="G403" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -14386,7 +14386,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G404" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -14412,7 +14412,7 @@
         <v>17.7299995422363</v>
       </c>
       <c r="G405" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -14464,7 +14464,7 @@
         <v>17.4300003051758</v>
       </c>
       <c r="G407" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -14490,7 +14490,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="G408" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -14516,7 +14516,7 @@
         <v>17.1900005340576</v>
       </c>
       <c r="G409" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -14568,7 +14568,7 @@
         <v>17.5</v>
       </c>
       <c r="G411" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -14594,7 +14594,7 @@
         <v>18.1399993896484</v>
       </c>
       <c r="G412" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -14620,7 +14620,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="G413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -14646,7 +14646,7 @@
         <v>17.4500007629395</v>
       </c>
       <c r="G414" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -14672,7 +14672,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G415" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -14698,7 +14698,7 @@
         <v>17.7299995422363</v>
       </c>
       <c r="G416" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -14724,7 +14724,7 @@
         <v>17.6100006103516</v>
       </c>
       <c r="G417" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -14750,7 +14750,7 @@
         <v>17.3899993896484</v>
       </c>
       <c r="G418" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -14776,7 +14776,7 @@
         <v>17.5900001525879</v>
       </c>
       <c r="G419" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -14802,7 +14802,7 @@
         <v>17.6000003814697</v>
       </c>
       <c r="G420" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -14828,7 +14828,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G421" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -14854,7 +14854,7 @@
         <v>17.9300003051758</v>
       </c>
       <c r="G422" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>18.0699996948242</v>
       </c>
       <c r="G423" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>18.1000003814697</v>
       </c>
       <c r="G426" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -14984,7 +14984,7 @@
         <v>18.1499996185303</v>
       </c>
       <c r="G427" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -15010,7 +15010,7 @@
         <v>18.25</v>
       </c>
       <c r="G428" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -15036,7 +15036,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="G429" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -15062,7 +15062,7 @@
         <v>19.1499996185303</v>
       </c>
       <c r="G430" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -15088,7 +15088,7 @@
         <v>19.9500007629395</v>
       </c>
       <c r="G431" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -15114,7 +15114,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G432" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -15140,7 +15140,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G433" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -15166,7 +15166,7 @@
         <v>21.25</v>
       </c>
       <c r="G434" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -15192,7 +15192,7 @@
         <v>21.3700008392334</v>
       </c>
       <c r="G435" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -15218,7 +15218,7 @@
         <v>21.4099998474121</v>
       </c>
       <c r="G436" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -15244,7 +15244,7 @@
         <v>22.1900005340576</v>
       </c>
       <c r="G437" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -15270,7 +15270,7 @@
         <v>22.0300006866455</v>
       </c>
       <c r="G438" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -15296,7 +15296,7 @@
         <v>22.5699996948242</v>
       </c>
       <c r="G439" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -15322,7 +15322,7 @@
         <v>22.6399993896484</v>
       </c>
       <c r="G440" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -15348,7 +15348,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G441" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -15374,7 +15374,7 @@
         <v>23.1399993896484</v>
       </c>
       <c r="G442" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -15400,7 +15400,7 @@
         <v>23.8700008392334</v>
       </c>
       <c r="G443" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -15426,7 +15426,7 @@
         <v>24.75</v>
       </c>
       <c r="G444" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -15452,7 +15452,7 @@
         <v>24.7700004577637</v>
       </c>
       <c r="G445" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -15478,7 +15478,7 @@
         <v>25</v>
       </c>
       <c r="G446" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -15504,7 +15504,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G447" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -15530,7 +15530,7 @@
         <v>26.75</v>
       </c>
       <c r="G448" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -15556,7 +15556,7 @@
         <v>26.5</v>
       </c>
       <c r="G449" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -15582,7 +15582,7 @@
         <v>26.5699996948242</v>
       </c>
       <c r="G450" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -15608,7 +15608,7 @@
         <v>27.7000007629395</v>
       </c>
       <c r="G451" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -15634,7 +15634,7 @@
         <v>27</v>
       </c>
       <c r="G452" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -15660,7 +15660,7 @@
         <v>27.3500003814697</v>
       </c>
       <c r="G453" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -15686,7 +15686,7 @@
         <v>26.9599990844727</v>
       </c>
       <c r="G454" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -15712,7 +15712,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G455" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -15738,7 +15738,7 @@
         <v>26.7999992370605</v>
       </c>
       <c r="G456" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -15764,7 +15764,7 @@
         <v>26.7600002288818</v>
       </c>
       <c r="G457" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -15790,7 +15790,7 @@
         <v>27.0699996948242</v>
       </c>
       <c r="G458" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -15816,7 +15816,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="G459" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -15842,7 +15842,7 @@
         <v>27</v>
       </c>
       <c r="G460" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -15868,7 +15868,7 @@
         <v>26.9699993133545</v>
       </c>
       <c r="G461" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -15894,7 +15894,7 @@
         <v>26.3299999237061</v>
       </c>
       <c r="G462" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -15920,7 +15920,7 @@
         <v>26.1499996185303</v>
       </c>
       <c r="G463" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -15946,7 +15946,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G464" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -15972,7 +15972,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G465" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -15998,7 +15998,7 @@
         <v>26.0799999237061</v>
       </c>
       <c r="G466" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -16024,7 +16024,7 @@
         <v>26.3400001525879</v>
       </c>
       <c r="G467" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -16050,7 +16050,7 @@
         <v>26.0599994659424</v>
       </c>
       <c r="G468" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -16076,7 +16076,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="G469" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -16102,7 +16102,7 @@
         <v>26.3299999237061</v>
       </c>
       <c r="G470" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -16128,7 +16128,7 @@
         <v>26.6200008392334</v>
       </c>
       <c r="G471" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -16154,7 +16154,7 @@
         <v>26.4300003051758</v>
       </c>
       <c r="G472" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -16180,7 +16180,7 @@
         <v>26.5100002288818</v>
       </c>
       <c r="G473" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>26.6100006103516</v>
       </c>
       <c r="G474" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -16232,7 +16232,7 @@
         <v>26.4699993133545</v>
       </c>
       <c r="G475" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -16258,7 +16258,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G476" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -16284,7 +16284,7 @@
         <v>24.3500003814697</v>
       </c>
       <c r="G477" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -16310,7 +16310,7 @@
         <v>24.8799991607666</v>
       </c>
       <c r="G478" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -16336,7 +16336,7 @@
         <v>24.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -16362,7 +16362,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G480" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -16388,7 +16388,7 @@
         <v>24.1800003051758</v>
       </c>
       <c r="G481" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -16414,7 +16414,7 @@
         <v>25</v>
       </c>
       <c r="G482" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G483" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -16466,7 +16466,7 @@
         <v>25.7700004577637</v>
       </c>
       <c r="G484" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -16492,7 +16492,7 @@
         <v>26</v>
       </c>
       <c r="G485" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -16518,7 +16518,7 @@
         <v>25.9599990844727</v>
       </c>
       <c r="G486" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -16544,7 +16544,7 @@
         <v>25.75</v>
       </c>
       <c r="G487" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -16570,7 +16570,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G488" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>24.7800006866455</v>
       </c>
       <c r="G489" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -16622,7 +16622,7 @@
         <v>24.8700008392334</v>
       </c>
       <c r="G490" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -16648,7 +16648,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G491" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -16674,7 +16674,7 @@
         <v>24.6000003814697</v>
       </c>
       <c r="G492" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -16700,7 +16700,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G493" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -16726,7 +16726,7 @@
         <v>24.4899997711182</v>
       </c>
       <c r="G494" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -16752,7 +16752,7 @@
         <v>24.9799995422363</v>
       </c>
       <c r="G495" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -16778,7 +16778,7 @@
         <v>24.9099998474121</v>
       </c>
       <c r="G496" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -16804,7 +16804,7 @@
         <v>24.75</v>
       </c>
       <c r="G497" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -16830,7 +16830,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G498" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -16856,7 +16856,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -16882,7 +16882,7 @@
         <v>25.1399993896484</v>
       </c>
       <c r="G500" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -16908,7 +16908,7 @@
         <v>24.8400001525879</v>
       </c>
       <c r="G501" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -16934,7 +16934,7 @@
         <v>24.7900009155273</v>
       </c>
       <c r="G502" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -16960,7 +16960,7 @@
         <v>24.6100006103516</v>
       </c>
       <c r="G503" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -16986,7 +16986,7 @@
         <v>24.6599998474121</v>
       </c>
       <c r="G504" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -17012,7 +17012,7 @@
         <v>24.8199996948242</v>
       </c>
       <c r="G505" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -17038,7 +17038,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G506" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -17064,7 +17064,7 @@
         <v>24.0300006866455</v>
       </c>
       <c r="G507" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -17090,7 +17090,7 @@
         <v>23.8899993896484</v>
       </c>
       <c r="G508" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -17116,7 +17116,7 @@
         <v>23.75</v>
       </c>
       <c r="G509" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -17142,7 +17142,7 @@
         <v>24.1200008392334</v>
       </c>
       <c r="G510" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -17168,7 +17168,7 @@
         <v>23.8500003814697</v>
       </c>
       <c r="G511" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -17194,7 +17194,7 @@
         <v>24.7199993133545</v>
       </c>
       <c r="G512" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -17220,7 +17220,7 @@
         <v>24.7000007629395</v>
       </c>
       <c r="G513" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -17246,7 +17246,7 @@
         <v>24.75</v>
       </c>
       <c r="G514" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -17272,7 +17272,7 @@
         <v>25.1000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -17298,7 +17298,7 @@
         <v>26.2999992370605</v>
       </c>
       <c r="G516" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -17324,7 +17324,7 @@
         <v>26.1000003814697</v>
       </c>
       <c r="G517" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -17350,7 +17350,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G518" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -17376,7 +17376,7 @@
         <v>27.1499996185303</v>
       </c>
       <c r="G519" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -17402,7 +17402,7 @@
         <v>27.2000007629395</v>
       </c>
       <c r="G520" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -17428,7 +17428,7 @@
         <v>26.9500007629395</v>
       </c>
       <c r="G521" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -17454,7 +17454,7 @@
         <v>27.1000003814697</v>
       </c>
       <c r="G522" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -17480,7 +17480,7 @@
         <v>26.8500003814697</v>
       </c>
       <c r="G523" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -17506,7 +17506,7 @@
         <v>26.75</v>
       </c>
       <c r="G524" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -17532,7 +17532,7 @@
         <v>26.5499992370605</v>
       </c>
       <c r="G525" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -17558,7 +17558,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G526" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17584,7 +17584,7 @@
         <v>26.0499992370605</v>
       </c>
       <c r="G527" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -17610,7 +17610,7 @@
         <v>25.8999996185303</v>
       </c>
       <c r="G528" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -17636,7 +17636,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G529" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -17662,7 +17662,7 @@
         <v>26.25</v>
       </c>
       <c r="G530" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -17688,7 +17688,7 @@
         <v>25.6000003814697</v>
       </c>
       <c r="G531" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -17714,7 +17714,7 @@
         <v>25.9500007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -17740,7 +17740,7 @@
         <v>25.7000007629395</v>
       </c>
       <c r="G533" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -17766,7 +17766,7 @@
         <v>25.25</v>
       </c>
       <c r="G534" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -17792,7 +17792,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G535" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -17818,7 +17818,7 @@
         <v>23.5</v>
       </c>
       <c r="G536" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -17844,7 +17844,7 @@
         <v>23.3500003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -17870,7 +17870,7 @@
         <v>24.3999996185303</v>
       </c>
       <c r="G538" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -17896,7 +17896,7 @@
         <v>24</v>
       </c>
       <c r="G539" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -17922,7 +17922,7 @@
         <v>23.75</v>
       </c>
       <c r="G540" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -17948,7 +17948,7 @@
         <v>23.5499992370605</v>
       </c>
       <c r="G541" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -17974,7 +17974,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G542" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -18000,7 +18000,7 @@
         <v>23.25</v>
       </c>
       <c r="G543" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -18026,7 +18026,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G544" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -18052,7 +18052,7 @@
         <v>24</v>
       </c>
       <c r="G545" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -18078,7 +18078,7 @@
         <v>23.25</v>
       </c>
       <c r="G546" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -18104,7 +18104,7 @@
         <v>22.75</v>
       </c>
       <c r="G547" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -18130,7 +18130,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G548" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -18156,7 +18156,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G549" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -18182,7 +18182,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G550" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -18208,7 +18208,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G551" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -18234,7 +18234,7 @@
         <v>22.25</v>
       </c>
       <c r="G552" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -18260,7 +18260,7 @@
         <v>22.5499992370605</v>
       </c>
       <c r="G553" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -18286,7 +18286,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G554" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -18312,7 +18312,7 @@
         <v>21.25</v>
       </c>
       <c r="G555" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -18338,7 +18338,7 @@
         <v>21</v>
       </c>
       <c r="G556" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -18364,7 +18364,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G557" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -18390,7 +18390,7 @@
         <v>22</v>
       </c>
       <c r="G558" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -18416,7 +18416,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G559" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -18442,7 +18442,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G560" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -18468,7 +18468,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G561" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -18494,7 +18494,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G562" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -18520,7 +18520,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G563" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -18546,7 +18546,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G564" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -18572,7 +18572,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G565" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -18598,7 +18598,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -18624,7 +18624,7 @@
         <v>23.3999996185303</v>
       </c>
       <c r="G567" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -18650,7 +18650,7 @@
         <v>23.0499992370605</v>
       </c>
       <c r="G568" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -18676,7 +18676,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G569" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -18702,7 +18702,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G570" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -18728,7 +18728,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G571" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18754,7 +18754,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G572" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18780,7 +18780,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G573" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18806,7 +18806,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G574" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18832,7 +18832,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G575" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18858,7 +18858,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G576" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18884,7 +18884,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G577" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G578" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -18936,7 +18936,7 @@
         <v>22</v>
       </c>
       <c r="G579" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -18962,7 +18962,7 @@
         <v>22.25</v>
       </c>
       <c r="G580" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -18988,7 +18988,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G581" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -19014,7 +19014,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G582" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -19040,7 +19040,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G583" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -19066,7 +19066,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G584" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -19092,7 +19092,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G585" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -19118,7 +19118,7 @@
         <v>22.6499996185303</v>
       </c>
       <c r="G586" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -19144,7 +19144,7 @@
         <v>22.5</v>
       </c>
       <c r="G587" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -19170,7 +19170,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G588" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -19196,7 +19196,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G589" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -19222,7 +19222,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G590" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -19248,7 +19248,7 @@
         <v>22.6000003814697</v>
       </c>
       <c r="G591" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -19274,7 +19274,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G592" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -19300,7 +19300,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G593" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -19326,7 +19326,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G594" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -19352,7 +19352,7 @@
         <v>22.25</v>
       </c>
       <c r="G595" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -19378,7 +19378,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G596" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -19404,7 +19404,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G597" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -19430,7 +19430,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G598" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -19456,7 +19456,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G599" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -19482,7 +19482,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G600" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G601" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19534,7 +19534,7 @@
         <v>21.75</v>
       </c>
       <c r="G602" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19560,7 +19560,7 @@
         <v>22</v>
       </c>
       <c r="G603" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19586,7 +19586,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G604" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19612,7 +19612,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G605" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19638,7 +19638,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G606" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19664,7 +19664,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G607" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19690,7 +19690,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G608" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19716,7 +19716,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G609" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19742,7 +19742,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G610" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19768,7 +19768,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G611" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19794,7 +19794,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G612" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19820,7 +19820,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G613" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19846,7 +19846,7 @@
         <v>19.2000007629395</v>
       </c>
       <c r="G614" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19872,7 +19872,7 @@
         <v>19.5599994659424</v>
       </c>
       <c r="G615" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19898,7 +19898,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G616" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19924,7 +19924,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G617" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19950,7 +19950,7 @@
         <v>20</v>
       </c>
       <c r="G618" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19976,7 +19976,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G619" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -20002,7 +20002,7 @@
         <v>21</v>
       </c>
       <c r="G620" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -20028,7 +20028,7 @@
         <v>23.9500007629395</v>
       </c>
       <c r="G621" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -20054,7 +20054,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G622" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -20080,7 +20080,7 @@
         <v>23.4500007629395</v>
       </c>
       <c r="G623" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G624" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -20132,7 +20132,7 @@
         <v>22.9500007629395</v>
       </c>
       <c r="G625" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -20158,7 +20158,7 @@
         <v>23.2999992370605</v>
       </c>
       <c r="G626" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -20184,7 +20184,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G627" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -20210,7 +20210,7 @@
         <v>22.8500003814697</v>
       </c>
       <c r="G628" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -20236,7 +20236,7 @@
         <v>22.7999992370605</v>
       </c>
       <c r="G629" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -20262,7 +20262,7 @@
         <v>22.7000007629395</v>
       </c>
       <c r="G630" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -20288,7 +20288,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G631" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20314,7 +20314,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G632" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -20340,7 +20340,7 @@
         <v>22</v>
       </c>
       <c r="G633" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -20366,7 +20366,7 @@
         <v>21.9500007629395</v>
       </c>
       <c r="G634" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -20392,7 +20392,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G635" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -20418,7 +20418,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G636" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -20444,7 +20444,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G637" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -20470,7 +20470,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G638" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -20496,7 +20496,7 @@
         <v>21.7999992370605</v>
       </c>
       <c r="G639" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -20522,7 +20522,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G640" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20548,7 +20548,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G641" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20574,7 +20574,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G642" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20600,7 +20600,7 @@
         <v>21.25</v>
       </c>
       <c r="G643" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20626,7 +20626,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G644" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20652,7 +20652,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G645" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20678,7 +20678,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G646" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20704,7 +20704,7 @@
         <v>20.9500007629395</v>
       </c>
       <c r="G647" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20730,7 +20730,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G648" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20756,7 +20756,7 @@
         <v>21.25</v>
       </c>
       <c r="G649" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20782,7 +20782,7 @@
         <v>21.5</v>
       </c>
       <c r="G650" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20808,7 +20808,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G651" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20834,7 +20834,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G652" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20860,7 +20860,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G653" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20886,7 +20886,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G654" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20912,7 +20912,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G655" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20938,7 +20938,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G656" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20964,7 +20964,7 @@
         <v>21.25</v>
       </c>
       <c r="G657" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20990,7 +20990,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G658" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -21016,7 +21016,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G659" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -21042,7 +21042,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G660" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -21068,7 +21068,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G661" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -21094,7 +21094,7 @@
         <v>21.25</v>
       </c>
       <c r="G662" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -21120,7 +21120,7 @@
         <v>21</v>
       </c>
       <c r="G663" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -21146,7 +21146,7 @@
         <v>21.25</v>
       </c>
       <c r="G664" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -21172,7 +21172,7 @@
         <v>21</v>
       </c>
       <c r="G665" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -21198,7 +21198,7 @@
         <v>21.1000003814697</v>
       </c>
       <c r="G666" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -21224,7 +21224,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G667" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -21250,7 +21250,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G668" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -21276,7 +21276,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G669" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -21302,7 +21302,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G670" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -21328,7 +21328,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G671" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -21354,7 +21354,7 @@
         <v>20.5</v>
       </c>
       <c r="G672" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -21380,7 +21380,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G673" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -21406,7 +21406,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G674" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -21432,7 +21432,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G675" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -21458,7 +21458,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G676" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21484,7 +21484,7 @@
         <v>21.5</v>
       </c>
       <c r="G677" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -21510,7 +21510,7 @@
         <v>21.25</v>
       </c>
       <c r="G678" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -21536,7 +21536,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G679" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21562,7 +21562,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G680" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21588,7 +21588,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G681" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21614,7 +21614,7 @@
         <v>20.75</v>
       </c>
       <c r="G682" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21640,7 +21640,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G683" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21666,7 +21666,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G684" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21692,7 +21692,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G685" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21718,7 +21718,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G686" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21744,7 +21744,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G687" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21770,7 +21770,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G688" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21796,7 +21796,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G689" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G690" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21848,7 +21848,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G691" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21874,7 +21874,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G692" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21900,7 +21900,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G693" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21926,7 +21926,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G694" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21952,7 +21952,7 @@
         <v>21.5</v>
       </c>
       <c r="G695" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21978,7 +21978,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G696" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -22004,7 +22004,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G697" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -22030,7 +22030,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G698" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -22056,7 +22056,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G699" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -22082,7 +22082,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G700" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -22108,7 +22108,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G701" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -22134,7 +22134,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G702" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -22160,7 +22160,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G703" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -22186,7 +22186,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G704" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -22212,7 +22212,7 @@
         <v>19.9599990844727</v>
       </c>
       <c r="G705" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -22238,7 +22238,7 @@
         <v>19.4200000762939</v>
       </c>
       <c r="G706" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -22264,7 +22264,7 @@
         <v>18.5200004577637</v>
       </c>
       <c r="G707" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -22290,7 +22290,7 @@
         <v>18.9599990844727</v>
       </c>
       <c r="G708" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -22316,7 +22316,7 @@
         <v>18</v>
       </c>
       <c r="G709" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -22342,7 +22342,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G710" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -22368,7 +22368,7 @@
         <v>17.6800003051758</v>
       </c>
       <c r="G711" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -22394,7 +22394,7 @@
         <v>17.6599998474121</v>
       </c>
       <c r="G712" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G713" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -22446,7 +22446,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G714" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -22472,7 +22472,7 @@
         <v>17.5599994659424</v>
       </c>
       <c r="G715" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -22498,7 +22498,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G716" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -22524,7 +22524,7 @@
         <v>17.3600006103516</v>
       </c>
       <c r="G717" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22550,7 +22550,7 @@
         <v>17.0799999237061</v>
       </c>
       <c r="G718" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22576,7 +22576,7 @@
         <v>17.2999992370605</v>
       </c>
       <c r="G719" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22602,7 +22602,7 @@
         <v>17.4799995422363</v>
       </c>
       <c r="G720" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22628,7 +22628,7 @@
         <v>17.2800006866455</v>
       </c>
       <c r="G721" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22654,7 +22654,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G722" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22680,7 +22680,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G723" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22706,7 +22706,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G724" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22732,7 +22732,7 @@
         <v>18.2199993133545</v>
       </c>
       <c r="G725" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22758,7 +22758,7 @@
         <v>18.4799995422363</v>
       </c>
       <c r="G726" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22784,7 +22784,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G727" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22810,7 +22810,7 @@
         <v>18.7600002288818</v>
       </c>
       <c r="G728" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22836,7 +22836,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G729" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22862,7 +22862,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="G730" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22888,7 +22888,7 @@
         <v>19.3799991607666</v>
       </c>
       <c r="G731" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22914,7 +22914,7 @@
         <v>19.0200004577637</v>
       </c>
       <c r="G732" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22940,7 +22940,7 @@
         <v>19.4400005340576</v>
       </c>
       <c r="G733" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22966,7 +22966,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G734" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22992,7 +22992,7 @@
         <v>19.0400009155273</v>
       </c>
       <c r="G735" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="G736" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -23044,7 +23044,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G737" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -23070,7 +23070,7 @@
         <v>17.7999992370605</v>
       </c>
       <c r="G738" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -23096,7 +23096,7 @@
         <v>17.8799991607666</v>
       </c>
       <c r="G739" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -23122,7 +23122,7 @@
         <v>17.7000007629395</v>
       </c>
       <c r="G740" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -23148,7 +23148,7 @@
         <v>18.0799999237061</v>
       </c>
       <c r="G741" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -23174,7 +23174,7 @@
         <v>18.9400005340576</v>
       </c>
       <c r="G742" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -23200,7 +23200,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G743" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -23226,7 +23226,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G744" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -23252,7 +23252,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G745" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -23278,7 +23278,7 @@
         <v>18.6800003051758</v>
       </c>
       <c r="G746" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -23304,7 +23304,7 @@
         <v>19</v>
       </c>
       <c r="G747" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -23330,7 +23330,7 @@
         <v>18.9799995422363</v>
       </c>
       <c r="G748" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -23356,7 +23356,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G749" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -23382,7 +23382,7 @@
         <v>18.6200008392334</v>
       </c>
       <c r="G750" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -23408,7 +23408,7 @@
         <v>18.8199996948242</v>
       </c>
       <c r="G751" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -23434,7 +23434,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G752" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -23460,7 +23460,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G753" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -23486,7 +23486,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G754" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -23512,7 +23512,7 @@
         <v>18.8999996185303</v>
       </c>
       <c r="G755" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23538,7 +23538,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G756" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23564,7 +23564,7 @@
         <v>18.5599994659424</v>
       </c>
       <c r="G757" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23590,7 +23590,7 @@
         <v>18.6000003814697</v>
       </c>
       <c r="G758" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23616,7 +23616,7 @@
         <v>18.2800006866455</v>
       </c>
       <c r="G759" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23642,7 +23642,7 @@
         <v>17.8999996185303</v>
       </c>
       <c r="G760" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23668,7 +23668,7 @@
         <v>17.7600002288818</v>
       </c>
       <c r="G761" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23694,7 +23694,7 @@
         <v>17.4400005340576</v>
       </c>
       <c r="G762" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23720,7 +23720,7 @@
         <v>18.1800003051758</v>
       </c>
       <c r="G763" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23746,7 +23746,7 @@
         <v>18.1200008392334</v>
       </c>
       <c r="G764" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23772,7 +23772,7 @@
         <v>18.4599990844727</v>
       </c>
       <c r="G765" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23798,7 +23798,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G766" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23824,7 +23824,7 @@
         <v>18.9200000762939</v>
       </c>
       <c r="G767" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23850,7 +23850,7 @@
         <v>19</v>
       </c>
       <c r="G768" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23876,7 +23876,7 @@
         <v>19</v>
       </c>
       <c r="G769" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23902,7 +23902,7 @@
         <v>18.8600006103516</v>
       </c>
       <c r="G770" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23928,7 +23928,7 @@
         <v>18.7800006866455</v>
       </c>
       <c r="G771" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23954,7 +23954,7 @@
         <v>18.7999992370605</v>
       </c>
       <c r="G772" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23980,7 +23980,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G773" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -24006,7 +24006,7 @@
         <v>18.8400001525879</v>
       </c>
       <c r="G774" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -24032,7 +24032,7 @@
         <v>19.1399993896484</v>
       </c>
       <c r="G775" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -24058,7 +24058,7 @@
         <v>19.2399997711182</v>
       </c>
       <c r="G776" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -24084,7 +24084,7 @@
         <v>19.5799999237061</v>
       </c>
       <c r="G777" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -24110,7 +24110,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G778" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -24136,7 +24136,7 @@
         <v>19.5400009155273</v>
       </c>
       <c r="G779" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -24162,7 +24162,7 @@
         <v>19.4799995422363</v>
       </c>
       <c r="G780" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -24188,7 +24188,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="G781" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -24214,7 +24214,7 @@
         <v>19.8999996185303</v>
       </c>
       <c r="G782" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -24240,7 +24240,7 @@
         <v>19.8799991607666</v>
       </c>
       <c r="G783" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -24266,7 +24266,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G784" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -24292,7 +24292,7 @@
         <v>19.9200000762939</v>
       </c>
       <c r="G785" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -24318,7 +24318,7 @@
         <v>19.7999992370605</v>
       </c>
       <c r="G786" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -24344,7 +24344,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G787" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -24370,7 +24370,7 @@
         <v>20.2000007629395</v>
       </c>
       <c r="G788" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -24396,7 +24396,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G789" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -24422,7 +24422,7 @@
         <v>20.25</v>
       </c>
       <c r="G790" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -24448,7 +24448,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G791" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -24474,7 +24474,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G792" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -24500,7 +24500,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G793" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -24526,7 +24526,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G794" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24552,7 +24552,7 @@
         <v>21.25</v>
       </c>
       <c r="G795" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24578,7 +24578,7 @@
         <v>22.25</v>
       </c>
       <c r="G796" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24604,7 +24604,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G797" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24630,7 +24630,7 @@
         <v>22.25</v>
       </c>
       <c r="G798" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24656,7 +24656,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G799" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24682,7 +24682,7 @@
         <v>22.25</v>
       </c>
       <c r="G800" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24708,7 +24708,7 @@
         <v>22.25</v>
       </c>
       <c r="G801" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G802" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24760,7 +24760,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G803" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G804" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24812,7 +24812,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G805" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24838,7 +24838,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G806" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24864,7 +24864,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G807" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24890,7 +24890,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G808" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24916,7 +24916,7 @@
         <v>22.5</v>
       </c>
       <c r="G809" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24942,7 +24942,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G810" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24968,7 +24968,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G811" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24994,7 +24994,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G812" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -25020,7 +25020,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G813" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -25046,7 +25046,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G814" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -25072,7 +25072,7 @@
         <v>22.3500003814697</v>
       </c>
       <c r="G815" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -25098,7 +25098,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G816" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -25124,7 +25124,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G817" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -25150,7 +25150,7 @@
         <v>22.25</v>
       </c>
       <c r="G818" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -25176,7 +25176,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G819" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -25202,7 +25202,7 @@
         <v>22.4500007629395</v>
       </c>
       <c r="G820" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -25228,7 +25228,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G821" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -25254,7 +25254,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G822" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -25280,7 +25280,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G823" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -25306,7 +25306,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G824" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G825" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -25358,7 +25358,7 @@
         <v>22</v>
       </c>
       <c r="G826" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -25384,7 +25384,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G827" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -25410,7 +25410,7 @@
         <v>21.8999996185303</v>
       </c>
       <c r="G828" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -25436,7 +25436,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G829" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -25462,7 +25462,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G830" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -25488,7 +25488,7 @@
         <v>22.0499992370605</v>
       </c>
       <c r="G831" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -25514,7 +25514,7 @@
         <v>22.25</v>
       </c>
       <c r="G832" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25540,7 +25540,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G833" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25566,7 +25566,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G834" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25592,7 +25592,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G835" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25618,7 +25618,7 @@
         <v>22.25</v>
       </c>
       <c r="G836" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25644,7 +25644,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G837" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25670,7 +25670,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G838" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25696,7 +25696,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G839" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25722,7 +25722,7 @@
         <v>22.2000007629395</v>
       </c>
       <c r="G840" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25748,7 +25748,7 @@
         <v>22.25</v>
       </c>
       <c r="G841" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25774,7 +25774,7 @@
         <v>22.2999992370605</v>
       </c>
       <c r="G842" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25800,7 +25800,7 @@
         <v>22.3999996185303</v>
       </c>
       <c r="G843" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25826,7 +25826,7 @@
         <v>22.25</v>
       </c>
       <c r="G844" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25852,7 +25852,7 @@
         <v>21.5</v>
       </c>
       <c r="G845" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25878,7 +25878,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G846" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25904,7 +25904,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G847" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25930,7 +25930,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G848" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25956,7 +25956,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G849" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25982,7 +25982,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G850" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -26008,7 +26008,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G851" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -26034,7 +26034,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G852" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -26060,7 +26060,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G853" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -26086,7 +26086,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G854" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -26112,7 +26112,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G855" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -26138,7 +26138,7 @@
         <v>21.5</v>
       </c>
       <c r="G856" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -26164,7 +26164,7 @@
         <v>21.75</v>
       </c>
       <c r="G857" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -26190,7 +26190,7 @@
         <v>22.1499996185303</v>
       </c>
       <c r="G858" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -26216,7 +26216,7 @@
         <v>22</v>
       </c>
       <c r="G859" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -26242,7 +26242,7 @@
         <v>22.25</v>
       </c>
       <c r="G860" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -26268,7 +26268,7 @@
         <v>22.25</v>
       </c>
       <c r="G861" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -26294,7 +26294,7 @@
         <v>22.1000003814697</v>
       </c>
       <c r="G862" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -26320,7 +26320,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G863" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -26346,7 +26346,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G864" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -26372,7 +26372,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G865" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -26398,7 +26398,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G866" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -26424,7 +26424,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G867" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -26450,7 +26450,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G868" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -26476,7 +26476,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G869" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -26502,7 +26502,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G870" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -26528,7 +26528,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G871" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26554,7 +26554,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G872" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26580,7 +26580,7 @@
         <v>20.25</v>
       </c>
       <c r="G873" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26606,7 +26606,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G874" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26632,7 +26632,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G875" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26658,7 +26658,7 @@
         <v>20.5</v>
       </c>
       <c r="G876" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26684,7 +26684,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G877" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26710,7 +26710,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G878" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26736,7 +26736,7 @@
         <v>20.25</v>
       </c>
       <c r="G879" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26762,7 +26762,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G880" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26788,7 +26788,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G881" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26814,7 +26814,7 @@
         <v>20.6499996185303</v>
       </c>
       <c r="G882" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26840,7 +26840,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G883" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26866,7 +26866,7 @@
         <v>20.5</v>
       </c>
       <c r="G884" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26892,7 +26892,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G885" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26918,7 +26918,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G886" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26944,7 +26944,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G887" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26970,7 +26970,7 @@
         <v>20.5</v>
       </c>
       <c r="G888" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26996,7 +26996,7 @@
         <v>20.4500007629395</v>
       </c>
       <c r="G889" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -27022,7 +27022,7 @@
         <v>20.6000003814697</v>
       </c>
       <c r="G890" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -27048,7 +27048,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G891" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -27074,7 +27074,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G892" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -27100,7 +27100,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G893" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -27126,7 +27126,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G894" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -27152,7 +27152,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G895" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -27178,7 +27178,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G896" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -27204,7 +27204,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G897" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -27230,7 +27230,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G898" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -27256,7 +27256,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G899" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -27282,7 +27282,7 @@
         <v>20.3500003814697</v>
       </c>
       <c r="G900" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -27308,7 +27308,7 @@
         <v>20.3999996185303</v>
       </c>
       <c r="G901" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -27334,7 +27334,7 @@
         <v>20.2999992370605</v>
       </c>
       <c r="G902" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -27360,7 +27360,7 @@
         <v>20.5499992370605</v>
       </c>
       <c r="G903" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -27386,7 +27386,7 @@
         <v>20.7000007629395</v>
       </c>
       <c r="G904" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -27412,7 +27412,7 @@
         <v>20.7999992370605</v>
       </c>
       <c r="G905" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -27438,7 +27438,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G906" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -27464,7 +27464,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G907" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -27490,7 +27490,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G908" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -27516,7 +27516,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G909" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27542,7 +27542,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G910" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27568,7 +27568,7 @@
         <v>21.3500003814697</v>
       </c>
       <c r="G911" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27594,7 +27594,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G912" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27620,7 +27620,7 @@
         <v>21.2999992370605</v>
       </c>
       <c r="G913" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27646,7 +27646,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G914" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27672,7 +27672,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G915" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27698,7 +27698,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G916" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27724,7 +27724,7 @@
         <v>21.25</v>
       </c>
       <c r="G917" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27750,7 +27750,7 @@
         <v>20.8500003814697</v>
       </c>
       <c r="G918" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27776,7 +27776,7 @@
         <v>21.0499992370605</v>
       </c>
       <c r="G919" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27802,7 +27802,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G920" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27828,7 +27828,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G921" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27854,7 +27854,7 @@
         <v>20.8999996185303</v>
       </c>
       <c r="G922" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27880,7 +27880,7 @@
         <v>21.1499996185303</v>
       </c>
       <c r="G923" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27906,7 +27906,7 @@
         <v>21</v>
       </c>
       <c r="G924" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27932,7 +27932,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G925" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27958,7 +27958,7 @@
         <v>21.5</v>
       </c>
       <c r="G926" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27984,7 +27984,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G927" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -28010,7 +28010,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G928" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -28036,7 +28036,7 @@
         <v>21.25</v>
       </c>
       <c r="G929" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -28062,7 +28062,7 @@
         <v>21</v>
       </c>
       <c r="G930" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -28088,7 +28088,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G931" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -28114,7 +28114,7 @@
         <v>21.2000007629395</v>
       </c>
       <c r="G932" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -28140,7 +28140,7 @@
         <v>21.6499996185303</v>
       </c>
       <c r="G933" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -28166,7 +28166,7 @@
         <v>21.3999996185303</v>
       </c>
       <c r="G934" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -28192,7 +28192,7 @@
         <v>21.5499992370605</v>
       </c>
       <c r="G935" t="s">
-        <v>458</v>
+        <v>603</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -28218,7 +28218,7 @@
         <v>21.6000003814697</v>
       </c>
       <c r="G936" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -28244,7 +28244,7 @@
         <v>21.75</v>
       </c>
       <c r="G937" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -28270,7 +28270,7 @@
         <v>22.25</v>
       </c>
       <c r="G938" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -31468,7 +31468,7 @@
         <v>22.25</v>
       </c>
       <c r="G1061" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -31494,7 +31494,7 @@
         <v>21.75</v>
       </c>
       <c r="G1062" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -31520,7 +31520,7 @@
         <v>20.1000003814697</v>
       </c>
       <c r="G1063" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -32300,7 +32300,7 @@
         <v>19.9799995422363</v>
       </c>
       <c r="G1093" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -32326,7 +32326,7 @@
         <v>20.0499992370605</v>
       </c>
       <c r="G1094" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -37994,7 +37994,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1312" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -38566,7 +38566,7 @@
         <v>21.4500007629395</v>
       </c>
       <c r="G1334" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -60102,7 +60102,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6495949074</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>109981</v>
@@ -60123,6 +60123,32 @@
         <v>1178</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6495138889</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>56525</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>27.9500007629395</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>27.8500003814697</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>27.8999996185303</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>27.9500007629395</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>
